--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="447">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1118,99 +1118,6 @@
   </si>
   <si>
     <t>List&lt;Cxcf&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": [
-        {
-            "selected": null,
-            "dictid": "1120",
-            "appname": "超限处罚",
-            "dictname": "案发地点",
-            "dictcode": "舟山东极镇",
-            "dictvalue": "舟山东极镇",
-            "dictorder": "20150602110249",
-            "dictfilter": "1"
-        },
-        {
-            "selected": null,
-            "dictid": "1115",
-            "appname": "超限处罚",
-            "dictname": "案发地点",
-            "dictcode": "舟山东极岛",
-            "dictvalue": "舟山东极岛",
-            "dictorder": "20150602110249",
-            "dictfilter": "1"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": [
-        {
-            "selected": null,
-            "aj_id": 101,
-            "dw_bh": "1",
-            "aj_bh": "222",
-            "aj_jasj": "2015-05-29 00:01",
-            "cj_dh": "002",
-            "cj_sj": "2015-05-29 12:59",
-            "cj_cxlx": "超重",
-            "cj_kfxz": "可卸载",
-            "cj_cp": "浙L00001",
-            "cj_zs": 4,
-            "cj_zz": "42",
-            "cj_cz": 2,
-            "hw_mc": "危险品",
-            "hw_qd": "舟山",
-            "hw_md": "杭州",
-            "cl_gc": "1121",
-            "cl_hdzzl": 2121,
-            "cl_zbzl": 2121,
-            "cl_cjd": "浙江舟山",
-            "cl_lx": "大货车",
-            "cl_yyz": "330102199011050034",
-            "cl_syr": "张张",
-            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
-            "cl_dh": "13867202020",
-            "jsy_xm": "张张",
-            "jsy_xb": "男",
-            "jsy_zh": "434343434343434343",
-            "jsy_cy": "8437289473298",
-            "jsy_dh": "328173821",
-            "jsy_zz": "法律的司法的死哦非打死哦",
-            "aj_fk": 0,
-            "aj_pjh": "321321321",
-            "aj_tcdd": "房价打击偶发的骄傲if",
-            "aj_zfx": "张",
-            "aj_zfxz": "3233213",
-            "aj_zfj": "放大",
-            "aj_zfjz": "432432",
-            "aj_afsj": "2015-05-29 12:00",
-            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
-            "fj_cz": 0,
-            "fj_zz": 35,
-            "fj_sj": "2015-05-29 12:00",
-            "fj_dh": "1212121",
-            "aj_xwbldd": "房地阿娇封ID啊",
-            "aj_xwblsj": "2015-05-29 12:32",
-            "aj_xcbldd": "覅带哦合法地哦啊",
-            "dw": null,
-            "aj_xcblsj": "2015-05-29 12:16",
-            "aj_jazt": "是",
-            "cj_zz_lx": null,
-            "aj_datastate": 0,
-            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
-        }
-    ]
-}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1781,10 +1688,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/{ajid}/insert.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>(1)ajid:案卷ID
 (2)Jttl</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1987,13 +1890,6 @@
   </si>
   <si>
     <t>常用信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dict   
-1.appname:cxcf(现在就这一种)
-2.dictname:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFXWR:执法询问人,ZFJLR:执法记录人)
-3.dictvalue:要查询的值</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2235,6 +2131,124 @@
         ]
     }
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{ajid}/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict   
+1.appname:cxcf(现在就这一种)
+2.dictname:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
+3.dictvalue:要查询的值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "AFDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XCBLDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XWBLDD": [
+            {
+                "value": "21"
+            }
+        ],
+        "TCDD": [
+            {
+                "value": "55"
+            }
+        ],
+        "ZFR": [
+            {
+                "aj_zfx": "5",
+                "aj_zfxz": "5"
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": [
+        {
+            "selected": null,
+            "aj_id": 101,
+            "dw_bh": "1",
+            "aj_bh": "222",
+            "aj_jasj": "2015-05-29 00:01",
+            "cj_dh": "002",
+            "cj_sj": "2015-05-29 12:59",
+            "cj_cxlx": "超重",
+            "cj_kfxz": "可卸载",
+            "cj_cp": "浙L00001",
+            "cj_zs": 4,
+            "cj_zz": "42",
+            "cj_cz": 2,
+            "hw_mc": "危险品",
+            "hw_qd": "舟山",
+            "hw_md": "杭州",
+            "cl_gc": "1121",
+            "cl_hdzzl": 2121,
+            "cl_zbzl": 2121,
+            "cl_cjd": "浙江舟山",
+            "cl_lx": "大货车",
+            "cl_yyz": "330102199011050034",
+            "cl_syr": "张张",
+            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
+            "cl_dh": "13867202020",
+            "jsy_xm": "张张",
+            "jsy_xb": "男",
+            "jsy_zh": "434343434343434343",
+            "jsy_cy": "8437289473298",
+            "jsy_dh": "328173821",
+            "jsy_zz": "法律的司法的死哦非打死哦",
+            "aj_fk": 0,
+            "aj_pjh": "321321321",
+            "aj_tcdd": "房价打击偶发的骄傲if",
+            "aj_zfx": "张",
+            "aj_zfxz": "3233213",
+            "aj_zfj": "放大",
+            "aj_zfjz": "432432",
+            "aj_afsj": "2015-05-29 12:00",
+            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
+            "fj_cz": 0,
+            "fj_zz": 35,
+            "fj_sj": "2015-05-29 12:00",
+            "fj_dh": "1212121",
+            "aj_xwbldd": "房地阿娇封ID啊",
+            "aj_xwblsj": "2015-05-29 12:32",
+            "aj_xcbldd": "覅带哦合法地哦啊",
+            "dw": null,
+            "aj_xcblsj": "2015-05-29 12:16",
+            "aj_jazt": "是",
+            "cj_zz_lx": null,
+            "aj_datastate": 0,
+            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3092,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D28:F41"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3660,10 +3674,10 @@
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -3932,7 +3946,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -3968,7 +3982,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>85</v>
@@ -3988,7 +4002,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4019,7 +4033,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4030,7 +4044,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4050,7 +4064,7 @@
         <v>277</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4081,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4112,7 +4126,7 @@
         <v>93</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4141,7 +4155,7 @@
         <v>96</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4152,7 +4166,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4170,7 +4184,7 @@
         <v>278</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -4192,14 +4206,14 @@
       <c r="B38" s="2"/>
       <c r="C38" s="33"/>
       <c r="D38" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>19</v>
@@ -4210,10 +4224,10 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N38" s="17"/>
     </row>
@@ -4221,28 +4235,28 @@
       <c r="B39" s="2"/>
       <c r="C39" s="33"/>
       <c r="D39" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N39" s="17"/>
     </row>
@@ -4250,26 +4264,26 @@
       <c r="B40" s="2"/>
       <c r="C40" s="33"/>
       <c r="D40" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N40" s="17"/>
     </row>
@@ -4277,28 +4291,28 @@
       <c r="B41" s="2"/>
       <c r="C41" s="34"/>
       <c r="D41" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N41" s="17"/>
     </row>
@@ -4314,26 +4328,26 @@
         <v>99</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>295</v>
+        <v>446</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>296</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L42" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="M42" s="23" t="s">
         <v>298</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>300</v>
       </c>
       <c r="N42" s="17"/>
     </row>
@@ -4345,10 +4359,10 @@
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>295</v>
@@ -4359,10 +4373,10 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="24" t="s">
-        <v>299</v>
+        <v>445</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N43" s="17"/>
     </row>
@@ -4372,7 +4386,7 @@
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E44" s="42"/>
       <c r="F44" s="21" t="s">
@@ -4512,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>109</v>
@@ -4857,7 +4871,7 @@
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
@@ -4934,26 +4948,26 @@
       <c r="B64" s="2"/>
       <c r="C64" s="48"/>
       <c r="D64" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="2"/>
       <c r="M64" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N64" s="2"/>
     </row>
@@ -5022,7 +5036,7 @@
         <v>285</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M66" s="21" t="s">
         <v>292</v>
@@ -5033,26 +5047,26 @@
       <c r="B67" s="2"/>
       <c r="C67" s="45"/>
       <c r="D67" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N67" s="18"/>
     </row>
@@ -5060,56 +5074,56 @@
       <c r="B68" s="2"/>
       <c r="C68" s="46"/>
       <c r="D68" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
       <c r="C69" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="F69" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="G69" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="H69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M69" s="21" t="s">
         <v>292</v>
@@ -5120,25 +5134,25 @@
       <c r="B70" s="2"/>
       <c r="C70" s="36"/>
       <c r="D70" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G70" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>319</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M70" s="21" t="s">
         <v>292</v>
@@ -5149,25 +5163,25 @@
       <c r="B71" s="2"/>
       <c r="C71" s="36"/>
       <c r="D71" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M71" s="21" t="s">
         <v>292</v>
@@ -5178,25 +5192,25 @@
       <c r="B72" s="2"/>
       <c r="C72" s="36"/>
       <c r="D72" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M72" s="21" t="s">
         <v>292</v>
@@ -5207,14 +5221,14 @@
       <c r="B73" s="2"/>
       <c r="C73" s="36"/>
       <c r="D73" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E73" s="36"/>
       <c r="F73" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
@@ -5225,7 +5239,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M73" s="21" t="s">
         <v>292</v>
@@ -5236,14 +5250,14 @@
       <c r="B74" s="2"/>
       <c r="C74" s="36"/>
       <c r="D74" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
@@ -5254,7 +5268,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M74" s="21" t="s">
         <v>292</v>
@@ -5265,14 +5279,14 @@
       <c r="B75" s="2"/>
       <c r="C75" s="36"/>
       <c r="D75" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
@@ -5283,7 +5297,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>292</v>
@@ -5294,14 +5308,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="37"/>
       <c r="D76" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
@@ -5312,7 +5326,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>292</v>
@@ -5322,33 +5336,33 @@
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
       <c r="C77" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="E77" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="G77" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="H77" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>352</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N77" s="18"/>
     </row>
@@ -5356,28 +5370,28 @@
       <c r="B78" s="2"/>
       <c r="C78" s="36"/>
       <c r="D78" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N78" s="18"/>
     </row>
@@ -5385,28 +5399,28 @@
       <c r="B79" s="2"/>
       <c r="C79" s="36"/>
       <c r="D79" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N79" s="18"/>
     </row>
@@ -5414,28 +5428,28 @@
       <c r="B80" s="2"/>
       <c r="C80" s="36"/>
       <c r="D80" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E80" s="36"/>
       <c r="F80" s="21" t="s">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N80" s="18"/>
     </row>
@@ -5443,14 +5457,14 @@
       <c r="B81" s="2"/>
       <c r="C81" s="36"/>
       <c r="D81" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
@@ -5461,10 +5475,10 @@
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N81" s="18"/>
     </row>
@@ -5472,14 +5486,14 @@
       <c r="B82" s="2"/>
       <c r="C82" s="36"/>
       <c r="D82" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
@@ -5490,10 +5504,10 @@
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N82" s="18"/>
     </row>
@@ -5501,14 +5515,14 @@
       <c r="B83" s="2"/>
       <c r="C83" s="36"/>
       <c r="D83" s="21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E83" s="36"/>
       <c r="F83" s="21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
@@ -5519,10 +5533,10 @@
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N83" s="18"/>
     </row>
@@ -5530,14 +5544,14 @@
       <c r="B84" s="2"/>
       <c r="C84" s="37"/>
       <c r="D84" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
@@ -5548,43 +5562,43 @@
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N84" s="18"/>
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
       <c r="C85" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="G85" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="H85" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>382</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N85" s="18"/>
     </row>
@@ -5592,28 +5606,28 @@
       <c r="B86" s="2"/>
       <c r="C86" s="36"/>
       <c r="D86" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E86" s="36"/>
       <c r="F86" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N86" s="18"/>
     </row>
@@ -5621,28 +5635,28 @@
       <c r="B87" s="2"/>
       <c r="C87" s="36"/>
       <c r="D87" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E87" s="36"/>
       <c r="F87" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N87" s="18"/>
     </row>
@@ -5650,28 +5664,28 @@
       <c r="B88" s="2"/>
       <c r="C88" s="36"/>
       <c r="D88" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N88" s="18"/>
     </row>
@@ -5679,14 +5693,14 @@
       <c r="B89" s="2"/>
       <c r="C89" s="36"/>
       <c r="D89" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
@@ -5697,10 +5711,10 @@
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N89" s="18"/>
     </row>
@@ -5708,14 +5722,14 @@
       <c r="B90" s="2"/>
       <c r="C90" s="36"/>
       <c r="D90" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
@@ -5726,10 +5740,10 @@
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N90" s="18"/>
     </row>
@@ -5737,14 +5751,14 @@
       <c r="B91" s="2"/>
       <c r="C91" s="36"/>
       <c r="D91" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E91" s="36"/>
       <c r="F91" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
@@ -5755,10 +5769,10 @@
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N91" s="18"/>
     </row>
@@ -5766,14 +5780,14 @@
       <c r="B92" s="2"/>
       <c r="C92" s="36"/>
       <c r="D92" s="21" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
@@ -5784,10 +5798,10 @@
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N92" s="18"/>
     </row>
@@ -5799,13 +5813,13 @@
         <v>149</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>150</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="453">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -2249,6 +2249,93 @@
   </si>
   <si>
     <t>application/json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前登录用户最新的结案信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLatestJa.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "selected": null,
+        "aj_id": 1601,
+        "dw_bh": "10",
+        "aj_bh": null,
+        "aj_jasj": null,
+        "cj_dh": "000001",
+        "cj_sj": "2015-06-10 12:37",
+        "cj_cxlx": "超重",
+        "cj_kfxz": "可卸载",
+        "cj_cp": "浙A00001",
+        "cj_zs": 2,
+        "cj_zz": "22",
+        "cj_cz": 2,
+        "hw_mc": "222",
+        "hw_qd": "22",
+        "hw_md": "222",
+        "cl_gc": "22",
+        "cl_hdzzl": 22,
+        "cl_zbzl": 2,
+        "cl_cjd": "2",
+        "cl_lx": "2",
+        "cl_yyz": "2",
+        "cl_syr": "22",
+        "cl_zz": "2",
+        "cl_dh": "2",
+        "jsy_xm": "22",
+        "jsy_xb": "男",
+        "jsy_zh": "2",
+        "jsy_cy": "2",
+        "jsy_dh": "2",
+        "jsy_zz": "2",
+        "aj_fk": 300,
+        "aj_pjh": "2",
+        "aj_tcdd": "00000",
+        "aj_zfx": "11",
+        "aj_zfxz": "33",
+        "aj_zfj": "55",
+        "aj_zfjz": "666",
+        "aj_afsj": "2015-06-10 12:37",
+        "aj_afdd": "77",
+        "fj_cz": 0,
+        "fj_zz": 20,
+        "fj_sj": "2015-06-10 12:37",
+        "fj_dh": "22",
+        "aj_xwbldd": "999",
+        "aj_xwblsj": "2015-06-10 13:09",
+        "aj_xcbldd": "88",
+        "dw": null,
+        "aj_xcblsj": "2015-06-10 12:53",
+        "aj_jazt": "否",
+        "cj_zz_lx": "总重22吨",
+        "aj_datastate": 0,
+        "currentpath_pdf": null,
+        "currentpath_word": null,
+        "jt_bh": null,
+        "jttl": null,
+        "cj_zyclq": "0-300（300）",
+        "cp_info": null
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2453,21 +2540,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,6 +2598,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3104,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N93"/>
+  <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3129,17 +3216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3196,13 +3283,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3229,11 +3316,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3258,11 +3345,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3287,11 +3374,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3314,11 +3401,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3341,11 +3428,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3370,11 +3457,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3399,11 +3486,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3430,11 +3517,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3461,13 +3548,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3494,11 +3581,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3523,11 +3610,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3552,11 +3639,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3579,11 +3666,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3606,13 +3693,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="49" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3639,11 +3726,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -3668,11 +3755,11 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="7" t="s">
         <v>419</v>
       </c>
@@ -3697,11 +3784,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -3724,11 +3811,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3751,13 +3838,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="48" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="49" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -3784,11 +3871,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -3813,11 +3900,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -3842,11 +3929,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -3869,11 +3956,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -3896,13 +3983,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -3931,11 +4018,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -3962,11 +4049,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="9" t="s">
         <v>88</v>
       </c>
@@ -3993,11 +4080,11 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
@@ -4024,11 +4111,11 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
@@ -4055,11 +4142,11 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="9" t="s">
         <v>277</v>
       </c>
@@ -4086,11 +4173,11 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="9" t="s">
         <v>91</v>
       </c>
@@ -4117,11 +4204,11 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="9" t="s">
         <v>93</v>
       </c>
@@ -4146,11 +4233,11 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="33"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="10" t="s">
         <v>96</v>
       </c>
@@ -4175,11 +4262,11 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="9" t="s">
         <v>278</v>
       </c>
@@ -4204,11 +4291,11 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="9" t="s">
         <v>404</v>
       </c>
@@ -4233,11 +4320,11 @@
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="9" t="s">
         <v>421</v>
       </c>
@@ -4262,11 +4349,11 @@
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="9" t="s">
         <v>424</v>
       </c>
@@ -4287,13 +4374,13 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E41" s="34"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="9" t="s">
         <v>437</v>
       </c>
@@ -4316,110 +4403,110 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>296</v>
+      <c r="C42" s="29"/>
+      <c r="D42" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>298</v>
+      <c r="K42" s="9"/>
+      <c r="L42" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="39"/>
+      <c r="C43" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="D43" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="42"/>
+        <v>293</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="F43" s="21" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>295</v>
+        <v>446</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="K43" s="21" t="s">
+        <v>413</v>
+      </c>
       <c r="L43" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>298</v>
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="2">
-        <v>33</v>
-      </c>
-      <c r="C44" s="39"/>
+    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E44" s="42"/>
+        <v>294</v>
+      </c>
+      <c r="E44" s="37"/>
       <c r="F44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="N44" s="17"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
-        <v>34</v>
-      </c>
-      <c r="C45" s="39"/>
+        <v>33</v>
+      </c>
+      <c r="C45" s="34"/>
       <c r="D45" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="42"/>
+        <v>408</v>
+      </c>
+      <c r="E45" s="37"/>
       <c r="F45" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>100</v>
@@ -4428,7 +4515,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -4440,15 +4527,15 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
-        <v>35</v>
-      </c>
-      <c r="C46" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="C46" s="34"/>
       <c r="D46" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="42"/>
+        <v>101</v>
+      </c>
+      <c r="E46" s="37"/>
       <c r="F46" s="21" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>100</v>
@@ -4469,22 +4556,24 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
-        <v>36</v>
-      </c>
-      <c r="C47" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="C47" s="34"/>
       <c r="D47" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="42"/>
+        <v>102</v>
+      </c>
+      <c r="E47" s="37"/>
       <c r="F47" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="H47" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
@@ -4496,22 +4585,22 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
-        <v>37</v>
-      </c>
-      <c r="C48" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="C48" s="34"/>
       <c r="D48" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="E48" s="37"/>
       <c r="F48" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -4522,47 +4611,47 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="25">
-        <v>38</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25" t="s">
+      <c r="B49" s="2">
+        <v>37</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="25">
-        <v>39</v>
-      </c>
-      <c r="C50" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>412</v>
+      </c>
       <c r="D50" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
@@ -4581,15 +4670,15 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="25">
-        <v>40</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="25" t="s">
-        <v>113</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
@@ -4608,22 +4697,22 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
-        <v>41</v>
-      </c>
-      <c r="C52" s="47"/>
+        <v>40</v>
+      </c>
+      <c r="C52" s="42"/>
       <c r="D52" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E52" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="E52" s="45"/>
       <c r="F52" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -4635,15 +4724,15 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
-        <v>42</v>
-      </c>
-      <c r="C53" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="C53" s="42"/>
       <c r="D53" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" s="50"/>
+        <v>289</v>
+      </c>
+      <c r="E53" s="45"/>
       <c r="F53" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
@@ -4662,22 +4751,22 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25">
-        <v>43</v>
-      </c>
-      <c r="C54" s="47"/>
+        <v>42</v>
+      </c>
+      <c r="C54" s="42"/>
       <c r="D54" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="50"/>
+        <v>290</v>
+      </c>
+      <c r="E54" s="45"/>
       <c r="F54" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="25" t="s">
-        <v>20</v>
+      <c r="I54" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -4689,22 +4778,22 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>44</v>
-      </c>
-      <c r="C55" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="C55" s="42"/>
       <c r="D55" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="51"/>
+        <v>117</v>
+      </c>
+      <c r="E55" s="45"/>
       <c r="F55" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -4714,52 +4803,48 @@
       </c>
       <c r="N55" s="25"/>
     </row>
-    <row r="56" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="25">
+        <v>44</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
         <v>45</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C57" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E57" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="2">
-        <v>46</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>126</v>
@@ -4770,37 +4855,41 @@
       <c r="I57" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K57" s="12"/>
+      <c r="K57" s="13"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
-        <v>47</v>
-      </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="J58" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" s="12"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
         <v>21</v>
@@ -4809,15 +4898,15 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
-        <v>48</v>
-      </c>
-      <c r="C59" s="48"/>
+        <v>47</v>
+      </c>
+      <c r="C59" s="43"/>
       <c r="D59" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="E59" s="34"/>
       <c r="F59" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14" t="s">
@@ -4836,15 +4925,15 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
-        <v>49</v>
-      </c>
-      <c r="C60" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="C60" s="43"/>
       <c r="D60" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="E60" s="34"/>
       <c r="F60" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14" t="s">
@@ -4863,15 +4952,15 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>50</v>
-      </c>
-      <c r="C61" s="48"/>
+        <v>49</v>
+      </c>
+      <c r="C61" s="43"/>
       <c r="D61" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="39"/>
+        <v>136</v>
+      </c>
+      <c r="E61" s="34"/>
       <c r="F61" s="14" t="s">
-        <v>433</v>
+        <v>137</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
@@ -4890,22 +4979,22 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>51</v>
-      </c>
-      <c r="C62" s="48"/>
+        <v>50</v>
+      </c>
+      <c r="C62" s="43"/>
       <c r="D62" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="39"/>
+        <v>138</v>
+      </c>
+      <c r="E62" s="34"/>
       <c r="F62" s="14" t="s">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -4917,24 +5006,22 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
+        <v>51</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -4944,215 +5031,215 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="2"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>410</v>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="2">
+        <v>52</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="23" t="s">
+      <c r="M64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="2"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="2">
-        <v>53</v>
-      </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="N65" s="18">
-        <v>42149</v>
-      </c>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
+        <v>53</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="35"/>
+      <c r="F66" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="N66" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="2">
         <v>54</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C67" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D67" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E67" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F67" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G67" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="H66" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="21" t="s">
+      <c r="H67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="21" t="s">
+      <c r="J67" s="9"/>
+      <c r="K67" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="L66" s="21" t="s">
+      <c r="L67" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="M66" s="21" t="s">
+      <c r="M67" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="N66" s="18"/>
-    </row>
-    <row r="67" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="2"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="M67" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="N67" s="18"/>
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-      <c r="C68" s="46"/>
+      <c r="C68" s="40"/>
       <c r="D68" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68" s="37"/>
+        <v>299</v>
+      </c>
+      <c r="E68" s="31"/>
       <c r="F68" s="21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="35" t="s">
-        <v>310</v>
-      </c>
+      <c r="C69" s="41"/>
       <c r="D69" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>312</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>314</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G69" s="21"/>
       <c r="H69" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="M69" s="21" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="N69" s="18"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="D70" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" s="36"/>
+        <v>311</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F70" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G70" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
-      <c r="L70" s="22" t="s">
-        <v>335</v>
+      <c r="L70" s="21" t="s">
+        <v>334</v>
       </c>
       <c r="M70" s="21" t="s">
         <v>292</v>
@@ -5161,27 +5248,27 @@
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E71" s="36"/>
+        <v>321</v>
+      </c>
+      <c r="E71" s="31"/>
       <c r="F71" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>333</v>
+        <v>316</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M71" s="21" t="s">
         <v>292</v>
@@ -5190,27 +5277,27 @@
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E72" s="36"/>
+        <v>322</v>
+      </c>
+      <c r="E72" s="31"/>
       <c r="F72" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M72" s="21" t="s">
         <v>292</v>
@@ -5219,27 +5306,27 @@
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="36"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E73" s="36"/>
+        <v>323</v>
+      </c>
+      <c r="E73" s="31"/>
       <c r="F73" s="21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="14" t="s">
-        <v>33</v>
+      <c r="I73" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="M73" s="21" t="s">
         <v>292</v>
@@ -5248,16 +5335,16 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E74" s="36"/>
+        <v>324</v>
+      </c>
+      <c r="E74" s="31"/>
       <c r="F74" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
@@ -5268,7 +5355,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="M74" s="21" t="s">
         <v>292</v>
@@ -5277,22 +5364,22 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="E75" s="36"/>
+        <v>327</v>
+      </c>
+      <c r="E75" s="31"/>
       <c r="F75" s="21" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
@@ -5306,13 +5393,13 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="37"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E76" s="37"/>
+        <v>328</v>
+      </c>
+      <c r="E76" s="31"/>
       <c r="F76" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>315</v>
@@ -5326,7 +5413,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>292</v>
@@ -5335,60 +5422,60 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="35" t="s">
-        <v>344</v>
-      </c>
+      <c r="C77" s="32"/>
       <c r="D77" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>347</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E77" s="32"/>
       <c r="F77" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="21" t="s">
-        <v>350</v>
+      <c r="I77" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="N77" s="18"/>
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="36"/>
+      <c r="C78" s="30" t="s">
+        <v>344</v>
+      </c>
       <c r="D78" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E78" s="36"/>
+        <v>346</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>347</v>
+      </c>
       <c r="F78" s="21" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M78" s="21" t="s">
         <v>345</v>
@@ -5397,27 +5484,27 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E79" s="36"/>
+        <v>354</v>
+      </c>
+      <c r="E79" s="31"/>
       <c r="F79" s="21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M79" s="21" t="s">
         <v>345</v>
@@ -5426,27 +5513,27 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E80" s="36"/>
+        <v>358</v>
+      </c>
+      <c r="E80" s="31"/>
       <c r="F80" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M80" s="21" t="s">
         <v>345</v>
@@ -5455,27 +5542,27 @@
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="36"/>
+        <v>362</v>
+      </c>
+      <c r="E81" s="31"/>
       <c r="F81" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>349</v>
+        <v>441</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="14" t="s">
-        <v>33</v>
+      <c r="I81" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M81" s="21" t="s">
         <v>345</v>
@@ -5484,16 +5571,16 @@
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E82" s="36"/>
+        <v>365</v>
+      </c>
+      <c r="E82" s="31"/>
       <c r="F82" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
@@ -5513,22 +5600,22 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E83" s="36"/>
+        <v>370</v>
+      </c>
+      <c r="E83" s="31"/>
       <c r="F83" s="21" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
@@ -5542,13 +5629,13 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="37"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E84" s="37"/>
+        <v>369</v>
+      </c>
+      <c r="E84" s="31"/>
       <c r="F84" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>355</v>
@@ -5571,60 +5658,60 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="35" t="s">
-        <v>374</v>
-      </c>
+      <c r="C85" s="32"/>
       <c r="D85" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>376</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E85" s="32"/>
       <c r="F85" s="21" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>379</v>
+        <v>52</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="N85" s="18"/>
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="30" t="s">
+        <v>374</v>
+      </c>
       <c r="D86" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E86" s="36"/>
+        <v>375</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>376</v>
+      </c>
       <c r="F86" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G86" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M86" s="21" t="s">
         <v>381</v>
@@ -5633,27 +5720,27 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E87" s="36"/>
+        <v>384</v>
+      </c>
+      <c r="E87" s="31"/>
       <c r="F87" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="G87" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="G87" s="14" t="s">
         <v>379</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M87" s="21" t="s">
         <v>381</v>
@@ -5662,13 +5749,13 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E88" s="36"/>
+        <v>386</v>
+      </c>
+      <c r="E88" s="31"/>
       <c r="F88" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>379</v>
@@ -5676,13 +5763,13 @@
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="21" t="s">
-        <v>379</v>
+      <c r="I88" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M88" s="21" t="s">
         <v>381</v>
@@ -5691,27 +5778,27 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E89" s="36"/>
+        <v>390</v>
+      </c>
+      <c r="E89" s="31"/>
       <c r="F89" s="21" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="14" t="s">
-        <v>33</v>
+      <c r="I89" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>381</v>
@@ -5720,16 +5807,16 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="36"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E90" s="36"/>
+        <v>393</v>
+      </c>
+      <c r="E90" s="31"/>
       <c r="F90" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
@@ -5743,28 +5830,28 @@
         <v>339</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="36"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E91" s="36"/>
+        <v>394</v>
+      </c>
+      <c r="E91" s="31"/>
       <c r="F91" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
@@ -5778,13 +5865,13 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="36"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E92" s="36"/>
+        <v>395</v>
+      </c>
+      <c r="E92" s="31"/>
       <c r="F92" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>379</v>
@@ -5805,55 +5892,70 @@
       </c>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="2">
+    <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="2"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="M93" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="N93" s="18"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" s="2">
         <v>55</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E94" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F94" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="12" t="s">
+      <c r="G94" s="12"/>
+      <c r="H94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="17" t="s">
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N93" s="2"/>
+      <c r="N94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="E28:E41"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="E85:E92"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="E77:E84"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="E56:E65"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="E28:E42"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -5863,6 +5965,20 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="E57:E66"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="460">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>xxc</t>
-  </si>
-  <si>
-    <t>PageInfo&lt;Cxcf&gt;</t>
   </si>
   <si>
     <t>{
@@ -454,9 +451,6 @@
     <t>PDF的URL</t>
   </si>
   <si>
-    <t>字典表</t>
-  </si>
-  <si>
     <t>/api/dicts</t>
   </si>
   <si>
@@ -466,25 +460,10 @@
     <t>更新一条字典表信息</t>
   </si>
   <si>
-    <t>选择性更新一条字典表信息</t>
-  </si>
-  <si>
     <t>/{dictid}/update.do</t>
   </si>
   <si>
-    <t>删除一条字典表信息</t>
-  </si>
-  <si>
     <t>/{dictid}/delete.do</t>
-  </si>
-  <si>
-    <t>查找一条字典表信息</t>
-  </si>
-  <si>
-    <t>/{dictid}/find.do</t>
-  </si>
-  <si>
-    <t>dict</t>
   </si>
   <si>
     <t>案发地点列表信息</t>
@@ -1873,10 +1852,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>插入一条字典表信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>获取后台dataid的序列号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2336,6 +2311,230 @@
   </si>
   <si>
     <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{pageNum}/{pageSize}/queryPage.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入的Dict对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageInfo&lt;Cxcf&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PageInfo&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "新增成功",
+    "data": {
+        "selected": null,
+        "dictid": "1739",
+        "appname": "皮卡丘",
+        "dictname": "杰尼龟",
+        "dictcode": "小火龙",
+        "dictvalue": "妙蛙种子",
+        "dictorder": "20",
+        "dictfilter": "10"
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "删除成功",
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新一条字典表信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "pageNum": 1,
+        "pageSize": 10,
+        "size": 10,
+        "startRow": 1,
+        "endRow": 10,
+        "total": 20,
+        "pages": 2,
+        "list": [
+            {
+                "selected": null,
+                "dictid": "1602",
+                "appname": "CXCF",
+                "dictname": "AFDD",
+                "dictcode": "77",
+                "dictvalue": "77",
+                "dictorder": "20150610123608",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1606",
+                "appname": "CXCF",
+                "dictname": "ZFR",
+                "dictcode": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"55\"}",
+                "dictvalue": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"55\"}",
+                "dictorder": "20150610123608",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1605",
+                "appname": "CXCF",
+                "dictname": "ZFR",
+                "dictcode": "{\"aj_zfr\":\"11\",\"aj_zfrz\":\"33\"}",
+                "dictvalue": "{\"aj_zfr\":\"11\",\"aj_zfrz\":\"33\"}",
+                "dictorder": "20150610123608",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1604",
+                "appname": "CXCF",
+                "dictname": "XWBLDD",
+                "dictcode": "999",
+                "dictvalue": "999",
+                "dictorder": "20150610123608",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1603",
+                "appname": "CXCF",
+                "dictname": "XCBLDD",
+                "dictcode": "88",
+                "dictvalue": "88",
+                "dictorder": "20150610123608",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1614",
+                "appname": "CXCF",
+                "dictname": "ZFR",
+                "dictcode": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"666\"}",
+                "dictvalue": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"666\"}",
+                "dictorder": "20150610133450",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1668",
+                "appname": "CXCF",
+                "dictname": "AFDD",
+                "dictcode": "甬舟高速",
+                "dictvalue": "甬舟高速",
+                "dictorder": "20150611150714",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1671",
+                "appname": "CXCF",
+                "dictname": "ZFR",
+                "dictcode": "{\"aj_zfr\":\"何鎏\",\"aj_zfrz\":\"330903001\"}",
+                "dictvalue": "{\"aj_zfr\":\"何鎏\",\"aj_zfrz\":\"330903001\"}",
+                "dictorder": "20150611150714",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1670",
+                "appname": "CXCF",
+                "dictname": "XWBLDD",
+                "dictcode": "双桥检测站",
+                "dictvalue": "双桥检测站",
+                "dictorder": "20150611150714",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1669",
+                "appname": "CXCF",
+                "dictname": "XCBLDD",
+                "dictcode": "双桥检测站",
+                "dictvalue": "双桥检测站",
+                "dictorder": "20150611150714",
+                "dictfilter": "10"
+            }
+        ],
+        "firstPage": 1,
+        "prePage": 0,
+        "nextPage": 2,
+        "lastPage": 2,
+        "isFirstPage": true,
+        "isLastPage": false,
+        "hasPreviousPage": false,
+        "hasNextPage": true,
+        "navigatePages": 8,
+        "navigatepageNums": [
+            1,
+            2
+        ]
+    }
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2492,7 +2691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2540,14 +2739,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2558,7 +2751,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2574,9 +2767,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2600,6 +2790,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2615,6 +2817,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3193,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3216,17 +3419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3283,13 +3486,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3316,11 +3519,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3345,11 +3548,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3374,11 +3577,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3401,11 +3604,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3428,11 +3631,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3457,11 +3660,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3486,11 +3689,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3517,11 +3720,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3548,13 +3751,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3581,11 +3784,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3610,11 +3813,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3639,11 +3842,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3666,11 +3869,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3693,13 +3896,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="49" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="50" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3726,11 +3929,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -3755,16 +3958,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -3784,11 +3987,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -3811,11 +4014,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3838,13 +4041,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="50" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -3871,11 +4074,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -3900,11 +4103,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -3929,11 +4132,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -3956,11 +4159,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -3983,13 +4186,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="45" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4018,11 +4221,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4033,12 +4236,12 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>85</v>
@@ -4049,13 +4252,13 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>82</v>
@@ -4069,7 +4272,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="24" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>85</v>
@@ -4080,16 +4283,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4100,7 +4303,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>85</v>
@@ -4111,16 +4314,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4131,7 +4334,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4142,16 +4345,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4162,7 +4365,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M33" s="17" t="s">
         <v>85</v>
@@ -4173,16 +4376,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4193,7 +4396,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>85</v>
@@ -4204,16 +4407,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G35" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4224,7 +4427,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M35" s="17" t="s">
         <v>85</v>
@@ -4233,27 +4436,27 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4262,16 +4465,16 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="28"/>
+        <v>269</v>
+      </c>
+      <c r="E37" s="46"/>
       <c r="F37" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -4282,320 +4485,324 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" s="28"/>
+        <v>396</v>
+      </c>
+      <c r="E38" s="46"/>
       <c r="F38" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>86</v>
+        <v>449</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="28"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="E39" s="28"/>
+        <v>414</v>
+      </c>
+      <c r="E39" s="46"/>
       <c r="F39" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E40" s="28"/>
+        <v>415</v>
+      </c>
+      <c r="E40" s="46"/>
       <c r="F40" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>432</v>
-      </c>
       <c r="H40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" s="28"/>
+        <v>428</v>
+      </c>
+      <c r="E41" s="46"/>
       <c r="F41" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="20" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="29"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E42" s="29"/>
+        <v>439</v>
+      </c>
+      <c r="E42" s="47"/>
       <c r="F42" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H42" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="20" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="33" t="s">
-        <v>98</v>
+      <c r="C43" s="31" t="s">
+        <v>454</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>99</v>
+        <v>286</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="21" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="37"/>
+        <v>287</v>
+      </c>
+      <c r="E44" s="35"/>
       <c r="F44" s="21" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="24" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>33</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E45" s="37"/>
+        <v>455</v>
+      </c>
+      <c r="E45" s="35"/>
       <c r="F45" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>39</v>
+      <c r="I45" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="27" t="s">
+        <v>451</v>
+      </c>
       <c r="M45" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="25">
+        <v>34</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="2">
-        <v>34</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="21" t="s">
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="25">
+        <v>35</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="G47" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B47" s="2">
-        <v>35</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>36</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="37"/>
+        <v>457</v>
+      </c>
+      <c r="E48" s="35"/>
       <c r="F48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="21"/>
+        <v>101</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>446</v>
+      </c>
       <c r="H48" s="12" t="s">
         <v>19</v>
       </c>
@@ -4604,36 +4811,42 @@
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="27" t="s">
+        <v>452</v>
+      </c>
       <c r="M48" s="2" t="s">
-        <v>21</v>
+        <v>445</v>
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>37</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="38"/>
+        <v>453</v>
+      </c>
+      <c r="E49" s="36"/>
       <c r="F49" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="21"/>
+        <v>447</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>458</v>
+      </c>
       <c r="H49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>108</v>
+      <c r="I49" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="27" t="s">
+        <v>459</v>
+      </c>
       <c r="M49" s="2" t="s">
-        <v>21</v>
+        <v>445</v>
       </c>
       <c r="N49" s="2"/>
     </row>
@@ -4641,24 +4854,24 @@
       <c r="B50" s="25">
         <v>38</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>412</v>
+      <c r="C50" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
@@ -4672,20 +4885,20 @@
       <c r="B51" s="25">
         <v>39</v>
       </c>
-      <c r="C51" s="42"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E51" s="45"/>
+        <v>280</v>
+      </c>
+      <c r="E51" s="42"/>
       <c r="F51" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
@@ -4699,20 +4912,20 @@
       <c r="B52" s="25">
         <v>40</v>
       </c>
-      <c r="C52" s="42"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E52" s="45"/>
+        <v>281</v>
+      </c>
+      <c r="E52" s="42"/>
       <c r="F52" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -4726,20 +4939,20 @@
       <c r="B53" s="25">
         <v>41</v>
       </c>
-      <c r="C53" s="42"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E53" s="45"/>
+        <v>282</v>
+      </c>
+      <c r="E53" s="42"/>
       <c r="F53" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -4753,20 +4966,20 @@
       <c r="B54" s="25">
         <v>42</v>
       </c>
-      <c r="C54" s="42"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E54" s="45"/>
+        <v>283</v>
+      </c>
+      <c r="E54" s="42"/>
       <c r="F54" s="25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -4780,13 +4993,13 @@
       <c r="B55" s="25">
         <v>43</v>
       </c>
-      <c r="C55" s="42"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="45"/>
+        <v>110</v>
+      </c>
+      <c r="E55" s="42"/>
       <c r="F55" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
@@ -4807,20 +5020,20 @@
       <c r="B56" s="25">
         <v>44</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="46"/>
+        <v>112</v>
+      </c>
+      <c r="E56" s="43"/>
       <c r="F56" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -4834,29 +5047,29 @@
       <c r="B57" s="2">
         <v>45</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="2"/>
@@ -4869,25 +5082,25 @@
       <c r="B58" s="2">
         <v>46</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="E58" s="32"/>
       <c r="F58" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K58" s="12"/>
       <c r="L58" s="2"/>
@@ -4900,20 +5113,20 @@
       <c r="B59" s="2">
         <v>47</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="E59" s="32"/>
       <c r="F59" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -4927,20 +5140,20 @@
       <c r="B60" s="2">
         <v>48</v>
       </c>
-      <c r="C60" s="43"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="E60" s="32"/>
       <c r="F60" s="14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -4954,20 +5167,20 @@
       <c r="B61" s="2">
         <v>49</v>
       </c>
-      <c r="C61" s="43"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="34"/>
+        <v>129</v>
+      </c>
+      <c r="E61" s="32"/>
       <c r="F61" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -4981,20 +5194,20 @@
       <c r="B62" s="2">
         <v>50</v>
       </c>
-      <c r="C62" s="43"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="34"/>
+        <v>131</v>
+      </c>
+      <c r="E62" s="32"/>
       <c r="F62" s="14" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -5008,13 +5221,13 @@
       <c r="B63" s="2">
         <v>51</v>
       </c>
-      <c r="C63" s="43"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="34"/>
+        <v>132</v>
+      </c>
+      <c r="E63" s="32"/>
       <c r="F63" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5035,16 +5248,16 @@
       <c r="B64" s="2">
         <v>52</v>
       </c>
-      <c r="C64" s="43"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="34"/>
+        <v>134</v>
+      </c>
+      <c r="E64" s="32"/>
       <c r="F64" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>19</v>
@@ -5062,28 +5275,28 @@
     </row>
     <row r="65" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
-      <c r="C65" s="43"/>
+      <c r="C65" s="40"/>
       <c r="D65" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E65" s="34"/>
+        <v>403</v>
+      </c>
+      <c r="E65" s="32"/>
       <c r="F65" s="21" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="2"/>
       <c r="M65" s="23" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N65" s="2"/>
     </row>
@@ -5091,32 +5304,32 @@
       <c r="B66" s="2">
         <v>53</v>
       </c>
-      <c r="C66" s="43"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="E66" s="33"/>
       <c r="F66" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N66" s="18">
         <v>42149</v>
@@ -5126,225 +5339,225 @@
       <c r="B67" s="2">
         <v>54</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>281</v>
+      <c r="C67" s="31" t="s">
+        <v>274</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>283</v>
+        <v>275</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="M67" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M67" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="N67" s="18"/>
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" s="31"/>
+        <v>292</v>
+      </c>
+      <c r="E68" s="29"/>
       <c r="F68" s="21" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E69" s="32"/>
+        <v>296</v>
+      </c>
+      <c r="E69" s="30"/>
       <c r="F69" s="21" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M69" s="21" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N69" s="18"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="30" t="s">
-        <v>310</v>
+      <c r="C70" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H70" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N70" s="18"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="31"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E71" s="31"/>
+        <v>314</v>
+      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="21" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="31"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" s="31"/>
+        <v>315</v>
+      </c>
+      <c r="E72" s="29"/>
       <c r="F72" s="21" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="31"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E73" s="31"/>
+        <v>316</v>
+      </c>
+      <c r="E73" s="29"/>
       <c r="F73" s="21" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="31"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E74" s="31"/>
+        <v>317</v>
+      </c>
+      <c r="E74" s="29"/>
       <c r="F74" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
@@ -5355,25 +5568,25 @@
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N74" s="18"/>
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E75" s="31"/>
+        <v>320</v>
+      </c>
+      <c r="E75" s="29"/>
       <c r="F75" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
@@ -5384,25 +5597,25 @@
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N75" s="18"/>
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="31"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="E76" s="31"/>
+        <v>321</v>
+      </c>
+      <c r="E76" s="29"/>
       <c r="F76" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
@@ -5413,25 +5626,25 @@
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="32"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E77" s="32"/>
+        <v>322</v>
+      </c>
+      <c r="E77" s="30"/>
       <c r="F77" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
@@ -5442,145 +5655,145 @@
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N77" s="18"/>
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="30" t="s">
-        <v>344</v>
+      <c r="C78" s="28" t="s">
+        <v>337</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="31"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E79" s="31"/>
+        <v>347</v>
+      </c>
+      <c r="E79" s="29"/>
       <c r="F79" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="31"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E80" s="31"/>
+        <v>351</v>
+      </c>
+      <c r="E80" s="29"/>
       <c r="F80" s="21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="31"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E81" s="31"/>
+        <v>355</v>
+      </c>
+      <c r="E81" s="29"/>
       <c r="F81" s="21" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="31"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E82" s="31"/>
+        <v>358</v>
+      </c>
+      <c r="E82" s="29"/>
       <c r="F82" s="21" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
@@ -5591,25 +5804,25 @@
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N82" s="18"/>
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E83" s="31"/>
+        <v>363</v>
+      </c>
+      <c r="E83" s="29"/>
       <c r="F83" s="21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
@@ -5620,25 +5833,25 @@
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="31"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E84" s="31"/>
+        <v>362</v>
+      </c>
+      <c r="E84" s="29"/>
       <c r="F84" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
@@ -5649,25 +5862,25 @@
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N84" s="18"/>
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="32"/>
+      <c r="C85" s="30"/>
       <c r="D85" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E85" s="32"/>
+        <v>364</v>
+      </c>
+      <c r="E85" s="30"/>
       <c r="F85" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
@@ -5678,145 +5891,145 @@
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N85" s="18"/>
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="30" t="s">
-        <v>374</v>
+      <c r="C86" s="28" t="s">
+        <v>367</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>369</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N86" s="18"/>
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="31"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E87" s="31"/>
+        <v>377</v>
+      </c>
+      <c r="E87" s="29"/>
       <c r="F87" s="21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N87" s="18"/>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="31"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E88" s="31"/>
+        <v>379</v>
+      </c>
+      <c r="E88" s="29"/>
       <c r="F88" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N88" s="18"/>
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="31"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E89" s="31"/>
+        <v>383</v>
+      </c>
+      <c r="E89" s="29"/>
       <c r="F89" s="21" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="31"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E90" s="31"/>
+        <v>386</v>
+      </c>
+      <c r="E90" s="29"/>
       <c r="F90" s="21" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
@@ -5827,25 +6040,25 @@
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="31"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91" s="31"/>
+        <v>387</v>
+      </c>
+      <c r="E91" s="29"/>
       <c r="F91" s="21" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
@@ -5856,25 +6069,25 @@
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="31"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E92" s="31"/>
+        <v>388</v>
+      </c>
+      <c r="E92" s="29"/>
       <c r="F92" s="21" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
@@ -5885,25 +6098,25 @@
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N92" s="18"/>
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="31"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E93" s="31"/>
+        <v>393</v>
+      </c>
+      <c r="E93" s="29"/>
       <c r="F93" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
@@ -5914,10 +6127,10 @@
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N93" s="18"/>
     </row>
@@ -5926,23 +6139,23 @@
         <v>55</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
@@ -6007,10 +6220,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -6027,10 +6240,10 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -6042,505 +6255,505 @@
         <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C78" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6568,121 +6781,121 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="478">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1868,10 +1868,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{"appname":"cxcf","dictname":"afdd","dictfilter":"1","dictvalue":"舟"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>/queryCommonData.do</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2117,112 +2113,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Dict   
-1.appname:cxcf(现在就这一种)
-2.dictname:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
-3.dictvalue:要查询的值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": {
-        "AFDD": [
-            {
-                "value": "5"
-            }
-        ],
-        "XCBLDD": [
-            {
-                "value": "5"
-            }
-        ],
-        "XWBLDD": [
-            {
-                "value": "21"
-            }
-        ],
-        "TCDD": [
-            {
-                "value": "55"
-            }
-        ],
-        "ZFR": [
-            {
-                "aj_zfx": "5",
-                "aj_zfxz": "5"
-            }
-        ]
-    }
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": [
-        {
-            "selected": null,
-            "aj_id": 101,
-            "dw_bh": "1",
-            "aj_bh": "222",
-            "aj_jasj": "2015-05-29 00:01",
-            "cj_dh": "002",
-            "cj_sj": "2015-05-29 12:59",
-            "cj_cxlx": "超重",
-            "cj_kfxz": "可卸载",
-            "cj_cp": "浙L00001",
-            "cj_zs": 4,
-            "cj_zz": "42",
-            "cj_cz": 2,
-            "hw_mc": "危险品",
-            "hw_qd": "舟山",
-            "hw_md": "杭州",
-            "cl_gc": "1121",
-            "cl_hdzzl": 2121,
-            "cl_zbzl": 2121,
-            "cl_cjd": "浙江舟山",
-            "cl_lx": "大货车",
-            "cl_yyz": "330102199011050034",
-            "cl_syr": "张张",
-            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
-            "cl_dh": "13867202020",
-            "jsy_xm": "张张",
-            "jsy_xb": "男",
-            "jsy_zh": "434343434343434343",
-            "jsy_cy": "8437289473298",
-            "jsy_dh": "328173821",
-            "jsy_zz": "法律的司法的死哦非打死哦",
-            "aj_fk": 0,
-            "aj_pjh": "321321321",
-            "aj_tcdd": "房价打击偶发的骄傲if",
-            "aj_zfx": "张",
-            "aj_zfxz": "3233213",
-            "aj_zfj": "放大",
-            "aj_zfjz": "432432",
-            "aj_afsj": "2015-05-29 12:00",
-            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
-            "fj_cz": 0,
-            "fj_zz": 35,
-            "fj_sj": "2015-05-29 12:00",
-            "fj_dh": "1212121",
-            "aj_xwbldd": "房地阿娇封ID啊",
-            "aj_xwblsj": "2015-05-29 12:32",
-            "aj_xcbldd": "覅带哦合法地哦啊",
-            "dw": null,
-            "aj_xcblsj": "2015-05-29 12:16",
-            "aj_jazt": "是",
-            "cj_zz_lx": null,
-            "aj_datastate": 0,
-            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>application/json</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2358,52 +2248,227 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>分页查询常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新一条字典表信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报送配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bspzs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bspz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Noti&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Bspz&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询报送配置列表(无分页)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条报送配置信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除报送配置信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除条数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{bspzid}/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bspzid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateAll.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一条报送配置信息  可能出现更新后字段为null的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新报送配置信息  有字段就更新无字段就不更新，防止更新后出现null结果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": [
+        {
+            "selected": null,
+            "aj_id": 101,
+            "dw_bh": "1",
+            "aj_bh": "222",
+            "aj_jasj": "2015-05-29 00:01",
+            "cj_dh": "002",
+            "cj_sj": "2015-05-29 12:59",
+            "cj_cxlx": "超重",
+            "cj_kfxz": "可卸载",
+            "cj_cp": "浙L00001",
+            "cj_zs": 4,
+            "cj_zz": "42",
+            "cj_cz": 2,
+            "hw_mc": "危险品",
+            "hw_qd": "舟山",
+            "hw_md": "杭州",
+            "cl_gc": "1121",
+            "cl_hdzzl": 2121,
+            "cl_zbzl": 2121,
+            "cl_cjd": "浙江舟山",
+            "cl_lx": "大货车",
+            "cl_yyz": "330102199011050034",
+            "cl_syr": "张张",
+            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
+            "cl_dh": "13867202020",
+            "jsy_xm": "张张",
+            "jsy_xb": "男",
+            "jsy_zh": "434343434343434343",
+            "jsy_cy": "8437289473298",
+            "jsy_dh": "328173821",
+            "jsy_zz": "法律的司法的死哦非打死哦",
+            "aj_fk": 0,
+            "aj_pjh": "321321321",
+            "aj_tcdd": "房价打击偶发的骄傲if",
+            "aj_zfx": "张",
+            "aj_zfxz": "3233213",
+            "aj_zfj": "放大",
+            "aj_zfjz": "432432",
+            "aj_afsj": "2015-05-29 12:00",
+            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
+            "fj_cz": 0,
+            "fj_zz": 35,
+            "fj_sj": "2015-05-29 12:00",
+            "fj_dh": "1212121",
+            "aj_xwbldd": "房地阿娇封ID啊",
+            "aj_xwblsj": "2015-05-29 12:32",
+            "aj_xcbldd": "覅带哦合法地哦啊",
+            "dw": null,
+            "aj_xcblsj": "2015-05-29 12:16",
+            "aj_jazt": "是",
+            "cj_zz_lx": null,
+            "aj_datastate": 0,
+            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "AFDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XCBLDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XWBLDD": [
+            {
+                "value": "21"
+            }
+        ],
+        "TCDD": [
+            {
+                "value": "55"
+            }
+        ],
+        "ZFR": [
+            {
+                "aj_zfx": "5",
+                "aj_zfxz": "5"
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"6"}],"XCBLDD":[],"XWBLDD":[],"TCDD":[],"ZFR":[]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "删除成功",
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "success": true,
     "msg": "新增成功",
     "data": {
         "selected": null,
         "dictid": "1739",
-        "appname": "皮卡丘",
-        "dictname": "杰尼龟",
-        "dictcode": "小火龙",
-        "dictvalue": "妙蛙种子",
+        "appname": "CXCF",
+        "dictname": "案发地点",
+        "dictcode": "AFDD",
+        "dictvalue": "舟山",
         "dictorder": "20",
         "dictfilter": "10"
     }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": "删除成功",
-    "data": 1
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页查询常用信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入一条常用信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择性更新一条字典表信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除一条常用信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dict</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2413,128 +2478,95 @@
     "data": {
         "pageNum": 1,
         "pageSize": 10,
-        "size": 10,
+        "size": 6,
         "startRow": 1,
-        "endRow": 10,
-        "total": 20,
-        "pages": 2,
+        "endRow": 6,
+        "total": 6,
+        "pages": 1,
         "list": [
             {
                 "selected": null,
-                "dictid": "1602",
+                "dictid": "1743",
                 "appname": "CXCF",
-                "dictname": "AFDD",
-                "dictcode": "77",
-                "dictvalue": "77",
-                "dictorder": "20150610123608",
+                "dictname": "现场笔录地点",
+                "dictcode": "XCBLDD",
+                "dictvalue": "44",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             },
             {
                 "selected": null,
-                "dictid": "1606",
+                "dictid": "1744",
                 "appname": "CXCF",
-                "dictname": "ZFR",
-                "dictcode": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"55\"}",
-                "dictvalue": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"55\"}",
-                "dictorder": "20150610123608",
+                "dictname": "询问笔录地点",
+                "dictcode": "XWBLDD",
+                "dictvalue": "4",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             },
             {
                 "selected": null,
-                "dictid": "1605",
+                "dictid": "1745",
                 "appname": "CXCF",
-                "dictname": "ZFR",
-                "dictcode": "{\"aj_zfr\":\"11\",\"aj_zfrz\":\"33\"}",
-                "dictvalue": "{\"aj_zfr\":\"11\",\"aj_zfrz\":\"33\"}",
-                "dictorder": "20150610123608",
+                "dictname": "执法人",
+                "dictcode": "ZFR",
+                "dictvalue": "4,44",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             },
             {
                 "selected": null,
-                "dictid": "1604",
+                "dictid": "1746",
                 "appname": "CXCF",
-                "dictname": "XWBLDD",
-                "dictcode": "999",
-                "dictvalue": "999",
-                "dictorder": "20150610123608",
+                "dictname": "执法人",
+                "dictcode": "ZFR",
+                "dictvalue": "4,4",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             },
             {
                 "selected": null,
-                "dictid": "1603",
+                "dictid": "1747",
                 "appname": "CXCF",
-                "dictname": "XCBLDD",
-                "dictcode": "88",
-                "dictvalue": "88",
-                "dictorder": "20150610123608",
+                "dictname": "停车地点",
+                "dictcode": "TCDD",
+                "dictvalue": "4",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             },
             {
                 "selected": null,
-                "dictid": "1614",
+                "dictid": "1742",
                 "appname": "CXCF",
-                "dictname": "ZFR",
-                "dictcode": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"666\"}",
-                "dictvalue": "{\"aj_zfr\":\"55\",\"aj_zfrz\":\"666\"}",
-                "dictorder": "20150610133450",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1668",
-                "appname": "CXCF",
-                "dictname": "AFDD",
-                "dictcode": "甬舟高速",
-                "dictvalue": "甬舟高速",
-                "dictorder": "20150611150714",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1671",
-                "appname": "CXCF",
-                "dictname": "ZFR",
-                "dictcode": "{\"aj_zfr\":\"何鎏\",\"aj_zfrz\":\"330903001\"}",
-                "dictvalue": "{\"aj_zfr\":\"何鎏\",\"aj_zfrz\":\"330903001\"}",
-                "dictorder": "20150611150714",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1670",
-                "appname": "CXCF",
-                "dictname": "XWBLDD",
-                "dictcode": "双桥检测站",
-                "dictvalue": "双桥检测站",
-                "dictorder": "20150611150714",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1669",
-                "appname": "CXCF",
-                "dictname": "XCBLDD",
-                "dictcode": "双桥检测站",
-                "dictvalue": "双桥检测站",
-                "dictorder": "20150611150714",
+                "dictname": "案发地点",
+                "dictcode": "AFDD",
+                "dictvalue": "44",
+                "dictorder": "20150617190224",
                 "dictfilter": "10"
             }
         ],
         "firstPage": 1,
         "prePage": 0,
-        "nextPage": 2,
-        "lastPage": 2,
+        "nextPage": 0,
+        "lastPage": 1,
         "isFirstPage": true,
         "isLastPage": false,
         "hasPreviousPage": false,
-        "hasNextPage": true,
+        "hasNextPage": false,
         "navigatePages": 8,
         "navigatepageNums": [
-            1,
-            2
+            1
         ]
     }
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict   
+1.appname:cxcf(现在就这一种)
+2.dictname:(案发地点,现场笔录地点,询问笔录地点,执法人,停车地点
+3.dictcode:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
+3.dictvalue:要查询的值</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2691,7 +2723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2742,6 +2774,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2793,6 +2826,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2817,7 +2853,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3054,6 +3089,44 @@
         <a:xfrm>
           <a:off x="0" y="3444240"/>
           <a:ext cx="4572397" cy="2034716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373763</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220980" y="5638800"/>
+          <a:ext cx="4419983" cy="2019475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3394,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N94"/>
+  <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3419,17 +3492,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3486,13 +3559,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3519,11 +3592,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3548,11 +3621,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3577,11 +3650,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3604,11 +3677,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3631,11 +3704,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3660,11 +3733,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3689,11 +3762,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3720,11 +3793,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3751,13 +3824,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="52" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3784,11 +3857,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3813,11 +3886,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3842,11 +3915,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3869,11 +3942,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3896,13 +3969,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="51" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="52" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3929,11 +4002,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -3958,16 +4031,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -3987,11 +4060,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4014,11 +4087,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4041,13 +4114,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="52" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4074,11 +4147,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4103,11 +4176,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4132,11 +4205,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4159,11 +4232,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="52"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4186,13 +4259,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="47" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4221,11 +4294,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4236,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4252,11 +4325,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4283,16 +4356,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4314,16 +4387,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4334,7 +4407,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4345,16 +4418,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="9" t="s">
         <v>270</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4376,16 +4449,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4407,16 +4480,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4436,16 +4509,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4465,11 +4538,11 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="46"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="9" t="s">
         <v>271</v>
       </c>
@@ -4494,11 +4567,11 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="46"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="9" t="s">
         <v>397</v>
       </c>
@@ -4509,7 +4582,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -4523,16 +4596,16 @@
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="46"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E39" s="46"/>
+        <v>413</v>
+      </c>
+      <c r="E39" s="48"/>
       <c r="F39" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
@@ -4552,118 +4625,118 @@
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="46"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="46"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="47"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E42" s="47"/>
+        <v>435</v>
+      </c>
+      <c r="E42" s="49"/>
       <c r="F42" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="31" t="s">
-        <v>454</v>
+      <c r="C43" s="32" t="s">
+        <v>448</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="35" t="s">
         <v>97</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>289</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="21" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>291</v>
@@ -4672,16 +4745,16 @@
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="35"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>426</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>427</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>288</v>
@@ -4692,7 +4765,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="24" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>291</v>
@@ -4703,42 +4776,40 @@
       <c r="B45" s="2">
         <v>33</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E45" s="35"/>
+        <v>449</v>
+      </c>
+      <c r="E45" s="36"/>
       <c r="F45" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>98</v>
-      </c>
+      <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="27" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="25">
         <v>34</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="35"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="25" t="s">
         <v>41</v>
       </c>
@@ -4759,15 +4830,15 @@
       </c>
       <c r="N46" s="25"/>
     </row>
-    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="25">
         <v>35</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E47" s="35"/>
+        <v>450</v>
+      </c>
+      <c r="E47" s="36"/>
       <c r="F47" s="25" t="s">
         <v>100</v>
       </c>
@@ -4792,16 +4863,16 @@
       <c r="B48" s="2">
         <v>36</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E48" s="35"/>
+        <v>451</v>
+      </c>
+      <c r="E48" s="36"/>
       <c r="F48" s="21" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>19</v>
@@ -4812,10 +4883,10 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="27" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N48" s="2"/>
     </row>
@@ -4823,30 +4894,30 @@
       <c r="B49" s="2">
         <v>37</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E49" s="36"/>
+        <v>447</v>
+      </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="27" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N49" s="2"/>
     </row>
@@ -4854,13 +4925,13 @@
       <c r="B50" s="25">
         <v>38</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="40" t="s">
         <v>404</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="25" t="s">
@@ -4885,11 +4956,11 @@
       <c r="B51" s="25">
         <v>39</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="26" t="s">
         <v>105</v>
       </c>
@@ -4912,11 +4983,11 @@
       <c r="B52" s="25">
         <v>40</v>
       </c>
-      <c r="C52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="25" t="s">
         <v>106</v>
       </c>
@@ -4939,11 +5010,11 @@
       <c r="B53" s="25">
         <v>41</v>
       </c>
-      <c r="C53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="42"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="25" t="s">
         <v>107</v>
       </c>
@@ -4966,11 +5037,11 @@
       <c r="B54" s="25">
         <v>42</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="25" t="s">
         <v>109</v>
       </c>
@@ -4993,11 +5064,11 @@
       <c r="B55" s="25">
         <v>43</v>
       </c>
-      <c r="C55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="25" t="s">
         <v>111</v>
       </c>
@@ -5020,11 +5091,11 @@
       <c r="B56" s="25">
         <v>44</v>
       </c>
-      <c r="C56" s="39"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="43"/>
+      <c r="E56" s="44"/>
       <c r="F56" s="25" t="s">
         <v>113</v>
       </c>
@@ -5047,13 +5118,13 @@
       <c r="B57" s="2">
         <v>45</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="45" t="s">
         <v>117</v>
       </c>
       <c r="F57" s="12" t="s">
@@ -5082,11 +5153,11 @@
       <c r="B58" s="2">
         <v>46</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="32"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="12" t="s">
         <v>124</v>
       </c>
@@ -5113,11 +5184,11 @@
       <c r="B59" s="2">
         <v>47</v>
       </c>
-      <c r="C59" s="40"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="32"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="14" t="s">
         <v>126</v>
       </c>
@@ -5140,11 +5211,11 @@
       <c r="B60" s="2">
         <v>48</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="32"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="14" t="s">
         <v>128</v>
       </c>
@@ -5167,11 +5238,11 @@
       <c r="B61" s="2">
         <v>49</v>
       </c>
-      <c r="C61" s="40"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="32"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="14" t="s">
         <v>130</v>
       </c>
@@ -5194,13 +5265,13 @@
       <c r="B62" s="2">
         <v>50</v>
       </c>
-      <c r="C62" s="40"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="32"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
@@ -5221,11 +5292,11 @@
       <c r="B63" s="2">
         <v>51</v>
       </c>
-      <c r="C63" s="40"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E63" s="32"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="14" t="s">
         <v>133</v>
       </c>
@@ -5248,11 +5319,11 @@
       <c r="B64" s="2">
         <v>52</v>
       </c>
-      <c r="C64" s="40"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="32"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="14" t="s">
         <v>35</v>
       </c>
@@ -5275,19 +5346,19 @@
     </row>
     <row r="65" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
-      <c r="C65" s="40"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="E65" s="32"/>
+      <c r="E65" s="33"/>
       <c r="F65" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="G65" s="22" t="s">
-        <v>408</v>
-      </c>
       <c r="H65" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>402</v>
@@ -5296,7 +5367,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="2"/>
       <c r="M65" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N65" s="2"/>
     </row>
@@ -5304,11 +5375,11 @@
       <c r="B66" s="2">
         <v>53</v>
       </c>
-      <c r="C66" s="40"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="9" t="s">
         <v>137</v>
       </c>
@@ -5339,13 +5410,13 @@
       <c r="B67" s="2">
         <v>54</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="32" t="s">
         <v>274</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="29" t="s">
         <v>276</v>
       </c>
       <c r="F67" s="21" t="s">
@@ -5374,11 +5445,11 @@
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-      <c r="C68" s="37"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E68" s="29"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="21" t="s">
         <v>293</v>
       </c>
@@ -5401,11 +5472,11 @@
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="38"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E69" s="30"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="21" t="s">
         <v>297</v>
       </c>
@@ -5428,13 +5499,13 @@
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="29" t="s">
         <v>303</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="29" t="s">
         <v>305</v>
       </c>
       <c r="F70" s="21" t="s">
@@ -5461,11 +5532,11 @@
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="29"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="29"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="21" t="s">
         <v>309</v>
       </c>
@@ -5490,11 +5561,11 @@
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="29"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E72" s="29"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="21" t="s">
         <v>311</v>
       </c>
@@ -5519,11 +5590,11 @@
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="29"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E73" s="29"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="21" t="s">
         <v>313</v>
       </c>
@@ -5548,11 +5619,11 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="29"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E74" s="29"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="21" t="s">
         <v>318</v>
       </c>
@@ -5577,11 +5648,11 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="29"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E75" s="29"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="21" t="s">
         <v>319</v>
       </c>
@@ -5606,11 +5677,11 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="29"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="21" t="s">
         <v>323</v>
       </c>
@@ -5635,11 +5706,11 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="21" t="s">
         <v>325</v>
       </c>
@@ -5664,13 +5735,13 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="29" t="s">
         <v>337</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="29" t="s">
         <v>340</v>
       </c>
       <c r="F78" s="21" t="s">
@@ -5697,11 +5768,11 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="29"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="21" t="s">
         <v>345</v>
       </c>
@@ -5726,11 +5797,11 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="29"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="21" t="s">
         <v>352</v>
       </c>
@@ -5755,13 +5826,13 @@
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="29"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="E81" s="29"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>356</v>
@@ -5784,11 +5855,11 @@
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="29"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="21" t="s">
         <v>359</v>
       </c>
@@ -5813,11 +5884,11 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="29"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="21" t="s">
         <v>361</v>
       </c>
@@ -5842,11 +5913,11 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="29"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="21" t="s">
         <v>366</v>
       </c>
@@ -5871,11 +5942,11 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="30"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E85" s="30"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="21" t="s">
         <v>365</v>
       </c>
@@ -5900,13 +5971,13 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="29" t="s">
         <v>367</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="29" t="s">
         <v>369</v>
       </c>
       <c r="F86" s="21" t="s">
@@ -5933,11 +6004,11 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="29"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E87" s="29"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="21" t="s">
         <v>375</v>
       </c>
@@ -5947,8 +6018,8 @@
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="14" t="s">
-        <v>376</v>
+      <c r="I87" s="21" t="s">
+        <v>457</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
@@ -5962,11 +6033,11 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="29"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="21" t="s">
         <v>380</v>
       </c>
@@ -5991,11 +6062,11 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="29"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E89" s="29"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="21" t="s">
         <v>384</v>
       </c>
@@ -6020,11 +6091,11 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="29"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="E90" s="29"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="21" t="s">
         <v>391</v>
       </c>
@@ -6049,11 +6120,11 @@
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="29"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="21" t="s">
         <v>390</v>
       </c>
@@ -6078,11 +6149,11 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="29"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="E92" s="29"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="21" t="s">
         <v>389</v>
       </c>
@@ -6107,11 +6178,11 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="29"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E93" s="29"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="21" t="s">
         <v>394</v>
       </c>
@@ -6165,8 +6236,203 @@
       </c>
       <c r="N94" s="2"/>
     </row>
+    <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="2"/>
+      <c r="C95" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N95" s="18"/>
+    </row>
+    <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="2"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E96" s="46"/>
+      <c r="F96" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N96" s="18"/>
+    </row>
+    <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="2"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="2"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E98" s="46"/>
+      <c r="F98" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="2"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" s="46"/>
+      <c r="F99" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N99" s="18"/>
+    </row>
+    <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="2"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E100" s="46"/>
+      <c r="F100" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N100" s="18"/>
+    </row>
+    <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="2"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E101" s="46"/>
+      <c r="F101" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N101" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="E95:E101"/>
     <mergeCell ref="C28:C42"/>
     <mergeCell ref="E28:E42"/>
     <mergeCell ref="B1:J1"/>
@@ -6909,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="481">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>Dict</t>
-  </si>
-  <si>
-    <t>更新一条字典表信息</t>
   </si>
   <si>
     <t>/{dictid}/update.do</t>
@@ -2005,6 +2002,451 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>/{ajid}/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前登录用户最新的结案信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLatestJa.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{pageNum}/{pageSize}/queryPage.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入的Dict对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageInfo&lt;Cxcf&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新一条字典表信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一条常用信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报送配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bspzs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bspz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Noti&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Bspz&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询报送配置列表(无分页)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条报送配置信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除报送配置信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除条数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{bspzid}/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bspzid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateAll.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一条报送配置信息  可能出现更新后字段为null的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新报送配置信息  有字段就更新无字段就不更新，防止更新后出现null结果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"6"}],"XCBLDD":[],"XWBLDD":[],"TCDD":[],"ZFR":[]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "pageNum": 1,
+        "pageSize": 10,
+        "size": 6,
+        "startRow": 1,
+        "endRow": 6,
+        "total": 6,
+        "pages": 1,
+        "list": [
+            {
+                "selected": null,
+                "dictid": "1743",
+                "appname": "CXCF",
+                "dictname": "现场笔录地点",
+                "dictcode": "XCBLDD",
+                "dictvalue": "44",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1744",
+                "appname": "CXCF",
+                "dictname": "询问笔录地点",
+                "dictcode": "XWBLDD",
+                "dictvalue": "4",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1745",
+                "appname": "CXCF",
+                "dictname": "执法人",
+                "dictcode": "ZFR",
+                "dictvalue": "4,44",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1746",
+                "appname": "CXCF",
+                "dictname": "执法人",
+                "dictcode": "ZFR",
+                "dictvalue": "4,4",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1747",
+                "appname": "CXCF",
+                "dictname": "停车地点",
+                "dictcode": "TCDD",
+                "dictvalue": "4",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            },
+            {
+                "selected": null,
+                "dictid": "1742",
+                "appname": "CXCF",
+                "dictname": "案发地点",
+                "dictcode": "AFDD",
+                "dictvalue": "44",
+                "dictorder": "20150617190224",
+                "dictfilter": "10"
+            }
+        ],
+        "firstPage": 1,
+        "prePage": 0,
+        "nextPage": 0,
+        "lastPage": 1,
+        "isFirstPage": true,
+        "isLastPage": false,
+        "hasPreviousPage": false,
+        "hasNextPage": false,
+        "navigatePages": 8,
+        "navigatepageNums": [
+            1
+        ]
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict   
+1.appname:cxcf(现在就这一种)
+2.dictname:(案发地点,现场笔录地点,询问笔录地点,执法人,停车地点
+3.dictcode:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
+3.dictvalue:要查询的值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageInfo&lt;Dict&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "新增成功",
+    "data": {
+        "selected": null,
+        "dictid": "1739",
+        "appname": "CXCF",
+        "dictname": "案发地点",
+        "dictcode": "AFDD",
+        "dictvalue": "舟山",
+        "dictorder": "20",
+        "dictfilter": "10"
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "AFDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XCBLDD": [
+            {
+                "value": "5"
+            }
+        ],
+        "XWBLDD": [
+            {
+                "value": "21"
+            }
+        ],
+        "TCDD": [
+            {
+                "value": "55"
+            }
+        ],
+        "ZFR": [
+            {
+                "aj_zfx": "5",
+                "aj_zfxz": "5"
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": [
+        {
+            "selected": null,
+            "aj_id": 101,
+            "dw_bh": "1",
+            "aj_bh": "222",
+            "aj_jasj": "2015-05-29 00:01",
+            "cj_dh": "002",
+            "cj_sj": "2015-05-29 12:59",
+            "cj_cxlx": "超重",
+            "cj_kfxz": "可卸载",
+            "cj_cp": "浙L00001",
+            "cj_zs": 4,
+            "cj_zz": "42",
+            "cj_cz": 2,
+            "hw_mc": "危险品",
+            "hw_qd": "舟山",
+            "hw_md": "杭州",
+            "cl_gc": "1121",
+            "cl_hdzzl": 2121,
+            "cl_zbzl": 2121,
+            "cl_cjd": "浙江舟山",
+            "cl_lx": "大货车",
+            "cl_yyz": "330102199011050034",
+            "cl_syr": "张张",
+            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
+            "cl_dh": "13867202020",
+            "jsy_xm": "张张",
+            "jsy_xb": "男",
+            "jsy_zh": "434343434343434343",
+            "jsy_cy": "8437289473298",
+            "jsy_dh": "328173821",
+            "jsy_zz": "法律的司法的死哦非打死哦",
+            "aj_fk": 0,
+            "aj_pjh": "321321321",
+            "aj_tcdd": "房价打击偶发的骄傲if",
+            "aj_zfx": "张",
+            "aj_zfxz": "3233213",
+            "aj_zfj": "放大",
+            "aj_zfjz": "432432",
+            "aj_afsj": "2015-05-29 12:00",
+            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
+            "fj_cz": 0,
+            "fj_zz": 35,
+            "fj_sj": "2015-05-29 12:00",
+            "fj_dh": "1212121",
+            "aj_xwbldd": "房地阿娇封ID啊",
+            "aj_xwblsj": "2015-05-29 12:32",
+            "aj_xcbldd": "覅带哦合法地哦啊",
+            "dw": null,
+            "aj_xcblsj": "2015-05-29 12:16",
+            "aj_jazt": "是",
+            "cj_zz_lx": null,
+            "aj_datastate": 0,
+            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "selected": null,
+        "aj_id": 1601,
+        "dw_bh": "10",
+        "aj_bh": null,
+        "aj_jasj": null,
+        "cj_dh": "000001",
+        "cj_sj": "2015-06-10 12:37",
+        "cj_cxlx": "超重",
+        "cj_kfxz": "可卸载",
+        "cj_cp": "浙A00001",
+        "cj_zs": 2,
+        "cj_zz": "22",
+        "cj_cz": 2,
+        "hw_mc": "222",
+        "hw_qd": "22",
+        "hw_md": "222",
+        "cl_gc": "22",
+        "cl_hdzzl": 22,
+        "cl_zbzl": 2,
+        "cl_cjd": "2",
+        "cl_lx": "2",
+        "cl_yyz": "2",
+        "cl_syr": "22",
+        "cl_zz": "2",
+        "cl_dh": "2",
+        "jsy_xm": "22",
+        "jsy_xb": "男",
+        "jsy_zh": "2",
+        "jsy_cy": "2",
+        "jsy_dh": "2",
+        "jsy_zz": "2",
+        "aj_fk": 300,
+        "aj_pjh": "2",
+        "aj_tcdd": "00000",
+        "aj_zfx": "11",
+        "aj_zfxz": "33",
+        "aj_zfj": "55",
+        "aj_zfjz": "666",
+        "aj_afsj": "2015-06-10 12:37",
+        "aj_afdd": "77",
+        "fj_cz": 0,
+        "fj_zz": 20,
+        "fj_sj": "2015-06-10 12:37",
+        "fj_dh": "22",
+        "aj_xwbldd": "999",
+        "aj_xwblsj": "2015-06-10 13:09",
+        "aj_xcbldd": "88",
+        "dw": null,
+        "aj_xcblsj": "2015-06-10 12:53",
+        "aj_jazt": "否",
+        "cj_zz_lx": "总重22吨",
+        "aj_datastate": 0,
+        "currentpath_pdf": null,
+        "currentpath_word": null,
+        "jt_bh": null,
+        "jttl": null,
+        "cj_zyclq": "0-300（300）",
+        "cp_info": null
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "success": true,
     "msg": null,
@@ -2105,348 +2547,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/{ajid}/insert.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前登录用户最新的结案信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getLatestJa.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxcf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": {
-        "selected": null,
-        "aj_id": 1601,
-        "dw_bh": "10",
-        "aj_bh": null,
-        "aj_jasj": null,
-        "cj_dh": "000001",
-        "cj_sj": "2015-06-10 12:37",
-        "cj_cxlx": "超重",
-        "cj_kfxz": "可卸载",
-        "cj_cp": "浙A00001",
-        "cj_zs": 2,
-        "cj_zz": "22",
-        "cj_cz": 2,
-        "hw_mc": "222",
-        "hw_qd": "22",
-        "hw_md": "222",
-        "cl_gc": "22",
-        "cl_hdzzl": 22,
-        "cl_zbzl": 2,
-        "cl_cjd": "2",
-        "cl_lx": "2",
-        "cl_yyz": "2",
-        "cl_syr": "22",
-        "cl_zz": "2",
-        "cl_dh": "2",
-        "jsy_xm": "22",
-        "jsy_xb": "男",
-        "jsy_zh": "2",
-        "jsy_cy": "2",
-        "jsy_dh": "2",
-        "jsy_zz": "2",
-        "aj_fk": 300,
-        "aj_pjh": "2",
-        "aj_tcdd": "00000",
-        "aj_zfx": "11",
-        "aj_zfxz": "33",
-        "aj_zfj": "55",
-        "aj_zfjz": "666",
-        "aj_afsj": "2015-06-10 12:37",
-        "aj_afdd": "77",
-        "fj_cz": 0,
-        "fj_zz": 20,
-        "fj_sj": "2015-06-10 12:37",
-        "fj_dh": "22",
-        "aj_xwbldd": "999",
-        "aj_xwblsj": "2015-06-10 13:09",
-        "aj_xcbldd": "88",
-        "dw": null,
-        "aj_xcblsj": "2015-06-10 12:53",
-        "aj_jazt": "否",
-        "cj_zz_lx": "总重22吨",
-        "aj_datastate": 0,
-        "currentpath_pdf": null,
-        "currentpath_word": null,
-        "jt_bh": null,
-        "jttl": null,
-        "cj_zyclq": "0-300（300）",
-        "cp_info": null
-    }
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/{pageNum}/{pageSize}/queryPage.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入的Dict对象</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageInfo&lt;Cxcf&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PageInfo&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Dict</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页查询常用信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入一条常用信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择性更新一条字典表信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除一条常用信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dict</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>报送配置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/bspzs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/query.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bspz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Noti&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Bspz&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询报送配置列表(无分页)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/insert.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入一条报送配置信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量删除报送配置信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/delete.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除条数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/{bspzid}/delete.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bspzid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/update.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateAll.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新一条报送配置信息  可能出现更新后字段为null的情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择性更新报送配置信息  有字段就更新无字段就不更新，防止更新后出现null结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": [
-        {
-            "selected": null,
-            "aj_id": 101,
-            "dw_bh": "1",
-            "aj_bh": "222",
-            "aj_jasj": "2015-05-29 00:01",
-            "cj_dh": "002",
-            "cj_sj": "2015-05-29 12:59",
-            "cj_cxlx": "超重",
-            "cj_kfxz": "可卸载",
-            "cj_cp": "浙L00001",
-            "cj_zs": 4,
-            "cj_zz": "42",
-            "cj_cz": 2,
-            "hw_mc": "危险品",
-            "hw_qd": "舟山",
-            "hw_md": "杭州",
-            "cl_gc": "1121",
-            "cl_hdzzl": 2121,
-            "cl_zbzl": 2121,
-            "cl_cjd": "浙江舟山",
-            "cl_lx": "大货车",
-            "cl_yyz": "330102199011050034",
-            "cl_syr": "张张",
-            "cl_zz": "风带哦家饭店iajoifj代价奋斗iaj",
-            "cl_dh": "13867202020",
-            "jsy_xm": "张张",
-            "jsy_xb": "男",
-            "jsy_zh": "434343434343434343",
-            "jsy_cy": "8437289473298",
-            "jsy_dh": "328173821",
-            "jsy_zz": "法律的司法的死哦非打死哦",
-            "aj_fk": 0,
-            "aj_pjh": "321321321",
-            "aj_tcdd": "房价打击偶发的骄傲if",
-            "aj_zfx": "张",
-            "aj_zfxz": "3233213",
-            "aj_zfj": "放大",
-            "aj_zfjz": "432432",
-            "aj_afsj": "2015-05-29 12:00",
-            "aj_afdd": "发hi偶发的还哦好FDI哦啊",
-            "fj_cz": 0,
-            "fj_zz": 35,
-            "fj_sj": "2015-05-29 12:00",
-            "fj_dh": "1212121",
-            "aj_xwbldd": "房地阿娇封ID啊",
-            "aj_xwblsj": "2015-05-29 12:32",
-            "aj_xcbldd": "覅带哦合法地哦啊",
-            "dw": null,
-            "aj_xcblsj": "2015-05-29 12:16",
-            "aj_jazt": "是",
-            "cj_zz_lx": null,
-            "aj_datastate": 0,
-            "currentPath": "G:\\Server\\apache-tomcat-7.0.39\\webapps\\cxcf\\fileUpLoad\\201505\\201505291012_344afa3e80904a809301275cd4abd57a.pdf"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": {
-        "AFDD": [
-            {
-                "value": "5"
-            }
-        ],
-        "XCBLDD": [
-            {
-                "value": "5"
-            }
-        ],
-        "XWBLDD": [
-            {
-                "value": "21"
-            }
-        ],
-        "TCDD": [
-            {
-                "value": "55"
-            }
-        ],
-        "ZFR": [
-            {
-                "aj_zfx": "5",
-                "aj_zfxz": "5"
-            }
-        ]
-    }
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"6"}],"XCBLDD":[],"XWBLDD":[],"TCDD":[],"ZFR":[]}}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "success": true,
     "msg": "删除成功",
@@ -2457,116 +2557,13 @@
   <si>
     <t>{
     "success": true,
-    "msg": "新增成功",
-    "data": {
-        "selected": null,
-        "dictid": "1739",
-        "appname": "CXCF",
-        "dictname": "案发地点",
-        "dictcode": "AFDD",
-        "dictvalue": "舟山",
-        "dictorder": "20",
-        "dictfilter": "10"
-    }
+    "msg": "删除成功",
+    "data": 1
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": {
-        "pageNum": 1,
-        "pageSize": 10,
-        "size": 6,
-        "startRow": 1,
-        "endRow": 6,
-        "total": 6,
-        "pages": 1,
-        "list": [
-            {
-                "selected": null,
-                "dictid": "1743",
-                "appname": "CXCF",
-                "dictname": "现场笔录地点",
-                "dictcode": "XCBLDD",
-                "dictvalue": "44",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1744",
-                "appname": "CXCF",
-                "dictname": "询问笔录地点",
-                "dictcode": "XWBLDD",
-                "dictvalue": "4",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1745",
-                "appname": "CXCF",
-                "dictname": "执法人",
-                "dictcode": "ZFR",
-                "dictvalue": "4,44",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1746",
-                "appname": "CXCF",
-                "dictname": "执法人",
-                "dictcode": "ZFR",
-                "dictvalue": "4,4",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1747",
-                "appname": "CXCF",
-                "dictname": "停车地点",
-                "dictcode": "TCDD",
-                "dictvalue": "4",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            },
-            {
-                "selected": null,
-                "dictid": "1742",
-                "appname": "CXCF",
-                "dictname": "案发地点",
-                "dictcode": "AFDD",
-                "dictvalue": "44",
-                "dictorder": "20150617190224",
-                "dictfilter": "10"
-            }
-        ],
-        "firstPage": 1,
-        "prePage": 0,
-        "nextPage": 0,
-        "lastPage": 1,
-        "isFirstPage": true,
-        "isLastPage": false,
-        "hasPreviousPage": false,
-        "hasNextPage": false,
-        "navigatePages": 8,
-        "navigatepageNums": [
-            1
-        ]
-    }
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dict   
-1.appname:cxcf(现在就这一种)
-2.dictname:(案发地点,现场笔录地点,询问笔录地点,执法人,停车地点
-3.dictcode:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
-3.dictvalue:要查询的值</t>
+    <t>List&lt;Dict&gt; 传dictid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2574,7 +2571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2638,6 +2635,13 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2723,7 +2727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2775,6 +2779,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2826,32 +2857,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3469,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3492,17 +3501,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3559,13 +3568,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3592,11 +3601,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3621,11 +3630,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3650,11 +3659,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3677,11 +3686,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3704,11 +3713,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3733,11 +3742,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3762,11 +3771,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3793,11 +3802,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3824,13 +3833,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3857,11 +3866,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3886,11 +3895,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3915,11 +3924,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3942,11 +3951,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3969,13 +3978,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4002,11 +4011,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4031,16 +4040,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -4060,11 +4069,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4087,11 +4096,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4114,13 +4123,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="35" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4147,11 +4156,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4176,11 +4185,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4205,11 +4214,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4232,11 +4241,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4259,13 +4268,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4294,11 +4303,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4309,7 +4318,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4325,11 +4334,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="48"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4345,7 +4354,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>85</v>
@@ -4356,16 +4365,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4387,16 +4396,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4407,7 +4416,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4418,16 +4427,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4449,16 +4458,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4480,16 +4489,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4509,16 +4518,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4529,7 +4538,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4538,16 +4547,16 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="48"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E37" s="48"/>
+        <v>268</v>
+      </c>
+      <c r="E37" s="31"/>
       <c r="F37" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -4558,217 +4567,217 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="48"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>398</v>
-      </c>
       <c r="H38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="48"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="E39" s="48"/>
+        <v>412</v>
+      </c>
+      <c r="E39" s="31"/>
       <c r="F39" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="48"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="20" t="s">
-        <v>431</v>
+      <c r="L41" s="24" t="s">
+        <v>477</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="20" t="s">
-        <v>439</v>
+      <c r="L42" s="24" t="s">
+        <v>476</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="32" t="s">
-        <v>448</v>
+      <c r="C43" s="41" t="s">
+        <v>444</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="44" t="s">
         <v>97</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>434</v>
+        <v>469</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>432</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="21" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>288</v>
-      </c>
       <c r="I44" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="24" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N44" s="17"/>
     </row>
@@ -4776,117 +4785,119 @@
       <c r="B45" s="2">
         <v>33</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E45" s="36"/>
+        <v>445</v>
+      </c>
+      <c r="E45" s="45"/>
       <c r="F45" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>444</v>
+      <c r="H45" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>441</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="27" t="s">
-        <v>475</v>
+      <c r="L45" s="57" t="s">
+        <v>473</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="25">
         <v>34</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>52</v>
+      <c r="C46" s="42"/>
+      <c r="D46" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="L46" s="22" t="s">
+        <v>479</v>
+      </c>
       <c r="M46" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N46" s="25"/>
     </row>
-    <row r="47" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="25">
+    <row r="47" spans="2:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="55">
         <v>35</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="25" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="25" t="s">
+      <c r="H47" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25" t="s">
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="48" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>36</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E48" s="36"/>
+        <v>447</v>
+      </c>
+      <c r="E48" s="45"/>
       <c r="F48" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="27" t="s">
-        <v>474</v>
+      <c r="L48" s="57" t="s">
+        <v>478</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N48" s="2"/>
     </row>
@@ -4894,30 +4905,30 @@
       <c r="B49" s="2">
         <v>37</v>
       </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E49" s="37"/>
+        <v>443</v>
+      </c>
+      <c r="E49" s="46"/>
       <c r="F49" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>472</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="27" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N49" s="2"/>
     </row>
@@ -4925,24 +4936,24 @@
       <c r="B50" s="25">
         <v>38</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>404</v>
+      <c r="C50" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
@@ -4956,20 +4967,20 @@
       <c r="B51" s="25">
         <v>39</v>
       </c>
-      <c r="C51" s="40"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E51" s="43"/>
+        <v>279</v>
+      </c>
+      <c r="E51" s="52"/>
       <c r="F51" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
@@ -4983,20 +4994,20 @@
       <c r="B52" s="25">
         <v>40</v>
       </c>
-      <c r="C52" s="40"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E52" s="43"/>
+        <v>280</v>
+      </c>
+      <c r="E52" s="52"/>
       <c r="F52" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -5010,20 +5021,20 @@
       <c r="B53" s="25">
         <v>41</v>
       </c>
-      <c r="C53" s="40"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" s="43"/>
+        <v>281</v>
+      </c>
+      <c r="E53" s="52"/>
       <c r="F53" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -5037,20 +5048,20 @@
       <c r="B54" s="25">
         <v>42</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E54" s="43"/>
+        <v>282</v>
+      </c>
+      <c r="E54" s="52"/>
       <c r="F54" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -5064,13 +5075,13 @@
       <c r="B55" s="25">
         <v>43</v>
       </c>
-      <c r="C55" s="40"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
@@ -5091,20 +5102,20 @@
       <c r="B56" s="25">
         <v>44</v>
       </c>
-      <c r="C56" s="40"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="53"/>
+      <c r="F56" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -5118,29 +5129,29 @@
       <c r="B57" s="2">
         <v>45</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="E57" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="F57" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="G57" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="2"/>
@@ -5153,25 +5164,25 @@
       <c r="B58" s="2">
         <v>46</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="G58" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="K58" s="12"/>
       <c r="L58" s="2"/>
@@ -5184,20 +5195,20 @@
       <c r="B59" s="2">
         <v>47</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="42"/>
+      <c r="F59" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -5211,20 +5222,20 @@
       <c r="B60" s="2">
         <v>48</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -5238,20 +5249,20 @@
       <c r="B61" s="2">
         <v>49</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="42"/>
+      <c r="F61" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -5265,20 +5276,20 @@
       <c r="B62" s="2">
         <v>50</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="33"/>
+        <v>130</v>
+      </c>
+      <c r="E62" s="42"/>
       <c r="F62" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -5292,13 +5303,13 @@
       <c r="B63" s="2">
         <v>51</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="42"/>
+      <c r="F63" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5319,16 +5330,16 @@
       <c r="B64" s="2">
         <v>52</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="E64" s="42"/>
       <c r="F64" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>19</v>
@@ -5346,28 +5357,28 @@
     </row>
     <row r="65" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
-      <c r="C65" s="41"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="E65" s="33"/>
+        <v>402</v>
+      </c>
+      <c r="E65" s="42"/>
       <c r="F65" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="G65" s="22" t="s">
-        <v>407</v>
-      </c>
       <c r="H65" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="2"/>
       <c r="M65" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N65" s="2"/>
     </row>
@@ -5375,32 +5386,32 @@
       <c r="B66" s="2">
         <v>53</v>
       </c>
-      <c r="C66" s="41"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="43"/>
+      <c r="F66" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="M66" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N66" s="18">
         <v>42149</v>
@@ -5410,225 +5421,225 @@
       <c r="B67" s="2">
         <v>54</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="E67" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="F67" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="G67" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N67" s="18"/>
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-      <c r="C68" s="38"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="39"/>
+      <c r="F68" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="39"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="21" t="s">
         <v>296</v>
-      </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M69" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N69" s="18"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="F70" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="G70" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="H70" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N70" s="18"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" s="30"/>
+        <v>313</v>
+      </c>
+      <c r="E71" s="39"/>
       <c r="F71" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="21" t="s">
         <v>309</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="30"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" s="30"/>
+        <v>314</v>
+      </c>
+      <c r="E72" s="39"/>
       <c r="F72" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="30"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E73" s="30"/>
+        <v>315</v>
+      </c>
+      <c r="E73" s="39"/>
       <c r="F73" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="30"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="G74" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
@@ -5639,25 +5650,25 @@
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N74" s="18"/>
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="30"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E75" s="30"/>
+        <v>319</v>
+      </c>
+      <c r="E75" s="39"/>
       <c r="F75" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
@@ -5668,25 +5679,25 @@
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N75" s="18"/>
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="30"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E76" s="30"/>
+        <v>320</v>
+      </c>
+      <c r="E76" s="39"/>
       <c r="F76" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
@@ -5697,25 +5708,25 @@
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="31"/>
+      <c r="C77" s="40"/>
       <c r="D77" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E77" s="31"/>
+        <v>321</v>
+      </c>
+      <c r="E77" s="40"/>
       <c r="F77" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
@@ -5726,145 +5737,145 @@
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N77" s="18"/>
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="29" t="s">
-        <v>337</v>
+      <c r="C78" s="38" t="s">
+        <v>336</v>
       </c>
       <c r="D78" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="F78" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="G78" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="H78" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="21" t="s">
         <v>342</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="21" t="s">
-        <v>343</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="30"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G79" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="G79" s="21" t="s">
+      <c r="H79" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="21" t="s">
         <v>348</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>349</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="30"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="39"/>
+      <c r="F80" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="21" t="s">
+      <c r="G80" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="21" t="s">
         <v>352</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>353</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="30"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E81" s="39"/>
+      <c r="F81" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="30"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" s="39"/>
+      <c r="F82" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="G82" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
@@ -5875,25 +5886,25 @@
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N82" s="18"/>
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="30"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E83" s="30"/>
+        <v>362</v>
+      </c>
+      <c r="E83" s="39"/>
       <c r="F83" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
@@ -5904,25 +5915,25 @@
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="30"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" s="30"/>
+        <v>361</v>
+      </c>
+      <c r="E84" s="39"/>
       <c r="F84" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
@@ -5933,25 +5944,25 @@
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N84" s="18"/>
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="31"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" s="40"/>
+      <c r="F85" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="21" t="s">
-        <v>365</v>
-      </c>
       <c r="G85" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
@@ -5962,145 +5973,145 @@
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N85" s="18"/>
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="E86" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="F86" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="G86" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="H86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>372</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="M86" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="M86" s="21" t="s">
-        <v>374</v>
       </c>
       <c r="N86" s="18"/>
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="30"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="E87" s="30"/>
+        <v>376</v>
+      </c>
+      <c r="E87" s="39"/>
       <c r="F87" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N87" s="18"/>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="30"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88" s="39"/>
+      <c r="F88" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="21" t="s">
+      <c r="G88" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="G88" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>381</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N88" s="18"/>
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="30"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E89" s="39"/>
+      <c r="F89" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="21" t="s">
-        <v>384</v>
-      </c>
       <c r="G89" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="30"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E90" s="30"/>
+        <v>385</v>
+      </c>
+      <c r="E90" s="39"/>
       <c r="F90" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
@@ -6111,25 +6122,25 @@
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="30"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="E91" s="30"/>
+        <v>386</v>
+      </c>
+      <c r="E91" s="39"/>
       <c r="F91" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
@@ -6140,25 +6151,25 @@
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="30"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="21" t="s">
-        <v>389</v>
-      </c>
       <c r="G92" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
@@ -6169,25 +6180,25 @@
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N92" s="18"/>
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="30"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" s="39"/>
+      <c r="F93" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="21" t="s">
-        <v>394</v>
-      </c>
       <c r="G93" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
@@ -6198,10 +6209,10 @@
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N93" s="18"/>
     </row>
@@ -6210,23 +6221,23 @@
         <v>55</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="F94" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
@@ -6238,128 +6249,128 @@
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-      <c r="C95" s="46" t="s">
-        <v>453</v>
+      <c r="C95" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E95" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="H95" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N95" s="18"/>
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="46"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E96" s="46"/>
+        <v>457</v>
+      </c>
+      <c r="E96" s="29"/>
       <c r="F96" s="21" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N96" s="18"/>
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="46"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E97" s="46"/>
+        <v>458</v>
+      </c>
+      <c r="E97" s="29"/>
       <c r="F97" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N97" s="18"/>
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="46"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E98" s="46"/>
+        <v>382</v>
+      </c>
+      <c r="E98" s="29"/>
       <c r="F98" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N98" s="18"/>
     </row>
     <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="46"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E99" s="46"/>
+        <v>385</v>
+      </c>
+      <c r="E99" s="29"/>
       <c r="F99" s="21" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
@@ -6371,22 +6382,22 @@
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N99" s="18"/>
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="46"/>
+      <c r="C100" s="29"/>
       <c r="D100" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E100" s="46"/>
+        <v>466</v>
+      </c>
+      <c r="E100" s="29"/>
       <c r="F100" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
@@ -6398,22 +6409,22 @@
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N100" s="18"/>
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="46"/>
+      <c r="C101" s="29"/>
       <c r="D101" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="E101" s="46"/>
+        <v>465</v>
+      </c>
+      <c r="E101" s="29"/>
       <c r="F101" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
@@ -6425,12 +6436,23 @@
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N101" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="E57:E66"/>
     <mergeCell ref="C95:C101"/>
     <mergeCell ref="E95:E101"/>
     <mergeCell ref="C28:C42"/>
@@ -6447,17 +6469,6 @@
     <mergeCell ref="C86:C93"/>
     <mergeCell ref="E86:E93"/>
     <mergeCell ref="C78:C85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="E57:E66"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6486,10 +6497,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -6506,10 +6517,10 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -6521,505 +6532,505 @@
         <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C78" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7047,121 +7058,121 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="486">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1003,14 +1003,6 @@
       </rPr>
       <t>.do</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
-    "data": 3
-}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1548,14 +1540,6 @@
     <t>{
     "success": true,
     "msg": null,
-    "data": "cxcf/fileUpLoad/201505/201505251000_93b1697ac27a49c484153f347bccc393.pdf"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "success": true,
-    "msg": null,
     "data": 1
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1566,10 +1550,6 @@
   </si>
   <si>
     <t>如果是导出单个文件，则返回此文件的路径，如果导出多个文件则返回zip的路径</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"msg":null,"data":"fileUpLoad/201506/word.zip"}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1842,10 +1822,6 @@
   </si>
   <si>
     <t>XXC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"msg":null,"data":{"pageNum":1,"pageSize":10,"size":3,"startRow":1,"endRow":3,"total":3,"pages":1,"list":[{"selected":null,"aj_id":1310,"dw_bh":"10","aj_bh":"舟山路罚(2015)100002","aj_jasj":"2015-06-05 14:21","cj_dh":"4","cj_sj":"2015-06-05 14:21","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"44","cj_zs":4,"cj_zz":"20","cj_cz":0.0,"hw_mc":"4","hw_qd":"4","hw_md":"4","cl_gc":"444","cl_hdzzl":4,"cl_zbzl":4,"cl_cjd":"4","cl_lx":"4","cl_yyz":"4","cl_syr":"44","cl_zz":"4","cl_dh":"4","jsy_xm":"4","jsy_xb":"男","jsy_zh":"4","jsy_cy":"4","jsy_dh":"44","jsy_zz":"4","aj_fk":0,"aj_pjh":"4","aj_tcdd":"4","aj_zfx":"4","aj_zfxz":"44","aj_zfj":"4","aj_zfjz":"4","aj_afsj":"2015-06-05 14:21","aj_afdd":"4","fj_cz":0,"fj_zz":4,"fj_sj":"2015-06-05 14:21","fj_dh":"4","aj_xwbldd":"44","aj_xwblsj":"2015-06-05 14:53","aj_xcbldd":"4","dw":null,"aj_xcblsj":"2015-06-05 14:37","aj_jazt":"是","cj_zz_lx":"总重20吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150650221_552ad6b927d5446981ca72e1873d2943.pdf","currentpath_word":"fileUpLoad\\201506\\20150650221_552ad6b927d5446981ca72e1873d2943.docx","jt_bh":5,"jttl":{"jt_bh":5,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 14:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"在进行"},"cj_zyclq":null},{"selected":null,"aj_id":1308,"dw_bh":"10","aj_bh":"舟山路罚(2015)100001","aj_jasj":"2015-06-05 14:20","cj_dh":"3","cj_sj":"2015-06-05 14:20","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"333","cj_zs":3,"cj_zz":"20","cj_cz":0.0,"hw_mc":"3","hw_qd":"3","hw_md":"3","cl_gc":"33","cl_hdzzl":20,"cl_zbzl":3,"cl_cjd":"3","cl_lx":"33","cl_yyz":"3","cl_syr":"3","cl_zz":"3","cl_dh":"3","jsy_xm":"3","jsy_xb":"男","jsy_zh":"3","jsy_cy":"3","jsy_dh":"3","jsy_zz":"33","aj_fk":0,"aj_pjh":"3","aj_tcdd":"3","aj_zfx":"3","aj_zfxz":"3","aj_zfj":"3","aj_zfjz":"33","aj_afsj":"2015-06-05 14:20","aj_afdd":"3","fj_cz":0,"fj_zz":3,"fj_sj":"2015-06-05 14:20","fj_dh":"3","aj_xwbldd":"3","aj_xwblsj":"2015-06-05 14:52","aj_xcbldd":"3","dw":null,"aj_xcblsj":"2015-06-05 14:36","aj_jazt":"是","cj_zz_lx":"总重20吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150650220_225cd7f354c1415f8c2cec004cb043b0.pdf","currentpath_word":"fileUpLoad\\201506\\20150650220_225cd7f354c1415f8c2cec004cb043b0.docx","jt_bh":4,"jttl":{"jt_bh":4,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:42","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"在进行"},"cj_zyclq":null},{"selected":null,"aj_id":1401,"dw_bh":"10","aj_bh":"舟山路罚(2015)100003","aj_jasj":"2015-06-07 19:28","cj_dh":"2","cj_sj":"2015-06-07 19:27","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"22","cj_zs":2,"cj_zz":"2","cj_cz":0.0,"hw_mc":"2","hw_qd":"2","hw_md":"2","cl_gc":"22","cl_hdzzl":22,"cl_zbzl":2,"cl_cjd":"2","cl_lx":"2","cl_yyz":"2","cl_syr":"2","cl_zz":"2","cl_dh":"22","jsy_xm":"2","jsy_xb":"男","jsy_zh":"2","jsy_cy":"22","jsy_dh":"2","jsy_zz":"2","aj_fk":0,"aj_pjh":"2","aj_tcdd":"2","aj_zfx":"22","aj_zfxz":"2","aj_zfj":"2","aj_zfjz":"2","aj_afsj":"2015-06-07 19:27","aj_afdd":"2","fj_cz":0,"fj_zz":2,"fj_sj":"2015-06-07 19:27","fj_dh":"2","aj_xwbldd":"22","aj_xwblsj":"2015-06-07 19:59","aj_xcbldd":"2","dw":null,"aj_xcblsj":"2015-06-07 19:43","aj_jazt":"是","cj_zz_lx":"总重2吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150670728_舟山路罚(2015)100002.pdf","currentpath_word":"fileUpLoad\\201506\\20150670728_舟山路罚(2015)100002.docx","jt_bh":3,"jttl":{"jt_bh":3,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"否"},"cj_zyclq":null}],"firstPage":1,"prePage":0,"nextPage":0,"lastPage":1,"isFirstPage":true,"isLastPage":false,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1]}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2377,6 +2353,38 @@
         }
     ]
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "删除成功",
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "删除成功",
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Dict&gt; 传dictid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当案卷结案后，管理员进行改动后，会重新生成案卷，并把cxcf表里的pdf和word路径修改成新的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateForJiean.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2547,23 +2555,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>{"success":true,"msg":null,"data":"fileUpLoad/201506/word.zip"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"pageNum":1,"pageSize":10,"size":3,"startRow":1,"endRow":3,"total":3,"pages":1,"list":[{"selected":null,"aj_id":1310,"dw_bh":"10","aj_bh":"舟山路罚(2015)100002","aj_jasj":"2015-06-05 14:21","cj_dh":"4","cj_sj":"2015-06-05 14:21","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"44","cj_zs":4,"cj_zz":"20","cj_cz":0.0,"hw_mc":"4","hw_qd":"4","hw_md":"4","cl_gc":"444","cl_hdzzl":4,"cl_zbzl":4,"cl_cjd":"4","cl_lx":"4","cl_yyz":"4","cl_syr":"44","cl_zz":"4","cl_dh":"4","jsy_xm":"4","jsy_xb":"男","jsy_zh":"4","jsy_cy":"4","jsy_dh":"44","jsy_zz":"4","aj_fk":0,"aj_pjh":"4","aj_tcdd":"4","aj_zfx":"4","aj_zfxz":"44","aj_zfj":"4","aj_zfjz":"4","aj_afsj":"2015-06-05 14:21","aj_afdd":"4","fj_cz":0,"fj_zz":4,"fj_sj":"2015-06-05 14:21","fj_dh":"4","aj_xwbldd":"44","aj_xwblsj":"2015-06-05 14:53","aj_xcbldd":"4","dw":null,"aj_xcblsj":"2015-06-05 14:37","aj_jazt":"是","cj_zz_lx":"总重20吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150650221_552ad6b927d5446981ca72e1873d2943.pdf","currentpath_word":"fileUpLoad\\201506\\20150650221_552ad6b927d5446981ca72e1873d2943.docx","jt_bh":5,"jttl":{"jt_bh":5,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 14:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"在进行"},"cj_zyclq":null},{"selected":null,"aj_id":1308,"dw_bh":"10","aj_bh":"舟山路罚(2015)100001","aj_jasj":"2015-06-05 14:20","cj_dh":"3","cj_sj":"2015-06-05 14:20","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"333","cj_zs":3,"cj_zz":"20","cj_cz":0.0,"hw_mc":"3","hw_qd":"3","hw_md":"3","cl_gc":"33","cl_hdzzl":20,"cl_zbzl":3,"cl_cjd":"3","cl_lx":"33","cl_yyz":"3","cl_syr":"3","cl_zz":"3","cl_dh":"3","jsy_xm":"3","jsy_xb":"男","jsy_zh":"3","jsy_cy":"3","jsy_dh":"3","jsy_zz":"33","aj_fk":0,"aj_pjh":"3","aj_tcdd":"3","aj_zfx":"3","aj_zfxz":"3","aj_zfj":"3","aj_zfjz":"33","aj_afsj":"2015-06-05 14:20","aj_afdd":"3","fj_cz":0,"fj_zz":3,"fj_sj":"2015-06-05 14:20","fj_dh":"3","aj_xwbldd":"3","aj_xwblsj":"2015-06-05 14:52","aj_xcbldd":"3","dw":null,"aj_xcblsj":"2015-06-05 14:36","aj_jazt":"是","cj_zz_lx":"总重20吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150650220_225cd7f354c1415f8c2cec004cb043b0.pdf","currentpath_word":"fileUpLoad\\201506\\20150650220_225cd7f354c1415f8c2cec004cb043b0.docx","jt_bh":4,"jttl":{"jt_bh":4,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:42","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"在进行"},"cj_zyclq":null},{"selected":null,"aj_id":1401,"dw_bh":"10","aj_bh":"舟山路罚(2015)100003","aj_jasj":"2015-06-07 19:28","cj_dh":"2","cj_sj":"2015-06-07 19:27","cj_cxlx":"超重","cj_kfxz":"可卸载","cj_cp":"22","cj_zs":2,"cj_zz":"2","cj_cz":0.0,"hw_mc":"2","hw_qd":"2","hw_md":"2","cl_gc":"22","cl_hdzzl":22,"cl_zbzl":2,"cl_cjd":"2","cl_lx":"2","cl_yyz":"2","cl_syr":"2","cl_zz":"2","cl_dh":"22","jsy_xm":"2","jsy_xb":"男","jsy_zh":"2","jsy_cy":"22","jsy_dh":"2","jsy_zz":"2","aj_fk":0,"aj_pjh":"2","aj_tcdd":"2","aj_zfx":"22","aj_zfxz":"2","aj_zfj":"2","aj_zfjz":"2","aj_afsj":"2015-06-07 19:27","aj_afdd":"2","fj_cz":0,"fj_zz":2,"fj_sj":"2015-06-07 19:27","fj_dh":"2","aj_xwbldd":"22","aj_xwblsj":"2015-06-07 19:59","aj_xcbldd":"2","dw":null,"aj_xcblsj":"2015-06-07 19:43","aj_jazt":"是","cj_zz_lx":"总重2吨","aj_datastate":0,"currentpath_pdf":"fileUpLoad\\201506\\20150670728_舟山路罚(2015)100002.pdf","currentpath_word":"fileUpLoad\\201506\\20150670728_舟山路罚(2015)100002.docx","jt_bh":3,"jttl":{"jt_bh":3,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"否"},"cj_zyclq":null}],"firstPage":1,"prePage":0,"nextPage":0,"lastPage":1,"isFirstPage":true,"isLastPage":false,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "success": true,
-    "msg": "删除成功",
+    "msg": null,
+    "data": 3
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": "cxcf/fileUpLoad/201505/201505251000_93b1697ac27a49c484153f347bccc393.pdf"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
     "data": 1
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "success": true,
-    "msg": "删除成功",
-    "data": 1
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Dict&gt; 传dictid</t>
+    <t>xxc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2779,32 +2803,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2857,10 +2862,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3476,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N101"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3501,17 +3528,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3568,13 +3595,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3601,11 +3628,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3630,11 +3657,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3659,11 +3686,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3686,11 +3713,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3713,11 +3740,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3742,11 +3769,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3771,11 +3798,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3802,11 +3829,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3833,13 +3860,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3866,11 +3893,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3895,11 +3922,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3924,11 +3951,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3951,11 +3978,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3978,13 +4005,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="55" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="56" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4011,11 +4038,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4040,16 +4067,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -4069,11 +4096,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4096,11 +4123,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4123,13 +4150,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="56" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4156,11 +4183,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4185,11 +4212,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4214,11 +4241,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4241,11 +4268,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4268,13 +4295,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="51" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4303,11 +4330,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4318,7 +4345,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4334,11 +4361,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4354,7 +4381,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>85</v>
@@ -4365,16 +4392,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4396,16 +4423,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4416,7 +4443,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4427,16 +4454,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4458,16 +4485,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="31"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4489,16 +4516,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="31"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4518,16 +4545,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="31"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4538,7 +4565,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4547,16 +4574,16 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="31"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="31"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -4567,413 +4594,415 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="31"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="31"/>
+        <v>392</v>
+      </c>
+      <c r="E38" s="52"/>
       <c r="F38" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="E39" s="31"/>
+        <v>408</v>
+      </c>
+      <c r="E39" s="52"/>
       <c r="F39" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="31"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="E40" s="31"/>
+        <v>409</v>
+      </c>
+      <c r="E40" s="52"/>
       <c r="F40" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="31"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="E41" s="31"/>
+        <v>422</v>
+      </c>
+      <c r="E41" s="52"/>
       <c r="F41" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="I41" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="32"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E42" s="32"/>
+        <v>429</v>
+      </c>
+      <c r="E42" s="53"/>
       <c r="F42" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="2"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-      <c r="C43" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>288</v>
+      <c r="G43" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>290</v>
+      <c r="K43" s="9"/>
+      <c r="L43" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="42"/>
+      <c r="C44" s="36" t="s">
+        <v>440</v>
+      </c>
       <c r="D44" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="H45" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="I44" s="21" t="s">
+      <c r="I45" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="M45" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="M44" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="2">
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
         <v>33</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="21" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="57" t="s">
+      <c r="G46" s="22"/>
+      <c r="H46" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="25">
+        <v>34</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="25">
-        <v>34</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="M46" s="25" t="s">
+      <c r="M47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="25"/>
-    </row>
-    <row r="47" spans="2:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="55">
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="30">
         <v>35</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="55" t="s">
-        <v>446</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="55" t="s">
+      <c r="C48" s="37"/>
+      <c r="D48" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="55" t="s">
+      <c r="H48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55" t="s">
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="55"/>
-    </row>
-    <row r="48" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="2">
+      <c r="N48" s="30"/>
+    </row>
+    <row r="49" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
         <v>36</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="2">
-        <v>37</v>
-      </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="21" t="s">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>472</v>
+        <v>33</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
+        <v>37</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="25">
-        <v>38</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="25"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="25">
-        <v>39</v>
-      </c>
-      <c r="C51" s="49"/>
+        <v>38</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>399</v>
+      </c>
       <c r="D51" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
@@ -4992,15 +5021,15 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
-        <v>40</v>
-      </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="25" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
@@ -5019,22 +5048,22 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
-        <v>41</v>
-      </c>
-      <c r="C53" s="49"/>
+        <v>40</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E53" s="52"/>
+        <v>279</v>
+      </c>
+      <c r="E53" s="47"/>
       <c r="F53" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -5046,15 +5075,15 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25">
-        <v>42</v>
-      </c>
-      <c r="C54" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="52"/>
+        <v>280</v>
+      </c>
+      <c r="E54" s="47"/>
       <c r="F54" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
@@ -5073,22 +5102,22 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>43</v>
-      </c>
-      <c r="C55" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="C55" s="44"/>
       <c r="D55" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="52"/>
+        <v>281</v>
+      </c>
+      <c r="E55" s="47"/>
       <c r="F55" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="25" t="s">
-        <v>20</v>
+      <c r="I55" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -5100,22 +5129,22 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25">
-        <v>44</v>
-      </c>
-      <c r="C56" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="C56" s="44"/>
       <c r="D56" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="53"/>
+        <v>109</v>
+      </c>
+      <c r="E56" s="47"/>
       <c r="F56" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -5125,52 +5154,48 @@
       </c>
       <c r="N56" s="25"/>
     </row>
-    <row r="57" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="25">
+        <v>44</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
         <v>45</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E58" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="2">
-        <v>46</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>118</v>
@@ -5181,37 +5206,41 @@
       <c r="I58" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K58" s="12"/>
+      <c r="K58" s="13"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
-        <v>47</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="J59" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K59" s="12"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
         <v>21</v>
@@ -5220,15 +5249,15 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
-        <v>48</v>
-      </c>
-      <c r="C60" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="C60" s="45"/>
       <c r="D60" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="42"/>
+        <v>124</v>
+      </c>
+      <c r="E60" s="37"/>
       <c r="F60" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14" t="s">
@@ -5247,15 +5276,15 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>49</v>
-      </c>
-      <c r="C61" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="C61" s="45"/>
       <c r="D61" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="42"/>
+        <v>126</v>
+      </c>
+      <c r="E61" s="37"/>
       <c r="F61" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
@@ -5274,15 +5303,15 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>50</v>
-      </c>
-      <c r="C62" s="50"/>
+        <v>49</v>
+      </c>
+      <c r="C62" s="45"/>
       <c r="D62" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="42"/>
+        <v>128</v>
+      </c>
+      <c r="E62" s="37"/>
       <c r="F62" s="14" t="s">
-        <v>423</v>
+        <v>129</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
@@ -5301,22 +5330,22 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>51</v>
-      </c>
-      <c r="C63" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="C63" s="45"/>
       <c r="D63" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="42"/>
+        <v>130</v>
+      </c>
+      <c r="E63" s="37"/>
       <c r="F63" s="14" t="s">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -5328,24 +5357,22 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
+        <v>51</v>
+      </c>
+      <c r="C64" s="45"/>
+      <c r="D64" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -5355,320 +5382,320 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="2"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>401</v>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="2">
+        <v>52</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="23" t="s">
-        <v>407</v>
+      <c r="M65" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="2">
-        <v>53</v>
-      </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="N66" s="18">
-        <v>42149</v>
-      </c>
+    <row r="66" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
+        <v>53</v>
+      </c>
+      <c r="C67" s="45"/>
+      <c r="D67" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N67" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="2">
         <v>54</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C68" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="E68" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="F68" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="G68" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G67" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="M67" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="2"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="48"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="E69" s="40"/>
+        <v>290</v>
+      </c>
+      <c r="E69" s="34"/>
       <c r="F69" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M69" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N69" s="18"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="38" t="s">
-        <v>302</v>
-      </c>
+      <c r="C70" s="43"/>
       <c r="D70" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>304</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E70" s="35"/>
       <c r="F70" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>306</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G70" s="21"/>
       <c r="H70" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="N70" s="18"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="39"/>
+      <c r="C71" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="D71" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E71" s="39"/>
+        <v>302</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>303</v>
+      </c>
       <c r="F71" s="21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
-      <c r="L71" s="22" t="s">
-        <v>327</v>
+      <c r="L71" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="39"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" s="39"/>
+        <v>312</v>
+      </c>
+      <c r="E72" s="34"/>
       <c r="F72" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>325</v>
+        <v>307</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="39"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="39"/>
+        <v>313</v>
+      </c>
+      <c r="E73" s="34"/>
       <c r="F73" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" s="39"/>
+        <v>314</v>
+      </c>
+      <c r="E74" s="34"/>
       <c r="F74" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="14" t="s">
-        <v>33</v>
+      <c r="I74" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N74" s="18"/>
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E75" s="39"/>
+        <v>315</v>
+      </c>
+      <c r="E75" s="34"/>
       <c r="F75" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
@@ -5679,54 +5706,54 @@
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N75" s="18"/>
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E76" s="39"/>
+        <v>318</v>
+      </c>
+      <c r="E76" s="34"/>
       <c r="F76" s="21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E77" s="40"/>
-      <c r="F77" s="21" t="s">
-        <v>324</v>
-      </c>
       <c r="G77" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
@@ -5737,174 +5764,174 @@
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N77" s="18"/>
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="38" t="s">
-        <v>336</v>
-      </c>
+      <c r="C78" s="35"/>
       <c r="D78" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>339</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E78" s="35"/>
       <c r="F78" s="21" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="21" t="s">
-        <v>342</v>
+      <c r="I78" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="39"/>
+      <c r="C79" s="33" t="s">
+        <v>333</v>
+      </c>
       <c r="D79" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E79" s="39"/>
+        <v>335</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>336</v>
+      </c>
       <c r="F79" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="39"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="E80" s="39"/>
+        <v>343</v>
+      </c>
+      <c r="E80" s="34"/>
       <c r="F80" s="21" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="39"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E81" s="39"/>
+        <v>347</v>
+      </c>
+      <c r="E81" s="34"/>
       <c r="F81" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>355</v>
+        <v>348</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="39"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E82" s="39"/>
+        <v>351</v>
+      </c>
+      <c r="E82" s="34"/>
       <c r="F82" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>341</v>
+        <v>426</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="14" t="s">
-        <v>33</v>
+      <c r="I82" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N82" s="18"/>
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="39"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E83" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="E83" s="34"/>
       <c r="F83" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
@@ -5915,54 +5942,54 @@
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="39"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E84" s="39"/>
+        <v>359</v>
+      </c>
+      <c r="E84" s="34"/>
       <c r="F84" s="21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N84" s="18"/>
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E85" s="40"/>
+        <v>358</v>
+      </c>
+      <c r="E85" s="34"/>
       <c r="F85" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
@@ -5973,174 +6000,174 @@
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N85" s="18"/>
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="38" t="s">
-        <v>366</v>
-      </c>
+      <c r="C86" s="35"/>
       <c r="D86" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>368</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E86" s="35"/>
       <c r="F86" s="21" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>371</v>
+        <v>52</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="N86" s="18"/>
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="39"/>
+      <c r="C87" s="33" t="s">
+        <v>363</v>
+      </c>
       <c r="D87" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E87" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>365</v>
+      </c>
       <c r="F87" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>367</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="21" t="s">
-        <v>453</v>
+      <c r="I87" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N87" s="18"/>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="39"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="E88" s="39"/>
+        <v>373</v>
+      </c>
+      <c r="E88" s="34"/>
       <c r="F88" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="G88" s="21" t="s">
         <v>371</v>
       </c>
+      <c r="G88" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="14" t="s">
-        <v>380</v>
+      <c r="I88" s="21" t="s">
+        <v>449</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N88" s="18"/>
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="39"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E89" s="39"/>
+        <v>375</v>
+      </c>
+      <c r="E89" s="34"/>
       <c r="F89" s="21" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="21" t="s">
-        <v>371</v>
+      <c r="I89" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="39"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E90" s="39"/>
+        <v>379</v>
+      </c>
+      <c r="E90" s="34"/>
       <c r="F90" s="21" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>33</v>
+      <c r="I90" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="39"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E91" s="39"/>
+        <v>382</v>
+      </c>
+      <c r="E91" s="34"/>
       <c r="F91" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
@@ -6151,54 +6178,54 @@
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="39"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="E92" s="39"/>
+        <v>383</v>
+      </c>
+      <c r="E92" s="34"/>
       <c r="F92" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N92" s="18"/>
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="39"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E93" s="39"/>
+        <v>384</v>
+      </c>
+      <c r="E93" s="34"/>
       <c r="F93" s="21" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
@@ -6209,222 +6236,224 @@
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="2">
+    <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="2"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M94" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N94" s="18"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" s="2">
         <v>55</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E94" s="12" t="s">
+      <c r="D95" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F94" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" s="12" t="s">
+      <c r="F95" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="17" t="s">
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N94" s="2"/>
-    </row>
-    <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="2"/>
-      <c r="C95" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="H95" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="N95" s="18"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="29"/>
+      <c r="C96" s="50" t="s">
+        <v>445</v>
+      </c>
       <c r="D96" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E96" s="29"/>
+        <v>451</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>446</v>
+      </c>
       <c r="F96" s="21" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N96" s="18"/>
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="29"/>
+      <c r="C97" s="50"/>
       <c r="D97" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E97" s="29"/>
+        <v>453</v>
+      </c>
+      <c r="E97" s="50"/>
       <c r="F97" s="21" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N97" s="18"/>
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="29"/>
+      <c r="C98" s="50"/>
       <c r="D98" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E98" s="29"/>
+        <v>454</v>
+      </c>
+      <c r="E98" s="50"/>
       <c r="F98" s="21" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N98" s="18"/>
     </row>
     <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="29"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E99" s="29"/>
+        <v>379</v>
+      </c>
+      <c r="E99" s="50"/>
       <c r="F99" s="21" t="s">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="14" t="s">
-        <v>33</v>
+      <c r="I99" s="21" t="s">
+        <v>448</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N99" s="18"/>
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="29"/>
+      <c r="C100" s="50"/>
       <c r="D100" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="E100" s="29"/>
+        <v>382</v>
+      </c>
+      <c r="E100" s="50"/>
       <c r="F100" s="21" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N100" s="18"/>
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="29"/>
+      <c r="C101" s="50"/>
       <c r="D101" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E101" s="29"/>
+        <v>462</v>
+      </c>
+      <c r="E101" s="50"/>
       <c r="F101" s="21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
@@ -6436,25 +6465,41 @@
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N101" s="18"/>
+    </row>
+    <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="2"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E102" s="50"/>
+      <c r="F102" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N102" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="E57:E66"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="C96:C102"/>
+    <mergeCell ref="E96:E102"/>
     <mergeCell ref="C28:C42"/>
     <mergeCell ref="E28:E42"/>
     <mergeCell ref="B1:J1"/>
@@ -6466,9 +6511,20 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="E58:E67"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -1994,10 +1994,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/getLatestJa.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2373,18 +2369,6 @@
   </si>
   <si>
     <t>List&lt;Dict&gt; 传dictid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当案卷结案后，管理员进行改动后，会重新生成案卷，并把cxcf表里的pdf和word路径修改成新的</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateForJiean.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxcf</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2588,6 +2572,22 @@
   </si>
   <si>
     <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLatestJa.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当案卷结案后，管理员进行改动后，会重新生成案卷，并把cxcf表里的pdf和word路径修改成新的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateForJiean.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2811,6 +2811,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2860,33 +2887,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3505,40 +3505,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3595,13 +3595,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3628,11 +3628,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3657,11 +3657,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3686,11 +3686,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3713,11 +3713,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3740,11 +3740,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3769,11 +3769,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3798,11 +3798,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3829,11 +3829,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3860,13 +3860,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3893,11 +3893,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3922,11 +3922,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3951,11 +3951,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3978,11 +3978,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4005,13 +4005,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="39" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4038,11 +4038,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4067,11 +4067,11 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="7" t="s">
         <v>405</v>
       </c>
@@ -4096,11 +4096,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4123,11 +4123,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4150,13 +4150,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="39" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4183,11 +4183,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4212,11 +4212,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4241,11 +4241,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4268,11 +4268,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="34" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4330,11 +4330,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="52"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4357,15 +4357,15 @@
       </c>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="52"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4388,15 +4388,15 @@
       </c>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="52"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
@@ -4423,11 +4423,11 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
@@ -4454,11 +4454,11 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
@@ -4481,15 +4481,15 @@
       </c>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
@@ -4512,15 +4512,15 @@
       </c>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
@@ -4543,13 +4543,13 @@
       </c>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4565,20 +4565,20 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
       </c>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="52"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
@@ -4594,20 +4594,20 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>271</v>
       </c>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="52"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="9" t="s">
         <v>393</v>
       </c>
@@ -4618,25 +4618,25 @@
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>395</v>
       </c>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="52"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="9" t="s">
         <v>407</v>
       </c>
@@ -4652,20 +4652,20 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>332</v>
       </c>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="52"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="52"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="9" t="s">
         <v>410</v>
       </c>
@@ -4686,13 +4686,13 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="52"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E41" s="52"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="9" t="s">
         <v>423</v>
       </c>
@@ -4708,54 +4708,54 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>425</v>
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>430</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>431</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>427</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="29"/>
       <c r="D43" s="9" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="9" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>427</v>
@@ -4766,29 +4766,29 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="20" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="36" t="s">
-        <v>440</v>
+      <c r="C44" s="45" t="s">
+        <v>439</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="48" t="s">
         <v>97</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>400</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>428</v>
@@ -4798,23 +4798,23 @@
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>289</v>
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="21" t="s">
         <v>420</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>289</v>
@@ -4841,11 +4841,11 @@
       <c r="B46" s="2">
         <v>33</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="E46" s="40"/>
+        <v>440</v>
+      </c>
+      <c r="E46" s="49"/>
       <c r="F46" s="21" t="s">
         <v>38</v>
       </c>
@@ -4854,32 +4854,32 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="25">
         <v>34</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="21" t="s">
-        <v>467</v>
-      </c>
       <c r="G47" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>19</v>
@@ -4890,7 +4890,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M47" s="25" t="s">
         <v>21</v>
@@ -4901,11 +4901,11 @@
       <c r="B48" s="30">
         <v>35</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="E48" s="40"/>
+        <v>441</v>
+      </c>
+      <c r="E48" s="49"/>
       <c r="F48" s="30" t="s">
         <v>99</v>
       </c>
@@ -4930,16 +4930,16 @@
       <c r="B49" s="2">
         <v>36</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="E49" s="40"/>
+        <v>442</v>
+      </c>
+      <c r="E49" s="49"/>
       <c r="F49" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>19</v>
@@ -4950,41 +4950,41 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>37</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="E50" s="41"/>
+        <v>438</v>
+      </c>
+      <c r="E50" s="50"/>
       <c r="F50" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N50" s="2"/>
     </row>
@@ -4992,13 +4992,13 @@
       <c r="B51" s="25">
         <v>38</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="53" t="s">
         <v>399</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="25" t="s">
@@ -5023,11 +5023,11 @@
       <c r="B52" s="25">
         <v>39</v>
       </c>
-      <c r="C52" s="44"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="26" t="s">
         <v>104</v>
       </c>
@@ -5050,11 +5050,11 @@
       <c r="B53" s="25">
         <v>40</v>
       </c>
-      <c r="C53" s="44"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="47"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="25" t="s">
         <v>105</v>
       </c>
@@ -5077,11 +5077,11 @@
       <c r="B54" s="25">
         <v>41</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="56"/>
       <c r="F54" s="25" t="s">
         <v>106</v>
       </c>
@@ -5104,11 +5104,11 @@
       <c r="B55" s="25">
         <v>42</v>
       </c>
-      <c r="C55" s="44"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="47"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="25" t="s">
         <v>108</v>
       </c>
@@ -5131,11 +5131,11 @@
       <c r="B56" s="25">
         <v>43</v>
       </c>
-      <c r="C56" s="44"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="56"/>
       <c r="F56" s="25" t="s">
         <v>110</v>
       </c>
@@ -5158,11 +5158,11 @@
       <c r="B57" s="25">
         <v>44</v>
       </c>
-      <c r="C57" s="44"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="48"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="25" t="s">
         <v>112</v>
       </c>
@@ -5185,13 +5185,13 @@
       <c r="B58" s="2">
         <v>45</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="54" t="s">
         <v>114</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -5220,11 +5220,11 @@
       <c r="B59" s="2">
         <v>46</v>
       </c>
-      <c r="C59" s="45"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="37"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="12" t="s">
         <v>123</v>
       </c>
@@ -5251,11 +5251,11 @@
       <c r="B60" s="2">
         <v>47</v>
       </c>
-      <c r="C60" s="45"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="14" t="s">
         <v>125</v>
       </c>
@@ -5278,11 +5278,11 @@
       <c r="B61" s="2">
         <v>48</v>
       </c>
-      <c r="C61" s="45"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="37"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="14" t="s">
         <v>127</v>
       </c>
@@ -5305,11 +5305,11 @@
       <c r="B62" s="2">
         <v>49</v>
       </c>
-      <c r="C62" s="45"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="37"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="14" t="s">
         <v>129</v>
       </c>
@@ -5332,11 +5332,11 @@
       <c r="B63" s="2">
         <v>50</v>
       </c>
-      <c r="C63" s="45"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="37"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="14" t="s">
         <v>419</v>
       </c>
@@ -5359,11 +5359,11 @@
       <c r="B64" s="2">
         <v>51</v>
       </c>
-      <c r="C64" s="45"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="37"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="14" t="s">
         <v>132</v>
       </c>
@@ -5386,11 +5386,11 @@
       <c r="B65" s="2">
         <v>52</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="37"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="14" t="s">
         <v>35</v>
       </c>
@@ -5411,13 +5411,13 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
-      <c r="C66" s="45"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="E66" s="37"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="21" t="s">
         <v>401</v>
       </c>
@@ -5442,11 +5442,11 @@
       <c r="B67" s="2">
         <v>53</v>
       </c>
-      <c r="C67" s="45"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="38"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="9" t="s">
         <v>136</v>
       </c>
@@ -5477,13 +5477,13 @@
       <c r="B68" s="2">
         <v>54</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="45" t="s">
         <v>272</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="42" t="s">
         <v>274</v>
       </c>
       <c r="F68" s="21" t="s">
@@ -5512,11 +5512,11 @@
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="42"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E69" s="34"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="21" t="s">
         <v>291</v>
       </c>
@@ -5539,11 +5539,11 @@
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="43"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="35"/>
+      <c r="E70" s="44"/>
       <c r="F70" s="21" t="s">
         <v>295</v>
       </c>
@@ -5566,13 +5566,13 @@
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="42" t="s">
         <v>301</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="42" t="s">
         <v>303</v>
       </c>
       <c r="F71" s="21" t="s">
@@ -5599,11 +5599,11 @@
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="34"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="21" t="s">
         <v>307</v>
       </c>
@@ -5628,11 +5628,11 @@
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="34"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="21" t="s">
         <v>309</v>
       </c>
@@ -5657,11 +5657,11 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="34"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="21" t="s">
         <v>311</v>
       </c>
@@ -5686,11 +5686,11 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="34"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="21" t="s">
         <v>316</v>
       </c>
@@ -5715,11 +5715,11 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="34"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="21" t="s">
         <v>317</v>
       </c>
@@ -5744,11 +5744,11 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E77" s="34"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="21" t="s">
         <v>321</v>
       </c>
@@ -5773,11 +5773,11 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="35"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E78" s="35"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="21" t="s">
         <v>323</v>
       </c>
@@ -5802,13 +5802,13 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="42" t="s">
         <v>333</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="42" t="s">
         <v>336</v>
       </c>
       <c r="F79" s="21" t="s">
@@ -5835,11 +5835,11 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E80" s="34"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="21" t="s">
         <v>341</v>
       </c>
@@ -5864,11 +5864,11 @@
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E81" s="34"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="21" t="s">
         <v>348</v>
       </c>
@@ -5893,11 +5893,11 @@
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="34"/>
+      <c r="E82" s="43"/>
       <c r="F82" s="21" t="s">
         <v>426</v>
       </c>
@@ -5922,11 +5922,11 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="34"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="21" t="s">
         <v>355</v>
       </c>
@@ -5951,11 +5951,11 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E84" s="34"/>
+      <c r="E84" s="43"/>
       <c r="F84" s="21" t="s">
         <v>357</v>
       </c>
@@ -5980,11 +5980,11 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="34"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="34"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="21" t="s">
         <v>362</v>
       </c>
@@ -6009,11 +6009,11 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="35"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E86" s="35"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="21" t="s">
         <v>361</v>
       </c>
@@ -6038,13 +6038,13 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="42" t="s">
         <v>363</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="42" t="s">
         <v>365</v>
       </c>
       <c r="F87" s="21" t="s">
@@ -6071,11 +6071,11 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="34"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E88" s="34"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="21" t="s">
         <v>371</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>19</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
@@ -6100,11 +6100,11 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="34"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="34"/>
+      <c r="E89" s="43"/>
       <c r="F89" s="21" t="s">
         <v>376</v>
       </c>
@@ -6129,11 +6129,11 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="34"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E90" s="34"/>
+      <c r="E90" s="43"/>
       <c r="F90" s="21" t="s">
         <v>380</v>
       </c>
@@ -6158,11 +6158,11 @@
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="34"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="34"/>
+      <c r="E91" s="43"/>
       <c r="F91" s="21" t="s">
         <v>387</v>
       </c>
@@ -6187,11 +6187,11 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="34"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="34"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="21" t="s">
         <v>386</v>
       </c>
@@ -6216,11 +6216,11 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="34"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="34"/>
+      <c r="E93" s="43"/>
       <c r="F93" s="21" t="s">
         <v>385</v>
       </c>
@@ -6245,11 +6245,11 @@
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="34"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E94" s="34"/>
+      <c r="E94" s="43"/>
       <c r="F94" s="21" t="s">
         <v>390</v>
       </c>
@@ -6305,26 +6305,26 @@
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E96" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E96" s="50" t="s">
+      <c r="F96" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="G96" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="G96" s="21" t="s">
-        <v>448</v>
-      </c>
       <c r="H96" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
@@ -6336,22 +6336,22 @@
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="50"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E97" s="50"/>
+        <v>452</v>
+      </c>
+      <c r="E97" s="33"/>
       <c r="F97" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
@@ -6363,22 +6363,22 @@
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="50"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E98" s="33"/>
+      <c r="F98" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="21" t="s">
+      <c r="G98" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="21" t="s">
         <v>455</v>
-      </c>
-      <c r="G98" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
@@ -6390,22 +6390,22 @@
     </row>
     <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="50"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E99" s="50"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="21" t="s">
         <v>311</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
@@ -6417,16 +6417,16 @@
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="50"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E100" s="50"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G100" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="G100" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
@@ -6444,16 +6444,16 @@
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="50"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E101" s="50"/>
+        <v>461</v>
+      </c>
+      <c r="E101" s="33"/>
       <c r="F101" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
@@ -6471,16 +6471,16 @@
     </row>
     <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="50"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E102" s="50"/>
+        <v>460</v>
+      </c>
+      <c r="E102" s="33"/>
       <c r="F102" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H102" s="21" t="s">
         <v>19</v>
@@ -6498,6 +6498,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="E58:E67"/>
     <mergeCell ref="C96:C102"/>
     <mergeCell ref="E96:E102"/>
     <mergeCell ref="C28:C42"/>
@@ -6514,17 +6525,6 @@
     <mergeCell ref="C87:C94"/>
     <mergeCell ref="E87:E94"/>
     <mergeCell ref="C79:C86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="E58:E67"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6540,13 +6540,13 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -7104,11 +7104,11 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7246,7 +7246,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="10170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -1833,10 +1833,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>下载中文名的word和pdf，zip文件直接下载</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>常用信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1994,6 +1990,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>/getLatestJa.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2119,10 +2119,6 @@
   </si>
   <si>
     <t>选择性更新报送配置信息  有字段就更新无字段就不更新，防止更新后出现null结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"6"}],"XCBLDD":[],"XWBLDD":[],"TCDD":[],"ZFR":[]}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2216,14 +2212,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Dict   
-1.appname:cxcf(现在就这一种)
-2.dictname:(案发地点,现场笔录地点,询问笔录地点,执法人,停车地点
-3.dictcode:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
-3.dictvalue:要查询的值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>批量删除</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2369,6 +2357,18 @@
   </si>
   <si>
     <t>List&lt;Dict&gt; 传dictid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当案卷结案后，管理员进行改动后，会重新生成案卷，并把cxcf表里的pdf和word路径修改成新的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateForJiean.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2575,19 +2575,20 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/getLatestJa.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当案卷结案后，管理员进行改动后，会重新生成案卷，并把cxcf表里的pdf和word路径修改成新的</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateForJiean.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxcf</t>
+    <t>下载中文名的word和pdf，zip文件直接下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict   
+1.appname:cxcf(现在就这一种)
+2.dictname:(案发地点,现场笔录地点,询问笔录地点,执法人,停车地点，车辆类型
+3.dictcode:(AFDD:案发地点,XCBLDD:现场笔录地点,XWBLDD:询问笔录地点,ZFR:执法人),TCDD:停车地点
+CLLX:车辆类型
+3.dictvalue:要查询的值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"7"}],"XCBLDD":[{"value":"77"}],"XWBLDD":[{"value":"77"}],"TCDD":[{"value":"7"}],"CLLX":[{"value":"打牌"}],"ZFR":[{"aj_zfr":"7","aj_zfrz":"77"},{"aj_zfr":"77","aj_zfrz":"7"}]}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2751,7 +2752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2803,9 +2804,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,40 +3503,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3595,13 +3593,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3628,11 +3626,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3657,11 +3655,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3686,11 +3684,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3713,11 +3711,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3740,11 +3738,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3769,11 +3767,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3798,11 +3796,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3829,11 +3827,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3860,13 +3858,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3893,11 +3891,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3922,11 +3920,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3951,11 +3949,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3978,11 +3976,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4005,13 +4003,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4038,11 +4036,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4067,16 +4065,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -4096,11 +4094,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4123,11 +4121,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4150,13 +4148,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4183,11 +4181,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4212,11 +4210,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4241,11 +4239,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4268,11 +4266,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4291,17 +4289,17 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4330,11 +4328,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4357,15 +4355,15 @@
       </c>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4388,20 +4386,20 @@
       </c>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4423,16 +4421,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4443,7 +4441,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4454,16 +4452,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4481,20 +4479,20 @@
       </c>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="35"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="35"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4512,20 +4510,20 @@
       </c>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4543,18 +4541,18 @@
       </c>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="35"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="35"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4565,20 +4563,20 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
       </c>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="35"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="35"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
@@ -4594,20 +4592,20 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>271</v>
       </c>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="35"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="9" t="s">
         <v>393</v>
       </c>
@@ -4623,25 +4621,25 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>395</v>
       </c>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E39" s="35"/>
+        <v>407</v>
+      </c>
+      <c r="E39" s="34"/>
       <c r="F39" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
@@ -4652,84 +4650,84 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>332</v>
       </c>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="35"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="9" t="s">
-        <v>482</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>430</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>431</v>
@@ -4737,28 +4735,28 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>432</v>
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="29"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E43" s="29"/>
+        <v>472</v>
+      </c>
+      <c r="E43" s="35"/>
       <c r="F43" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>42</v>
@@ -4766,60 +4764,60 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>439</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>287</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="21" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>289</v>
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="46"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E45" s="49"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>421</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>286</v>
@@ -4830,7 +4828,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>289</v>
@@ -4841,11 +4839,11 @@
       <c r="B46" s="2">
         <v>33</v>
       </c>
-      <c r="C46" s="46"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="E46" s="49"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="21" t="s">
         <v>38</v>
       </c>
@@ -4858,28 +4856,28 @@
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="32" t="s">
-        <v>468</v>
+      <c r="L46" s="31" t="s">
+        <v>466</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>433</v>
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="25">
         <v>34</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E47" s="49"/>
+        <v>463</v>
+      </c>
+      <c r="E47" s="48"/>
       <c r="F47" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>19</v>
@@ -4890,51 +4888,51 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M47" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N47" s="25"/>
     </row>
-    <row r="48" spans="2:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="30">
+    <row r="48" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="29">
         <v>35</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="45"/>
+      <c r="D48" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="30" t="s">
+      <c r="E48" s="48"/>
+      <c r="F48" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="30" t="s">
+      <c r="H48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30" t="s">
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="30"/>
+      <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>36</v>
       </c>
-      <c r="C49" s="46"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="49"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="21" t="s">
         <v>100</v>
       </c>
@@ -4949,23 +4947,23 @@
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="32" t="s">
-        <v>471</v>
+      <c r="L49" s="31" t="s">
+        <v>469</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>433</v>
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="2:14" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>37</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="E50" s="50"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="21" t="s">
         <v>435</v>
       </c>
@@ -4976,12 +4974,12 @@
         <v>19</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>433</v>
@@ -4992,13 +4990,13 @@
       <c r="B51" s="25">
         <v>38</v>
       </c>
-      <c r="C51" s="53" t="s">
-        <v>399</v>
+      <c r="C51" s="52" t="s">
+        <v>398</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="54" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="25" t="s">
@@ -5023,11 +5021,11 @@
       <c r="B52" s="25">
         <v>39</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="56"/>
+      <c r="E52" s="55"/>
       <c r="F52" s="26" t="s">
         <v>104</v>
       </c>
@@ -5050,11 +5048,11 @@
       <c r="B53" s="25">
         <v>40</v>
       </c>
-      <c r="C53" s="53"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="56"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="25" t="s">
         <v>105</v>
       </c>
@@ -5077,11 +5075,11 @@
       <c r="B54" s="25">
         <v>41</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="25" t="s">
         <v>106</v>
       </c>
@@ -5104,11 +5102,11 @@
       <c r="B55" s="25">
         <v>42</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="56"/>
+      <c r="E55" s="55"/>
       <c r="F55" s="25" t="s">
         <v>108</v>
       </c>
@@ -5131,11 +5129,11 @@
       <c r="B56" s="25">
         <v>43</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="56"/>
+      <c r="E56" s="55"/>
       <c r="F56" s="25" t="s">
         <v>110</v>
       </c>
@@ -5158,11 +5156,11 @@
       <c r="B57" s="25">
         <v>44</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="57"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="25" t="s">
         <v>112</v>
       </c>
@@ -5185,13 +5183,13 @@
       <c r="B58" s="2">
         <v>45</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="53" t="s">
         <v>114</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="57" t="s">
         <v>116</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -5220,11 +5218,11 @@
       <c r="B59" s="2">
         <v>46</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="45"/>
       <c r="F59" s="12" t="s">
         <v>123</v>
       </c>
@@ -5251,11 +5249,11 @@
       <c r="B60" s="2">
         <v>47</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="14" t="s">
         <v>125</v>
       </c>
@@ -5278,11 +5276,11 @@
       <c r="B61" s="2">
         <v>48</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="46"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="14" t="s">
         <v>127</v>
       </c>
@@ -5305,11 +5303,11 @@
       <c r="B62" s="2">
         <v>49</v>
       </c>
-      <c r="C62" s="54"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="46"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="14" t="s">
         <v>129</v>
       </c>
@@ -5332,13 +5330,13 @@
       <c r="B63" s="2">
         <v>50</v>
       </c>
-      <c r="C63" s="54"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="45"/>
       <c r="F63" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5359,11 +5357,11 @@
       <c r="B64" s="2">
         <v>51</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="45"/>
       <c r="F64" s="14" t="s">
         <v>132</v>
       </c>
@@ -5386,11 +5384,11 @@
       <c r="B65" s="2">
         <v>52</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="14" t="s">
         <v>35</v>
       </c>
@@ -5411,21 +5409,21 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
-      <c r="C66" s="54"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E66" s="46"/>
+        <v>483</v>
+      </c>
+      <c r="E66" s="45"/>
       <c r="F66" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="G66" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="G66" s="22" t="s">
-        <v>402</v>
-      </c>
       <c r="H66" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>397</v>
@@ -5434,7 +5432,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="2"/>
       <c r="M66" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N66" s="2"/>
     </row>
@@ -5442,11 +5440,11 @@
       <c r="B67" s="2">
         <v>53</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="9" t="s">
         <v>136</v>
       </c>
@@ -5477,13 +5475,13 @@
       <c r="B68" s="2">
         <v>54</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="44" t="s">
         <v>272</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="41" t="s">
         <v>274</v>
       </c>
       <c r="F68" s="21" t="s">
@@ -5512,11 +5510,11 @@
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="51"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E69" s="43"/>
+      <c r="E69" s="42"/>
       <c r="F69" s="21" t="s">
         <v>291</v>
       </c>
@@ -5539,11 +5537,11 @@
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="44"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="21" t="s">
         <v>295</v>
       </c>
@@ -5566,13 +5564,13 @@
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="41" t="s">
         <v>301</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="41" t="s">
         <v>303</v>
       </c>
       <c r="F71" s="21" t="s">
@@ -5599,11 +5597,11 @@
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="43"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="43"/>
+      <c r="E72" s="42"/>
       <c r="F72" s="21" t="s">
         <v>307</v>
       </c>
@@ -5628,11 +5626,11 @@
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="43"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="43"/>
+      <c r="E73" s="42"/>
       <c r="F73" s="21" t="s">
         <v>309</v>
       </c>
@@ -5657,11 +5655,11 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="43"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="43"/>
+      <c r="E74" s="42"/>
       <c r="F74" s="21" t="s">
         <v>311</v>
       </c>
@@ -5686,11 +5684,11 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="43"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="43"/>
+      <c r="E75" s="42"/>
       <c r="F75" s="21" t="s">
         <v>316</v>
       </c>
@@ -5715,11 +5713,11 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="43"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="43"/>
+      <c r="E76" s="42"/>
       <c r="F76" s="21" t="s">
         <v>317</v>
       </c>
@@ -5744,11 +5742,11 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="43"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E77" s="43"/>
+      <c r="E77" s="42"/>
       <c r="F77" s="21" t="s">
         <v>321</v>
       </c>
@@ -5773,11 +5771,11 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="44"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="21" t="s">
         <v>323</v>
       </c>
@@ -5802,13 +5800,13 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="41" t="s">
         <v>333</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="E79" s="41" t="s">
         <v>336</v>
       </c>
       <c r="F79" s="21" t="s">
@@ -5835,11 +5833,11 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="43"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E80" s="43"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="21" t="s">
         <v>341</v>
       </c>
@@ -5864,11 +5862,11 @@
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="43"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E81" s="43"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="21" t="s">
         <v>348</v>
       </c>
@@ -5893,13 +5891,13 @@
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="43"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="43"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>352</v>
@@ -5922,11 +5920,11 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="43"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="43"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="21" t="s">
         <v>355</v>
       </c>
@@ -5951,11 +5949,11 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="43"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E84" s="43"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="21" t="s">
         <v>357</v>
       </c>
@@ -5980,11 +5978,11 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="43"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="43"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="21" t="s">
         <v>362</v>
       </c>
@@ -6009,11 +6007,11 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="44"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="21" t="s">
         <v>361</v>
       </c>
@@ -6038,13 +6036,13 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="41" t="s">
         <v>363</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="41" t="s">
         <v>365</v>
       </c>
       <c r="F87" s="21" t="s">
@@ -6071,11 +6069,11 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="43"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E88" s="43"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="21" t="s">
         <v>371</v>
       </c>
@@ -6100,11 +6098,11 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="43"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="43"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="21" t="s">
         <v>376</v>
       </c>
@@ -6129,11 +6127,11 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="43"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E90" s="43"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="21" t="s">
         <v>380</v>
       </c>
@@ -6158,11 +6156,11 @@
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="43"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="43"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="21" t="s">
         <v>387</v>
       </c>
@@ -6187,11 +6185,11 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="43"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="43"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="21" t="s">
         <v>386</v>
       </c>
@@ -6216,11 +6214,11 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="43"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="43"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="21" t="s">
         <v>385</v>
       </c>
@@ -6245,11 +6243,11 @@
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="43"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E94" s="43"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="21" t="s">
         <v>390</v>
       </c>
@@ -6305,13 +6303,13 @@
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="32" t="s">
         <v>444</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="32" t="s">
         <v>445</v>
       </c>
       <c r="F96" s="21" t="s">
@@ -6336,11 +6334,11 @@
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="33"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="E97" s="33"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="21" t="s">
         <v>451</v>
       </c>
@@ -6363,11 +6361,11 @@
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="33"/>
+      <c r="C98" s="32"/>
       <c r="D98" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="E98" s="33"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="21" t="s">
         <v>454</v>
       </c>
@@ -6390,11 +6388,11 @@
     </row>
     <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="33"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E99" s="33"/>
+      <c r="E99" s="32"/>
       <c r="F99" s="21" t="s">
         <v>311</v>
       </c>
@@ -6417,11 +6415,11 @@
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="33"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E100" s="33"/>
+      <c r="E100" s="32"/>
       <c r="F100" s="21" t="s">
         <v>456</v>
       </c>
@@ -6444,11 +6442,11 @@
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="33"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="E101" s="33"/>
+      <c r="E101" s="32"/>
       <c r="F101" s="21" t="s">
         <v>458</v>
       </c>
@@ -6471,11 +6469,11 @@
     </row>
     <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="33"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="E102" s="33"/>
+      <c r="E102" s="32"/>
       <c r="F102" s="21" t="s">
         <v>459</v>
       </c>
@@ -6498,6 +6496,8 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="E28:E43"/>
     <mergeCell ref="E79:E86"/>
     <mergeCell ref="C44:C50"/>
     <mergeCell ref="E44:E50"/>
@@ -6511,8 +6511,6 @@
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="C96:C102"/>
     <mergeCell ref="E96:E102"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="E28:E42"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -6540,13 +6538,13 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -7104,11 +7102,11 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.109375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7246,7 +7244,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -1841,17 +1841,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/{folder}/downloadFile.do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-folder:文件夹名称
-File:只传递filename(防止乱码,所以在对象里传)
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>x</t>
     </r>
@@ -2589,6 +2578,16 @@
   </si>
   <si>
     <t>{"success":true,"msg":null,"data":{"AFDD":[{"value":"7"}],"XCBLDD":[{"value":"77"}],"XWBLDD":[{"value":"77"}],"TCDD":[{"value":"7"}],"CLLX":[{"value":"打牌"}],"ZFR":[{"aj_zfr":"7","aj_zfrz":"77"},{"aj_zfr":"77","aj_zfrz":"7"}]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/downloadFile.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">print:true表示是显示PDF在url后
+File:只传递filename(防止乱码,所以在对象里传)
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2812,15 +2811,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2843,6 +2833,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3161,6 +3160,44 @@
         <a:xfrm>
           <a:off x="220980" y="5638800"/>
           <a:ext cx="4419983" cy="2019475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15689</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="7810500"/>
+          <a:ext cx="5174429" cy="2613887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3526,17 +3563,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3593,13 +3630,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3626,11 +3663,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3655,11 +3692,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3684,11 +3721,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3711,11 +3748,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3738,11 +3775,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3767,11 +3804,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -3796,11 +3833,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -3827,11 +3864,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3858,13 +3895,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3891,11 +3928,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3920,11 +3957,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3949,11 +3986,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3976,11 +4013,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4003,13 +4040,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4036,11 +4073,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4065,16 +4102,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -4094,11 +4131,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4121,11 +4158,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4148,13 +4185,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="35" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4181,11 +4218,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4210,11 +4247,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4239,11 +4276,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4266,11 +4303,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4293,13 +4330,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4328,11 +4365,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4343,7 +4380,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4359,11 +4396,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4390,16 +4427,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4421,16 +4458,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4441,7 +4478,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4452,16 +4489,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4483,16 +4520,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4514,16 +4551,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4543,16 +4580,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="34"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4563,7 +4600,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4572,11 +4609,11 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="34"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
@@ -4592,7 +4629,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>271</v>
@@ -4601,11 +4638,11 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="9" t="s">
         <v>393</v>
       </c>
@@ -4616,12 +4653,12 @@
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>395</v>
@@ -4630,16 +4667,16 @@
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E39" s="34"/>
+        <v>405</v>
+      </c>
+      <c r="E39" s="42"/>
       <c r="F39" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
@@ -4650,7 +4687,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>332</v>
@@ -4659,104 +4696,104 @@
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="35"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>474</v>
-      </c>
       <c r="H43" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>42</v>
@@ -4764,17 +4801,17 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>284</v>
@@ -4786,20 +4823,20 @@
         <v>399</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>287</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>289</v>
@@ -4814,10 +4851,10 @@
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>286</v>
@@ -4828,7 +4865,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>289</v>
@@ -4841,7 +4878,7 @@
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="21" t="s">
@@ -4852,15 +4889,15 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N46" s="2"/>
     </row>
@@ -4870,14 +4907,14 @@
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>19</v>
@@ -4888,7 +4925,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M47" s="25" t="s">
         <v>21</v>
@@ -4901,7 +4938,7 @@
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="29" t="s">
@@ -4930,14 +4967,14 @@
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>19</v>
@@ -4948,10 +4985,10 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
     </row>
@@ -4961,28 +4998,28 @@
       </c>
       <c r="C50" s="46"/>
       <c r="D50" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E50" s="49"/>
       <c r="F50" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N50" s="2"/>
     </row>
@@ -5336,7 +5373,7 @@
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5413,17 +5450,17 @@
       <c r="B66" s="2"/>
       <c r="C66" s="53"/>
       <c r="D66" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="21" t="s">
-        <v>400</v>
+        <v>484</v>
       </c>
       <c r="G66" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>403</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>397</v>
@@ -5432,7 +5469,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="2"/>
       <c r="M66" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N66" s="2"/>
     </row>
@@ -5481,7 +5518,7 @@
       <c r="D68" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="38" t="s">
         <v>274</v>
       </c>
       <c r="F68" s="21" t="s">
@@ -5514,7 +5551,7 @@
       <c r="D69" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E69" s="42"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="21" t="s">
         <v>291</v>
       </c>
@@ -5541,7 +5578,7 @@
       <c r="D70" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="43"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="21" t="s">
         <v>295</v>
       </c>
@@ -5564,13 +5601,13 @@
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="38" t="s">
         <v>301</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="38" t="s">
         <v>303</v>
       </c>
       <c r="F71" s="21" t="s">
@@ -5597,11 +5634,11 @@
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="42"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="21" t="s">
         <v>307</v>
       </c>
@@ -5626,11 +5663,11 @@
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="42"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="42"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="21" t="s">
         <v>309</v>
       </c>
@@ -5655,11 +5692,11 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="42"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="21" t="s">
         <v>311</v>
       </c>
@@ -5684,11 +5721,11 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="42"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="42"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="21" t="s">
         <v>316</v>
       </c>
@@ -5713,11 +5750,11 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="42"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="42"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="21" t="s">
         <v>317</v>
       </c>
@@ -5742,11 +5779,11 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="42"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E77" s="42"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="21" t="s">
         <v>321</v>
       </c>
@@ -5771,11 +5808,11 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="43"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E78" s="43"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="21" t="s">
         <v>323</v>
       </c>
@@ -5800,13 +5837,13 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="38" t="s">
         <v>333</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="38" t="s">
         <v>336</v>
       </c>
       <c r="F79" s="21" t="s">
@@ -5833,11 +5870,11 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="42"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E80" s="42"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="21" t="s">
         <v>341</v>
       </c>
@@ -5862,11 +5899,11 @@
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="42"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="21" t="s">
         <v>348</v>
       </c>
@@ -5891,13 +5928,13 @@
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="42"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="42"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>352</v>
@@ -5920,11 +5957,11 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="42"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="42"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="21" t="s">
         <v>355</v>
       </c>
@@ -5949,11 +5986,11 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="42"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E84" s="42"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="21" t="s">
         <v>357</v>
       </c>
@@ -5978,11 +6015,11 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="42"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="21" t="s">
         <v>362</v>
       </c>
@@ -6007,11 +6044,11 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="43"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E86" s="43"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="21" t="s">
         <v>361</v>
       </c>
@@ -6036,13 +6073,13 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="38" t="s">
         <v>363</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="38" t="s">
         <v>365</v>
       </c>
       <c r="F87" s="21" t="s">
@@ -6069,11 +6106,11 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="42"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E88" s="42"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="21" t="s">
         <v>371</v>
       </c>
@@ -6084,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
@@ -6098,11 +6135,11 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="42"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="42"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="21" t="s">
         <v>376</v>
       </c>
@@ -6127,11 +6164,11 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="42"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="21" t="s">
         <v>380</v>
       </c>
@@ -6156,11 +6193,11 @@
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="42"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="42"/>
+      <c r="E91" s="39"/>
       <c r="F91" s="21" t="s">
         <v>387</v>
       </c>
@@ -6185,11 +6222,11 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="42"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="21" t="s">
         <v>386</v>
       </c>
@@ -6214,11 +6251,11 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="42"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="21" t="s">
         <v>385</v>
       </c>
@@ -6243,11 +6280,11 @@
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="42"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="21" t="s">
         <v>390</v>
       </c>
@@ -6304,25 +6341,25 @@
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
       <c r="C96" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E96" s="32" t="s">
+      <c r="G96" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="F96" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="G96" s="21" t="s">
+      <c r="H96" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="21" t="s">
         <v>447</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>449</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
@@ -6336,20 +6373,20 @@
       <c r="B97" s="2"/>
       <c r="C97" s="32"/>
       <c r="D97" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
@@ -6363,20 +6400,20 @@
       <c r="B98" s="2"/>
       <c r="C98" s="32"/>
       <c r="D98" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
@@ -6397,13 +6434,13 @@
         <v>311</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
@@ -6421,10 +6458,10 @@
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
@@ -6444,14 +6481,14 @@
       <c r="B101" s="2"/>
       <c r="C101" s="32"/>
       <c r="D101" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
@@ -6471,14 +6508,14 @@
       <c r="B102" s="2"/>
       <c r="C102" s="32"/>
       <c r="D102" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H102" s="21" t="s">
         <v>19</v>
@@ -6496,8 +6533,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="E28:E43"/>
     <mergeCell ref="E79:E86"/>
     <mergeCell ref="C44:C50"/>
     <mergeCell ref="E44:E50"/>
@@ -6523,6 +6558,8 @@
     <mergeCell ref="C87:C94"/>
     <mergeCell ref="E87:E94"/>
     <mergeCell ref="C79:C86"/>
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="E28:E43"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6534,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -7240,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="507">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -2588,6 +2588,176 @@
     <t xml:space="preserve">print:true表示是显示PDF在url后
 File:只传递filename(防止乱码,所以在对象里传)
 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询通讯录(无分页)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AddressList&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除通讯录信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AddressList&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单位信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{id}/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新通讯录  有字段就更新无字段就不更新，防止更新后出现null结果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": [
+        {
+            "id": 2044,
+            "name": "杰尼龟",
+            "position": "厅长",
+            "mobile": "188888",
+            "telephone": "0571-000000",
+            "qq": null,
+            "state": null,
+            "edituser": null,
+            "edittime": "2015-06-19 16:43:12",
+            "isdelete": "否",
+            "dwid": 10
+        }
+    ]
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": "新增成功",
+    "data": {
+        "id": 2040,
+        "name": "皮卡丘",
+        "position": null,
+        "mobile": null,
+        "telephone": "1333333333",
+        "qq": null,
+        "state": null,
+        "edituser": null,
+        "edittime": "2015-06-19 17:01:03",
+        "isdelete": null,
+        "dwid": 10
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出单位的上下级关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryByTier.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>json数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": [
+        {
+            "id": "10",
+            "text": "舟山市公路管理局",
+            "state": {
+                "opened": "true"
+            },
+            "parent": "#"
+        },
+        {
+            "id": "1010",
+            "text": "舟山跨海大桥超限运输检测站",
+            "parent": "10"
+        },
+        {
+            "id": "1020",
+            "text": "朱家尖检测站",
+            "parent": "10"
+        },
+        {
+            "id": "1030",
+            "text": "定海区公路管理局",
+            "parent": "10"
+        },
+        {
+            "id": "1040",
+            "text": "普陀区公路管理局",
+            "parent": "10"
+        },
+        {
+            "id": "1050",
+            "text": "岱山县公路管理局",
+            "parent": "10"
+        },
+        {
+            "id": "1060",
+            "text": "嵊泗县公路管理局",
+            "parent": "10"
+        },
+        {
+            "id": "106010",
+            "text": "皮卡丘局长",
+            "parent": "1060"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3206,6 +3376,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8070</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="10241280"/>
+          <a:ext cx="5189670" cy="3025402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3538,10 +3746,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N102"/>
+  <dimension ref="B1:N109"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -5791,7 +6001,7 @@
         <v>306</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>52</v>
@@ -5808,89 +6018,89 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="40"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" s="40"/>
+        <v>500</v>
+      </c>
+      <c r="E78" s="39"/>
       <c r="F78" s="21" t="s">
-        <v>323</v>
+        <v>501</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>306</v>
+        <v>502</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>52</v>
+        <v>504</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>356</v>
+        <v>505</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="38" t="s">
-        <v>333</v>
-      </c>
+      <c r="C79" s="40"/>
       <c r="D79" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>336</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E79" s="40"/>
       <c r="F79" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="21" t="s">
-        <v>339</v>
+      <c r="I79" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="39"/>
+      <c r="C80" s="38" t="s">
+        <v>333</v>
+      </c>
       <c r="D80" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E80" s="39"/>
+        <v>335</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>336</v>
+      </c>
       <c r="F80" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M80" s="21" t="s">
         <v>334</v>
@@ -5901,25 +6111,25 @@
       <c r="B81" s="2"/>
       <c r="C81" s="39"/>
       <c r="D81" s="21" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M81" s="21" t="s">
         <v>334</v>
@@ -5930,25 +6140,25 @@
       <c r="B82" s="2"/>
       <c r="C82" s="39"/>
       <c r="D82" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M82" s="21" t="s">
         <v>334</v>
@@ -5959,25 +6169,25 @@
       <c r="B83" s="2"/>
       <c r="C83" s="39"/>
       <c r="D83" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>338</v>
+        <v>423</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="14" t="s">
-        <v>33</v>
+      <c r="I83" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M83" s="21" t="s">
         <v>334</v>
@@ -5988,14 +6198,14 @@
       <c r="B84" s="2"/>
       <c r="C84" s="39"/>
       <c r="D84" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
@@ -6017,20 +6227,20 @@
       <c r="B85" s="2"/>
       <c r="C85" s="39"/>
       <c r="D85" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
@@ -6044,13 +6254,13 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E86" s="40"/>
+        <v>358</v>
+      </c>
+      <c r="E86" s="39"/>
       <c r="F86" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>344</v>
@@ -6073,60 +6283,60 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="38" t="s">
-        <v>363</v>
-      </c>
+      <c r="C87" s="40"/>
       <c r="D87" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>365</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E87" s="40"/>
       <c r="F87" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="N87" s="18"/>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="39"/>
+      <c r="C88" s="38" t="s">
+        <v>363</v>
+      </c>
       <c r="D88" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E88" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>365</v>
+      </c>
       <c r="F88" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="G88" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M88" s="21" t="s">
         <v>370</v>
@@ -6137,25 +6347,25 @@
       <c r="B89" s="2"/>
       <c r="C89" s="39"/>
       <c r="D89" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="G89" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>368</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="14" t="s">
-        <v>377</v>
+      <c r="I89" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>370</v>
@@ -6166,11 +6376,11 @@
       <c r="B90" s="2"/>
       <c r="C90" s="39"/>
       <c r="D90" s="21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>368</v>
@@ -6178,13 +6388,13 @@
       <c r="H90" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="21" t="s">
-        <v>368</v>
+      <c r="I90" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M90" s="21" t="s">
         <v>370</v>
@@ -6195,25 +6405,25 @@
       <c r="B91" s="2"/>
       <c r="C91" s="39"/>
       <c r="D91" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E91" s="39"/>
       <c r="F91" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="14" t="s">
-        <v>33</v>
+      <c r="I91" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>370</v>
@@ -6224,14 +6434,14 @@
       <c r="B92" s="2"/>
       <c r="C92" s="39"/>
       <c r="D92" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
@@ -6245,7 +6455,7 @@
         <v>329</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N92" s="18"/>
     </row>
@@ -6253,25 +6463,25 @@
       <c r="B93" s="2"/>
       <c r="C93" s="39"/>
       <c r="D93" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E93" s="39"/>
       <c r="F93" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>329</v>
+        <v>499</v>
       </c>
       <c r="M93" s="21" t="s">
         <v>388</v>
@@ -6282,11 +6492,11 @@
       <c r="B94" s="2"/>
       <c r="C94" s="39"/>
       <c r="D94" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>368</v>
@@ -6307,77 +6517,79 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="2">
+    <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="2"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E95" s="39"/>
+      <c r="F95" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M95" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N95" s="18"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B96" s="2">
         <v>55</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E96" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F96" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" s="12" t="s">
+      <c r="G96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="17" t="s">
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="2"/>
-      <c r="C96" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N96" s="18"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="32"/>
+      <c r="C97" s="32" t="s">
+        <v>442</v>
+      </c>
       <c r="D97" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E97" s="32"/>
+        <v>448</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>443</v>
+      </c>
       <c r="F97" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>445</v>
@@ -6386,7 +6598,7 @@
         <v>19</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
@@ -6400,20 +6612,20 @@
       <c r="B98" s="2"/>
       <c r="C98" s="32"/>
       <c r="D98" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
@@ -6427,24 +6639,26 @@
       <c r="B99" s="2"/>
       <c r="C99" s="32"/>
       <c r="D99" s="21" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="21" t="s">
-        <v>311</v>
+        <v>452</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
-      <c r="L99" s="22"/>
+      <c r="L99" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="M99" s="21" t="s">
         <v>298</v>
       </c>
@@ -6454,20 +6668,20 @@
       <c r="B100" s="2"/>
       <c r="C100" s="32"/>
       <c r="D100" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="21" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="14" t="s">
-        <v>33</v>
+      <c r="I100" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="21"/>
@@ -6481,24 +6695,26 @@
       <c r="B101" s="2"/>
       <c r="C101" s="32"/>
       <c r="D101" s="21" t="s">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="21"/>
-      <c r="L101" s="22"/>
+      <c r="L101" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="M101" s="21" t="s">
         <v>298</v>
       </c>
@@ -6508,11 +6724,11 @@
       <c r="B102" s="2"/>
       <c r="C102" s="32"/>
       <c r="D102" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>445</v>
@@ -6525,27 +6741,240 @@
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="21"/>
-      <c r="L102" s="22"/>
+      <c r="L102" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="M102" s="21" t="s">
         <v>298</v>
       </c>
       <c r="N102" s="18"/>
     </row>
+    <row r="103" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="2"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E103" s="32"/>
+      <c r="F103" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N103" s="18"/>
+    </row>
+    <row r="104" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="2"/>
+      <c r="C104" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M104" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N104" s="18"/>
+    </row>
+    <row r="105" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="2"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E105" s="32"/>
+      <c r="F105" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="M105" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="2"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E106" s="32"/>
+      <c r="F106" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M106" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="2"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" s="32"/>
+      <c r="F107" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M107" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N107" s="18"/>
+    </row>
+    <row r="108" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="2"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E108" s="32"/>
+      <c r="F108" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M108" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N108" s="18"/>
+    </row>
+    <row r="109" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="2"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E109" s="32"/>
+      <c r="F109" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H109" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M109" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N109" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E79:E86"/>
+  <mergeCells count="29">
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="E28:E43"/>
+    <mergeCell ref="E80:E87"/>
     <mergeCell ref="C44:C50"/>
     <mergeCell ref="E44:E50"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="E71:E79"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="E68:E70"/>
     <mergeCell ref="C51:C57"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="E51:E57"/>
     <mergeCell ref="E58:E67"/>
-    <mergeCell ref="C96:C102"/>
-    <mergeCell ref="E96:E102"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="E97:E103"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -6555,11 +6984,9 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="E28:E43"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="C80:C87"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7277,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="511">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -2758,6 +2758,24 @@
   </si>
   <si>
     <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出月报表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{exportDate}/exportYbbExcel.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDate
+格式如下：
+201506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3746,12 +3764,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N109"/>
+  <dimension ref="B1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4:C109"/>
+      <selection pane="topRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -4991,290 +5009,288 @@
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="43"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="E43" s="43"/>
+        <v>507</v>
+      </c>
+      <c r="E43" s="42"/>
       <c r="F43" s="9" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>424</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="24"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="N43" s="17"/>
-    </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="2"/>
-      <c r="C44" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="M44" s="23" t="s">
-        <v>289</v>
       </c>
       <c r="N44" s="17"/>
     </row>
     <row r="45" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="44" t="s">
+        <v>437</v>
+      </c>
       <c r="D45" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="48"/>
+        <v>284</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>97</v>
+      </c>
       <c r="F45" s="21" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="K45" s="21" t="s">
+        <v>483</v>
+      </c>
       <c r="L45" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>289</v>
       </c>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="2">
-        <v>33</v>
-      </c>
+    <row r="46" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
       <c r="C46" s="45"/>
       <c r="D46" s="21" t="s">
-        <v>438</v>
+        <v>285</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="22"/>
+        <v>417</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="H46" s="21" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="25">
-        <v>34</v>
+        <v>288</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>33</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="21" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="25">
+        <v>34</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G48" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="21" t="s">
+      <c r="H48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="22" t="s">
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M48" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="25"/>
-    </row>
-    <row r="48" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="29">
+      <c r="N48" s="25"/>
+    </row>
+    <row r="49" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="29">
         <v>35</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="29" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="29" t="s">
+      <c r="E49" s="48"/>
+      <c r="F49" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G49" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="29" t="s">
+      <c r="H49" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29" t="s">
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="2">
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
         <v>36</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="21" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="21" t="s">
+      <c r="E50" s="48"/>
+      <c r="F50" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="21" t="s">
+      <c r="H50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="2">
-        <v>37</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="27" t="s">
-        <v>460</v>
+      <c r="L50" s="31" t="s">
+        <v>467</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>431</v>
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B51" s="25">
-        <v>38</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="25"/>
+    <row r="51" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
+        <v>37</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
-        <v>39</v>
-      </c>
-      <c r="C52" s="52"/>
+        <v>38</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>398</v>
+      </c>
       <c r="D52" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
@@ -5293,15 +5309,15 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="25" t="s">
-        <v>279</v>
+      <c r="D53" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="E53" s="55"/>
-      <c r="F53" s="25" t="s">
-        <v>105</v>
+      <c r="F53" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
@@ -5320,22 +5336,22 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -5347,15 +5363,15 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="52"/>
       <c r="D55" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
@@ -5374,22 +5390,22 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="25" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="25" t="s">
-        <v>20</v>
+      <c r="I56" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -5401,22 +5417,22 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="25">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="56"/>
+        <v>109</v>
+      </c>
+      <c r="E57" s="55"/>
       <c r="F57" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -5426,52 +5442,48 @@
       </c>
       <c r="N57" s="25"/>
     </row>
-    <row r="58" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="25">
+        <v>44</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="F58" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="25"/>
+    </row>
+    <row r="59" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
         <v>45</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C59" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E59" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F59" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="2">
-        <v>46</v>
-      </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>118</v>
@@ -5482,37 +5494,41 @@
       <c r="I59" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K59" s="12"/>
+      <c r="K59" s="13"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="14" t="s">
-        <v>124</v>
+      <c r="D60" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="E60" s="45"/>
-      <c r="F60" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="14" t="s">
+      <c r="F60" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="J60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K60" s="12"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
         <v>21</v>
@@ -5521,15 +5537,15 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14" t="s">
@@ -5548,15 +5564,15 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="53"/>
       <c r="D62" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="45"/>
       <c r="F62" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
@@ -5575,15 +5591,15 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="14" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5602,22 +5618,22 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="53"/>
       <c r="D64" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="14" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -5629,24 +5645,22 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="53"/>
       <c r="D65" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G65" s="14"/>
       <c r="H65" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -5656,215 +5670,215 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="2"/>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="2">
+        <v>52</v>
+      </c>
       <c r="C66" s="53"/>
-      <c r="D66" s="21" t="s">
-        <v>481</v>
+      <c r="D66" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E66" s="45"/>
-      <c r="F66" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>397</v>
+      <c r="F66" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="23" t="s">
+      <c r="M66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="2"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="2">
-        <v>53</v>
-      </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N67" s="18">
-        <v>42149</v>
-      </c>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
+        <v>53</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N68" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
         <v>54</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C69" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D69" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E69" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F69" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G69" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H68" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="21" t="s">
+      <c r="H69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="21" t="s">
+      <c r="J69" s="9"/>
+      <c r="K69" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="L68" s="21" t="s">
+      <c r="L69" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="M68" s="21" t="s">
+      <c r="M69" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="2"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="M69" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="N69" s="18"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="51"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="40"/>
+        <v>290</v>
+      </c>
+      <c r="E70" s="39"/>
       <c r="F70" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N70" s="18"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="38" t="s">
-        <v>301</v>
-      </c>
+      <c r="C71" s="51"/>
       <c r="D71" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E71" s="40"/>
       <c r="F71" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>305</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G71" s="21"/>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="39"/>
+      <c r="C72" s="38" t="s">
+        <v>301</v>
+      </c>
       <c r="D72" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E72" s="39"/>
+        <v>302</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>303</v>
+      </c>
       <c r="F72" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G72" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
-      <c r="L72" s="22" t="s">
-        <v>326</v>
+      <c r="L72" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="M72" s="21" t="s">
         <v>283</v>
@@ -5875,25 +5889,25 @@
       <c r="B73" s="2"/>
       <c r="C73" s="39"/>
       <c r="D73" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E73" s="39"/>
       <c r="F73" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M73" s="21" t="s">
         <v>283</v>
@@ -5904,25 +5918,25 @@
       <c r="B74" s="2"/>
       <c r="C74" s="39"/>
       <c r="D74" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M74" s="21" t="s">
         <v>283</v>
@@ -5933,25 +5947,25 @@
       <c r="B75" s="2"/>
       <c r="C75" s="39"/>
       <c r="D75" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="14" t="s">
-        <v>33</v>
+      <c r="I75" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>283</v>
@@ -5962,14 +5976,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="39"/>
       <c r="D76" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
@@ -5980,7 +5994,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>283</v>
@@ -5991,20 +6005,20 @@
       <c r="B77" s="2"/>
       <c r="C77" s="39"/>
       <c r="D77" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
@@ -6020,116 +6034,116 @@
       <c r="B78" s="2"/>
       <c r="C78" s="39"/>
       <c r="D78" s="21" t="s">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="21" t="s">
-        <v>501</v>
+        <v>321</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>502</v>
+        <v>306</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>503</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>505</v>
+        <v>329</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E79" s="40"/>
+        <v>500</v>
+      </c>
+      <c r="E79" s="39"/>
       <c r="F79" s="21" t="s">
-        <v>323</v>
+        <v>501</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>306</v>
+        <v>502</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>52</v>
+        <v>504</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>356</v>
+        <v>505</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="38" t="s">
-        <v>333</v>
-      </c>
+      <c r="C80" s="40"/>
       <c r="D80" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>336</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E80" s="40"/>
       <c r="F80" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="21" t="s">
-        <v>339</v>
+      <c r="I80" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="39"/>
+      <c r="C81" s="38" t="s">
+        <v>333</v>
+      </c>
       <c r="D81" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E81" s="39"/>
+        <v>335</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>336</v>
+      </c>
       <c r="F81" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M81" s="21" t="s">
         <v>334</v>
@@ -6140,25 +6154,25 @@
       <c r="B82" s="2"/>
       <c r="C82" s="39"/>
       <c r="D82" s="21" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M82" s="21" t="s">
         <v>334</v>
@@ -6169,25 +6183,25 @@
       <c r="B83" s="2"/>
       <c r="C83" s="39"/>
       <c r="D83" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M83" s="21" t="s">
         <v>334</v>
@@ -6198,25 +6212,25 @@
       <c r="B84" s="2"/>
       <c r="C84" s="39"/>
       <c r="D84" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G84" s="21" t="s">
-        <v>338</v>
+        <v>423</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="14" t="s">
-        <v>33</v>
+      <c r="I84" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M84" s="21" t="s">
         <v>334</v>
@@ -6227,14 +6241,14 @@
       <c r="B85" s="2"/>
       <c r="C85" s="39"/>
       <c r="D85" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
@@ -6256,20 +6270,20 @@
       <c r="B86" s="2"/>
       <c r="C86" s="39"/>
       <c r="D86" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
@@ -6283,13 +6297,13 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="40"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E87" s="40"/>
+        <v>358</v>
+      </c>
+      <c r="E87" s="39"/>
       <c r="F87" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>344</v>
@@ -6312,60 +6326,60 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="38" t="s">
-        <v>363</v>
-      </c>
+      <c r="C88" s="40"/>
       <c r="D88" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>365</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E88" s="40"/>
       <c r="F88" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="N88" s="18"/>
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="39"/>
+      <c r="C89" s="38" t="s">
+        <v>363</v>
+      </c>
       <c r="D89" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E89" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>365</v>
+      </c>
       <c r="F89" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="G89" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>370</v>
@@ -6376,25 +6390,25 @@
       <c r="B90" s="2"/>
       <c r="C90" s="39"/>
       <c r="D90" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="G90" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>368</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>377</v>
+      <c r="I90" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M90" s="21" t="s">
         <v>370</v>
@@ -6405,11 +6419,11 @@
       <c r="B91" s="2"/>
       <c r="C91" s="39"/>
       <c r="D91" s="21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E91" s="39"/>
       <c r="F91" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>368</v>
@@ -6417,13 +6431,13 @@
       <c r="H91" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="21" t="s">
-        <v>368</v>
+      <c r="I91" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>370</v>
@@ -6434,25 +6448,25 @@
       <c r="B92" s="2"/>
       <c r="C92" s="39"/>
       <c r="D92" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="14" t="s">
-        <v>33</v>
+      <c r="I92" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="M92" s="21" t="s">
         <v>370</v>
@@ -6463,14 +6477,14 @@
       <c r="B93" s="2"/>
       <c r="C93" s="39"/>
       <c r="D93" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E93" s="39"/>
       <c r="F93" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
@@ -6481,10 +6495,10 @@
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N93" s="18"/>
     </row>
@@ -6492,25 +6506,25 @@
       <c r="B94" s="2"/>
       <c r="C94" s="39"/>
       <c r="D94" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22" t="s">
-        <v>329</v>
+        <v>499</v>
       </c>
       <c r="M94" s="21" t="s">
         <v>388</v>
@@ -6521,11 +6535,11 @@
       <c r="B95" s="2"/>
       <c r="C95" s="39"/>
       <c r="D95" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>368</v>
@@ -6539,84 +6553,86 @@
       <c r="J95" s="9"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M95" s="21" t="s">
         <v>388</v>
       </c>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B96" s="2">
+    <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="2"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E96" s="39"/>
+      <c r="F96" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M96" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N96" s="18"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B97" s="2">
         <v>55</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E97" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F97" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="12" t="s">
+      <c r="G97" s="12"/>
+      <c r="H97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="17" t="s">
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N96" s="2"/>
-    </row>
-    <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="2"/>
-      <c r="C97" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E97" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G97" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H97" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N97" s="18"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="32"/>
+      <c r="C98" s="32" t="s">
+        <v>442</v>
+      </c>
       <c r="D98" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E98" s="32"/>
+        <v>448</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>443</v>
+      </c>
       <c r="F98" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>445</v>
@@ -6625,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
@@ -6639,26 +6655,24 @@
       <c r="B99" s="2"/>
       <c r="C99" s="32"/>
       <c r="D99" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
-      <c r="L99" s="22" t="s">
-        <v>499</v>
-      </c>
+      <c r="L99" s="22"/>
       <c r="M99" s="21" t="s">
         <v>298</v>
       </c>
@@ -6668,24 +6682,26 @@
       <c r="B100" s="2"/>
       <c r="C100" s="32"/>
       <c r="D100" s="21" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="21" t="s">
-        <v>311</v>
+        <v>452</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="21"/>
-      <c r="L100" s="22"/>
+      <c r="L100" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="M100" s="21" t="s">
         <v>298</v>
       </c>
@@ -6695,26 +6711,24 @@
       <c r="B101" s="2"/>
       <c r="C101" s="32"/>
       <c r="D101" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="21" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I101" s="14" t="s">
-        <v>33</v>
+      <c r="I101" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="21"/>
-      <c r="L101" s="22" t="s">
-        <v>499</v>
-      </c>
+      <c r="L101" s="22"/>
       <c r="M101" s="21" t="s">
         <v>298</v>
       </c>
@@ -6724,20 +6738,20 @@
       <c r="B102" s="2"/>
       <c r="C102" s="32"/>
       <c r="D102" s="21" t="s">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H102" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="21"/>
@@ -6753,11 +6767,11 @@
       <c r="B103" s="2"/>
       <c r="C103" s="32"/>
       <c r="D103" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>445</v>
@@ -6780,46 +6794,46 @@
     </row>
     <row r="104" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-      <c r="C104" s="32" t="s">
-        <v>486</v>
-      </c>
+      <c r="C104" s="32"/>
       <c r="D104" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>443</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="E104" s="32"/>
       <c r="F104" s="21" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="H104" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="21" t="s">
-        <v>489</v>
+      <c r="I104" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M104" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N104" s="18"/>
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-      <c r="C105" s="32"/>
+      <c r="C105" s="32" t="s">
+        <v>486</v>
+      </c>
       <c r="D105" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E105" s="32"/>
+        <v>487</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>443</v>
+      </c>
       <c r="F105" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>488</v>
@@ -6828,12 +6842,12 @@
         <v>19</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M105" s="21" t="s">
         <v>283</v>
@@ -6844,25 +6858,25 @@
       <c r="B106" s="2"/>
       <c r="C106" s="32"/>
       <c r="D106" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H106" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M106" s="21" t="s">
         <v>283</v>
@@ -6873,20 +6887,20 @@
       <c r="B107" s="2"/>
       <c r="C107" s="32"/>
       <c r="D107" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="21" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H107" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="14" t="s">
-        <v>33</v>
+      <c r="I107" s="21" t="s">
+        <v>453</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="21"/>
@@ -6902,20 +6916,20 @@
       <c r="B108" s="2"/>
       <c r="C108" s="32"/>
       <c r="D108" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="21" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H108" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="21"/>
@@ -6931,11 +6945,11 @@
       <c r="B109" s="2"/>
       <c r="C109" s="32"/>
       <c r="D109" s="21" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>488</v>
@@ -6956,25 +6970,54 @@
       </c>
       <c r="N109" s="18"/>
     </row>
+    <row r="110" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="2"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M110" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="E28:E43"/>
-    <mergeCell ref="E80:E87"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="C71:C79"/>
-    <mergeCell ref="E71:E79"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="C28:C44"/>
+    <mergeCell ref="E28:E44"/>
+    <mergeCell ref="E81:E88"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="E59:E68"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="E98:E104"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -6984,9 +7027,9 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C88:C95"/>
-    <mergeCell ref="E88:E95"/>
-    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="C81:C88"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7704,7 +7747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="525">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -2769,13 +2769,79 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID查询报送配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bspzs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bspz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":[{"id":1,"dwid":10,"ybbjzsj":"30","cgbjzsj":"31","edittime":null,"edituser":null,"export_dwid":"1010,10,1020,1030,1040,1050,1060"},{"id":2,"dwid":1010,"ybbjzsj":"31","cgbjzsj":"26","edittime":null,"edituser":null,"export_dwid":"1010"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":"新增成功","data":{"id":2063,"dwid":null,"ybbjzsj":null,"cgbjzsj":null,"edittime":1435145788363,"edituser":null,"export_dwid":"10,1010,1020,1030"}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":"新增成功","data":{"id":2064,"dwid":null,"ybbjzsj":null,"cgbjzsj":null,"edittime":1435146293964,"edituser":"xxx","export_dwid":"10,1010,1020,1030"}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"id":2064,"dwid":null,"ybbjzsj":null,"cgbjzsj":null,"edittime":1435146293000,"edituser":"xxx","export_dwid":"10,1010,1020,1030"}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出抄告表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{exportDate}/exportCgbExcel.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>exportDate
 格式如下：
 201506</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>下载文件</t>
+    <t>exportDate
+格式如下：
+201506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryByDwiddo</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2996,22 +3062,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3021,15 +3078,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3072,6 +3120,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3206,44 +3272,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>473300</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>8285</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="2209800"/>
-          <a:ext cx="9922100" cy="7674005"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -3263,7 +3291,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3301,7 +3329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3339,7 +3367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3348,44 +3376,6 @@
         <a:xfrm>
           <a:off x="220980" y="5638800"/>
           <a:ext cx="4419983" cy="2019475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15689</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327660" y="7810500"/>
-          <a:ext cx="5174429" cy="2613887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3415,7 +3405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3424,6 +3414,82 @@
         <a:xfrm>
           <a:off x="5791200" y="10241280"/>
           <a:ext cx="5189670" cy="3025402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>541839</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>46416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8161020" y="2263140"/>
+          <a:ext cx="9449619" cy="8024556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129992</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403860" y="8168640"/>
+          <a:ext cx="5212532" cy="1722269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3764,12 +3830,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N110"/>
+  <dimension ref="B1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="C79" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="topRight" activeCell="I43" sqref="I43"/>
+      <selection pane="topRight" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3791,17 +3857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3858,13 +3924,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3891,11 +3957,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3920,11 +3986,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3949,11 +4015,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -3976,11 +4042,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -4003,11 +4069,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -4032,11 +4098,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -4061,11 +4127,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -4092,11 +4158,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -4123,13 +4189,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="55" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -4156,11 +4222,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -4185,11 +4251,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -4214,11 +4280,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -4241,11 +4307,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4268,13 +4334,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="54" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="55" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4301,11 +4367,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4330,11 +4396,11 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="7" t="s">
         <v>402</v>
       </c>
@@ -4359,11 +4425,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4386,11 +4452,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4413,13 +4479,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="55" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4446,11 +4512,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4475,11 +4541,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4504,11 +4570,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4531,11 +4597,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4558,13 +4624,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="32" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4593,11 +4659,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4624,11 +4690,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4655,11 +4721,11 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
@@ -4686,11 +4752,11 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
@@ -4717,11 +4783,11 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
@@ -4748,11 +4814,11 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
@@ -4779,11 +4845,11 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
@@ -4808,11 +4874,11 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="42"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4837,11 +4903,11 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="42"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
@@ -4866,11 +4932,11 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="42"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="9" t="s">
         <v>393</v>
       </c>
@@ -4895,11 +4961,11 @@
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="42"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="9" t="s">
         <v>404</v>
       </c>
@@ -4924,11 +4990,11 @@
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="42"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="9" t="s">
         <v>407</v>
       </c>
@@ -4951,11 +5017,11 @@
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="42"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="9" t="s">
         <v>420</v>
       </c>
@@ -4980,11 +5046,11 @@
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="42"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="9" t="s">
         <v>427</v>
       </c>
@@ -5009,315 +5075,317 @@
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="42"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="9" t="s">
         <v>508</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>424</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="24"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="43"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="E44" s="43"/>
+        <v>519</v>
+      </c>
+      <c r="E44" s="33"/>
       <c r="F44" s="9" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="20" t="s">
+      <c r="L44" s="24"/>
+      <c r="M44" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="2"/>
-      <c r="C45" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>289</v>
       </c>
       <c r="N45" s="17"/>
     </row>
     <row r="46" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="38" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E46" s="48"/>
+        <v>284</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="F46" s="21" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="K46" s="21" t="s">
+        <v>483</v>
+      </c>
       <c r="L46" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M46" s="23" t="s">
         <v>289</v>
       </c>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="2">
+    <row r="47" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
         <v>33</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="21" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="21" t="s">
+      <c r="E48" s="42"/>
+      <c r="F48" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="21" t="s">
+      <c r="G48" s="22"/>
+      <c r="H48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="31" t="s">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="25">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="25">
         <v>34</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="21" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="21" t="s">
+      <c r="E49" s="42"/>
+      <c r="F49" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="H48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="21" t="s">
+      <c r="H49" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="22" t="s">
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="M48" s="25" t="s">
+      <c r="M49" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="25"/>
-    </row>
-    <row r="49" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="29">
+      <c r="N49" s="25"/>
+    </row>
+    <row r="50" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="29">
         <v>35</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="29" t="s">
+      <c r="C50" s="39"/>
+      <c r="D50" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="29" t="s">
+      <c r="E50" s="42"/>
+      <c r="F50" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G50" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="29" t="s">
+      <c r="H50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29" t="s">
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="2">
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
         <v>36</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="21" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="21" t="s">
+      <c r="E51" s="42"/>
+      <c r="F51" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G51" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="21" t="s">
+      <c r="H51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="2">
-        <v>37</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-      <c r="L51" s="27" t="s">
-        <v>460</v>
+      <c r="L51" s="31" t="s">
+        <v>467</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>431</v>
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B52" s="25">
-        <v>38</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="25"/>
+    <row r="52" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>37</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
-        <v>39</v>
-      </c>
-      <c r="C53" s="52"/>
+        <v>38</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>398</v>
+      </c>
       <c r="D53" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="55"/>
-      <c r="F53" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
@@ -5336,15 +5404,15 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25">
-        <v>40</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="25" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
@@ -5363,22 +5431,22 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>41</v>
-      </c>
-      <c r="C55" s="52"/>
+        <v>40</v>
+      </c>
+      <c r="C55" s="46"/>
       <c r="D55" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E55" s="55"/>
+        <v>279</v>
+      </c>
+      <c r="E55" s="49"/>
       <c r="F55" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -5390,15 +5458,15 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25">
-        <v>42</v>
-      </c>
-      <c r="C56" s="52"/>
+        <v>41</v>
+      </c>
+      <c r="C56" s="46"/>
       <c r="D56" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E56" s="55"/>
+        <v>280</v>
+      </c>
+      <c r="E56" s="49"/>
       <c r="F56" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
@@ -5417,22 +5485,22 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="25">
-        <v>43</v>
-      </c>
-      <c r="C57" s="52"/>
+        <v>42</v>
+      </c>
+      <c r="C57" s="46"/>
       <c r="D57" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="55"/>
+        <v>281</v>
+      </c>
+      <c r="E57" s="49"/>
       <c r="F57" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="25" t="s">
-        <v>20</v>
+      <c r="I57" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -5444,22 +5512,22 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="25">
-        <v>44</v>
-      </c>
-      <c r="C58" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="C58" s="46"/>
       <c r="D58" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="56"/>
+        <v>109</v>
+      </c>
+      <c r="E58" s="49"/>
       <c r="F58" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
@@ -5469,52 +5537,48 @@
       </c>
       <c r="N58" s="25"/>
     </row>
-    <row r="59" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="25">
+        <v>44</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="50"/>
+      <c r="F59" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="25"/>
+    </row>
+    <row r="60" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
         <v>45</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C60" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E60" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F60" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="2">
-        <v>46</v>
-      </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>118</v>
@@ -5525,37 +5589,41 @@
       <c r="I60" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K60" s="12"/>
+      <c r="K60" s="13"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>47</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="J61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K61" s="12"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
         <v>21</v>
@@ -5564,15 +5632,15 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>48</v>
-      </c>
-      <c r="C62" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="C62" s="47"/>
       <c r="D62" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="45"/>
+        <v>124</v>
+      </c>
+      <c r="E62" s="39"/>
       <c r="F62" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
@@ -5591,15 +5659,15 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>49</v>
-      </c>
-      <c r="C63" s="53"/>
+        <v>48</v>
+      </c>
+      <c r="C63" s="47"/>
       <c r="D63" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="45"/>
+        <v>126</v>
+      </c>
+      <c r="E63" s="39"/>
       <c r="F63" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5618,15 +5686,15 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>50</v>
-      </c>
-      <c r="C64" s="53"/>
+        <v>49</v>
+      </c>
+      <c r="C64" s="47"/>
       <c r="D64" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="45"/>
+        <v>128</v>
+      </c>
+      <c r="E64" s="39"/>
       <c r="F64" s="14" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14" t="s">
@@ -5645,22 +5713,22 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>51</v>
-      </c>
-      <c r="C65" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="C65" s="47"/>
       <c r="D65" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="45"/>
+        <v>130</v>
+      </c>
+      <c r="E65" s="39"/>
       <c r="F65" s="14" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -5672,24 +5740,22 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
+        <v>51</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -5699,215 +5765,215 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="2"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>397</v>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="2">
+        <v>52</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="23" t="s">
+      <c r="M67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="2"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E68" s="39"/>
+      <c r="F68" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="2">
-        <v>53</v>
-      </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N68" s="18">
-        <v>42149</v>
-      </c>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
+        <v>53</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N69" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
         <v>54</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="C70" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E70" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F70" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G70" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="21" t="s">
+      <c r="H70" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="21" t="s">
+      <c r="J70" s="9"/>
+      <c r="K70" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="L69" s="21" t="s">
+      <c r="L70" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="M69" s="21" t="s">
+      <c r="M70" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="2"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="M70" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="N70" s="18"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="51"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="40"/>
+        <v>290</v>
+      </c>
+      <c r="E71" s="36"/>
       <c r="F71" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="38" t="s">
-        <v>301</v>
-      </c>
+      <c r="C72" s="45"/>
       <c r="D72" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E72" s="37"/>
       <c r="F72" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>305</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G72" s="21"/>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="39"/>
+      <c r="C73" s="35" t="s">
+        <v>301</v>
+      </c>
       <c r="D73" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E73" s="39"/>
+        <v>302</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>303</v>
+      </c>
       <c r="F73" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G73" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
-      <c r="L73" s="22" t="s">
-        <v>326</v>
+      <c r="L73" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="M73" s="21" t="s">
         <v>283</v>
@@ -5916,27 +5982,27 @@
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="39"/>
+        <v>312</v>
+      </c>
+      <c r="E74" s="36"/>
       <c r="F74" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M74" s="21" t="s">
         <v>283</v>
@@ -5945,27 +6011,27 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E75" s="39"/>
+        <v>313</v>
+      </c>
+      <c r="E75" s="36"/>
       <c r="F75" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>283</v>
@@ -5974,27 +6040,27 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E76" s="39"/>
+        <v>314</v>
+      </c>
+      <c r="E76" s="36"/>
       <c r="F76" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="14" t="s">
-        <v>33</v>
+      <c r="I76" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>283</v>
@@ -6003,16 +6069,16 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="39"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" s="39"/>
+        <v>315</v>
+      </c>
+      <c r="E77" s="36"/>
       <c r="F77" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
@@ -6023,7 +6089,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M77" s="21" t="s">
         <v>283</v>
@@ -6032,22 +6098,22 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="39"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E78" s="39"/>
+        <v>318</v>
+      </c>
+      <c r="E78" s="36"/>
       <c r="F78" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
@@ -6061,118 +6127,118 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="39"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="E79" s="39"/>
+        <v>319</v>
+      </c>
+      <c r="E79" s="36"/>
       <c r="F79" s="21" t="s">
-        <v>501</v>
+        <v>321</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>502</v>
+        <v>306</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>503</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>505</v>
+        <v>329</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80" s="40"/>
+        <v>500</v>
+      </c>
+      <c r="E80" s="36"/>
       <c r="F80" s="21" t="s">
-        <v>323</v>
+        <v>501</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>306</v>
+        <v>502</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>52</v>
+        <v>504</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>356</v>
+        <v>505</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="38" t="s">
-        <v>333</v>
-      </c>
+      <c r="C81" s="37"/>
       <c r="D81" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>336</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E81" s="37"/>
       <c r="F81" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="21" t="s">
-        <v>339</v>
+      <c r="I81" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="39"/>
+      <c r="C82" s="35" t="s">
+        <v>333</v>
+      </c>
       <c r="D82" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E82" s="39"/>
+        <v>335</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>336</v>
+      </c>
       <c r="F82" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M82" s="21" t="s">
         <v>334</v>
@@ -6181,27 +6247,27 @@
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="39"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="E83" s="39"/>
+        <v>343</v>
+      </c>
+      <c r="E83" s="36"/>
       <c r="F83" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M83" s="21" t="s">
         <v>334</v>
@@ -6210,27 +6276,27 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="39"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E84" s="39"/>
+        <v>347</v>
+      </c>
+      <c r="E84" s="36"/>
       <c r="F84" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M84" s="21" t="s">
         <v>334</v>
@@ -6239,27 +6305,27 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="39"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E85" s="39"/>
+        <v>351</v>
+      </c>
+      <c r="E85" s="36"/>
       <c r="F85" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>338</v>
+        <v>423</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="14" t="s">
-        <v>33</v>
+      <c r="I85" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M85" s="21" t="s">
         <v>334</v>
@@ -6268,16 +6334,16 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="39"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E86" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="E86" s="36"/>
       <c r="F86" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
@@ -6297,22 +6363,22 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="39"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="39"/>
+        <v>359</v>
+      </c>
+      <c r="E87" s="36"/>
       <c r="F87" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
@@ -6326,13 +6392,13 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="40"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" s="40"/>
+        <v>358</v>
+      </c>
+      <c r="E88" s="36"/>
       <c r="F88" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>344</v>
@@ -6355,60 +6421,60 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="38" t="s">
-        <v>363</v>
-      </c>
+      <c r="C89" s="37"/>
       <c r="D89" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>365</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E89" s="37"/>
       <c r="F89" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="39"/>
+      <c r="C90" s="35" t="s">
+        <v>363</v>
+      </c>
       <c r="D90" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E90" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>365</v>
+      </c>
       <c r="F90" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="G90" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M90" s="21" t="s">
         <v>370</v>
@@ -6417,27 +6483,27 @@
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="39"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E91" s="39"/>
+        <v>373</v>
+      </c>
+      <c r="E91" s="36"/>
       <c r="F91" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="G91" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G91" s="14" t="s">
         <v>368</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="14" t="s">
-        <v>377</v>
+      <c r="I91" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>370</v>
@@ -6446,13 +6512,13 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="39"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E92" s="39"/>
+        <v>375</v>
+      </c>
+      <c r="E92" s="36"/>
       <c r="F92" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>368</v>
@@ -6460,13 +6526,13 @@
       <c r="H92" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="21" t="s">
-        <v>368</v>
+      <c r="I92" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M92" s="21" t="s">
         <v>370</v>
@@ -6475,27 +6541,27 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="39"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E93" s="39"/>
+        <v>379</v>
+      </c>
+      <c r="E93" s="36"/>
       <c r="F93" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="14" t="s">
-        <v>33</v>
+      <c r="I93" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="M93" s="21" t="s">
         <v>370</v>
@@ -6504,16 +6570,16 @@
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="39"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E94" s="39"/>
+        <v>382</v>
+      </c>
+      <c r="E94" s="36"/>
       <c r="F94" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>19</v>
@@ -6524,36 +6590,36 @@
       <c r="J94" s="9"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N94" s="18"/>
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-      <c r="C95" s="39"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E95" s="39"/>
+        <v>383</v>
+      </c>
+      <c r="E95" s="36"/>
       <c r="F95" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H95" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22" t="s">
-        <v>329</v>
+        <v>499</v>
       </c>
       <c r="M95" s="21" t="s">
         <v>388</v>
@@ -6562,13 +6628,13 @@
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="39"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E96" s="39"/>
+        <v>384</v>
+      </c>
+      <c r="E96" s="36"/>
       <c r="F96" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>368</v>
@@ -6582,84 +6648,86 @@
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M96" s="21" t="s">
         <v>388</v>
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" s="2">
+    <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="2"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M97" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B98" s="2">
         <v>55</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E98" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F98" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="12" t="s">
+      <c r="G98" s="12"/>
+      <c r="H98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="17" t="s">
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N97" s="2"/>
-    </row>
-    <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="2"/>
-      <c r="C98" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G98" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N98" s="18"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="32"/>
+      <c r="C99" s="52" t="s">
+        <v>442</v>
+      </c>
       <c r="D99" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E99" s="32"/>
+        <v>448</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>511</v>
+      </c>
       <c r="F99" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>445</v>
@@ -6668,11 +6736,13 @@
         <v>19</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="21"/>
-      <c r="L99" s="22"/>
+      <c r="L99" s="22" t="s">
+        <v>514</v>
+      </c>
       <c r="M99" s="21" t="s">
         <v>298</v>
       </c>
@@ -6680,27 +6750,27 @@
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="32"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E100" s="32"/>
+        <v>450</v>
+      </c>
+      <c r="E100" s="52"/>
       <c r="F100" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="M100" s="21" t="s">
         <v>298</v>
@@ -6709,26 +6779,28 @@
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="32"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E101" s="32"/>
+        <v>451</v>
+      </c>
+      <c r="E101" s="52"/>
       <c r="F101" s="21" t="s">
-        <v>311</v>
+        <v>452</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="21"/>
-      <c r="L101" s="22"/>
+      <c r="L101" s="22" t="s">
+        <v>516</v>
+      </c>
       <c r="M101" s="21" t="s">
         <v>298</v>
       </c>
@@ -6736,27 +6808,27 @@
     </row>
     <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="32"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E102" s="32"/>
+        <v>379</v>
+      </c>
+      <c r="E102" s="52"/>
       <c r="F102" s="21" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H102" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="14" t="s">
-        <v>33</v>
+      <c r="I102" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="M102" s="21" t="s">
         <v>298</v>
@@ -6765,22 +6837,22 @@
     </row>
     <row r="103" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
-      <c r="C103" s="32"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E103" s="32"/>
+        <v>382</v>
+      </c>
+      <c r="E103" s="52"/>
       <c r="F103" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H103" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="21"/>
@@ -6794,13 +6866,13 @@
     </row>
     <row r="104" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-      <c r="C104" s="32"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E104" s="32"/>
+        <v>459</v>
+      </c>
+      <c r="E104" s="52"/>
       <c r="F104" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>445</v>
@@ -6823,89 +6895,87 @@
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-      <c r="C105" s="32" t="s">
-        <v>486</v>
-      </c>
+      <c r="C105" s="52"/>
       <c r="D105" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>443</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="E105" s="52"/>
       <c r="F105" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>488</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="G105" s="21"/>
       <c r="H105" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I105" s="21" t="s">
-        <v>489</v>
+      <c r="I105" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="M105" s="21" t="s">
-        <v>283</v>
+        <v>523</v>
       </c>
       <c r="N105" s="18"/>
     </row>
     <row r="106" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
-      <c r="C106" s="32"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E106" s="32"/>
+        <v>458</v>
+      </c>
+      <c r="E106" s="52"/>
       <c r="F106" s="21" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="H106" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I106" s="21" t="s">
-        <v>488</v>
+      <c r="I106" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N106" s="18"/>
     </row>
     <row r="107" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
-      <c r="C107" s="32"/>
+      <c r="C107" s="52" t="s">
+        <v>486</v>
+      </c>
       <c r="D107" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="E107" s="32"/>
+        <v>487</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>443</v>
+      </c>
       <c r="F107" s="21" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H107" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M107" s="21" t="s">
         <v>283</v>
@@ -6914,27 +6984,27 @@
     </row>
     <row r="108" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
-      <c r="C108" s="32"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="E108" s="32"/>
+        <v>490</v>
+      </c>
+      <c r="E108" s="52"/>
       <c r="F108" s="21" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H108" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I108" s="14" t="s">
-        <v>33</v>
+      <c r="I108" s="21" t="s">
+        <v>488</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M108" s="21" t="s">
         <v>283</v>
@@ -6943,22 +7013,22 @@
     </row>
     <row r="109" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
-      <c r="C109" s="32"/>
+      <c r="C109" s="52"/>
       <c r="D109" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E109" s="32"/>
+        <v>491</v>
+      </c>
+      <c r="E109" s="52"/>
       <c r="F109" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H109" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I109" s="14" t="s">
-        <v>52</v>
+      <c r="I109" s="21" t="s">
+        <v>453</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="21"/>
@@ -6972,22 +7042,22 @@
     </row>
     <row r="110" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
-      <c r="C110" s="32"/>
+      <c r="C110" s="52"/>
       <c r="D110" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E110" s="32"/>
+        <v>493</v>
+      </c>
+      <c r="E110" s="52"/>
       <c r="F110" s="21" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="21"/>
@@ -6999,25 +7069,70 @@
       </c>
       <c r="N110" s="18"/>
     </row>
+    <row r="111" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="2"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E111" s="52"/>
+      <c r="F111" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M111" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N111" s="18"/>
+    </row>
+    <row r="112" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="2"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E112" s="52"/>
+      <c r="F112" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M112" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N112" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C28:C44"/>
-    <mergeCell ref="E28:E44"/>
-    <mergeCell ref="E81:E88"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="E45:E51"/>
-    <mergeCell ref="C72:C80"/>
-    <mergeCell ref="E72:E80"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="E59:E68"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="E99:E106"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -7027,9 +7142,22 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="E90:E97"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="E28:E45"/>
+    <mergeCell ref="E82:E89"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="E60:E69"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7747,8 +7875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="530">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1908,10 +1908,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>cxcfid,wordType,pageNum如果模板不是当前页的时候pageNum传入-1即可</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Cxcf</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2831,6 +2827,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryByDwid.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据报送列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>exportDate
 格式如下：
 201506</t>
@@ -2841,7 +2849,110 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/queryByDwiddo</t>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": {
+        "pageNum": 1,
+        "pageSize": 10,
+        "size": 1,
+        "startRow": 1,
+        "endRow": 1,
+        "total": 1,
+        "pages": 1,
+        "list": [
+            {
+                "selected": null,
+                "aj_id": 2066,
+                "dw_bh": "10",
+                "aj_bh": "哈哈哈哈",
+                "aj_jasj": "2015-05-01 21:05",
+                "cj_dh": "6",
+                "cj_sj": "2015-06-24 21:05",
+                "cj_cxlx": "超重",
+                "cj_kfxz": "可卸载",
+                "cj_cp": "6",
+                "cj_zs": 2,
+                "cj_zz": "6",
+                "cj_cz": 0,
+                "hw_mc": "6",
+                "hw_qd": "6",
+                "hw_md": "66",
+                "cl_gc": "6",
+                "cl_hdzzl": 6,
+                "cl_zbzl": 6,
+                "cl_cjd": "66",
+                "cl_lx": "6",
+                "cl_yyz": "6",
+                "cl_syr": "6",
+                "cl_zz": "66",
+                "cl_dh": "66",
+                "jsy_xm": "6",
+                "jsy_xb": "男",
+                "jsy_zh": "66",
+                "jsy_cy": "6",
+                "jsy_dh": "6",
+                "jsy_zz": "66",
+                "aj_fk": 0,
+                "aj_pjh": "6",
+                "aj_tcdd": "222",
+                "aj_zfx": "66",
+                "aj_zfxz": "6",
+                "aj_zfj": "66",
+                "aj_zfjz": "66",
+                "aj_afsj": "2015-06-24 21:05",
+                "aj_afdd": "66",
+                "fj_cz": 0,
+                "fj_zz": 2,
+                "fj_sj": "2015-06-24 21:05",
+                "fj_dh": "22",
+                "aj_xwbldd": "66",
+                "aj_xwblsj": "2015-06-24 21:37",
+                "aj_xcbldd": "6",
+                "dw": null,
+                "aj_xcblsj": "2015-06-24 21:21",
+                "aj_jazt": "是",
+                "cj_zz_lx": null,
+                "aj_datastate": 0,
+                "currentpath_pdf": "fileUpLoad\\201506\\20150624090523_舟山路罚〔2015〕字第100001号.pdf",
+                "currentpath_word": "fileUpLoad\\201506\\20150624090523_舟山路罚〔2015〕字第100001号.docx",
+                "jt_bh": null,
+                "jttl": null,
+                "cj_zyclq": "（0）",
+                "cp_info": null,
+                "isowner": "否"
+            }
+        ],
+        "firstPage": 1,
+        "prePage": 0,
+        "nextPage": 0,
+        "lastPage": 1,
+        "isFirstPage": true,
+        "isLastPage": false,
+        "hasPreviousPage": false,
+        "hasNextPage": false,
+        "navigatePages": 8,
+        "navigatepageNums": [
+            1
+        ]
+    }
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{exportDate}/{pageNum}/{pageSize}/querySjbs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cxcfid,wordType,pageNum如果模板不是当前页的时候pageNum传入-1即可</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDate
+格式如下：
+201506
+pageNum:当前页数
+pageSize:一页多少条</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3005,7 +3116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3062,13 +3173,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3078,6 +3201,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3120,24 +3252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3830,12 +3944,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N112"/>
+  <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView topLeftCell="C79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="topRight" activeCell="G105" sqref="G105"/>
+      <selection pane="topRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3845,8 +3959,8 @@
     <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
     <col min="10" max="11" width="14.88671875" style="1" customWidth="1"/>
@@ -3857,17 +3971,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -3924,13 +4038,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3957,11 +4071,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -3986,11 +4100,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -4015,11 +4129,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -4042,11 +4156,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -4069,11 +4183,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -4098,11 +4212,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -4127,11 +4241,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -4158,11 +4272,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -4189,13 +4303,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="36" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -4222,11 +4336,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -4251,11 +4365,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -4280,11 +4394,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -4307,11 +4421,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4334,13 +4448,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="36" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4367,11 +4481,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="56"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4396,11 +4510,11 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="7" t="s">
         <v>402</v>
       </c>
@@ -4425,11 +4539,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4452,11 +4566,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4479,13 +4593,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="36" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4512,11 +4626,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4541,11 +4655,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4570,11 +4684,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4597,11 +4711,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4624,13 +4738,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="42" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4659,11 +4773,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -4674,7 +4788,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4690,11 +4804,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4721,16 +4835,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4752,16 +4866,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4783,16 +4897,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4814,16 +4928,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4845,16 +4959,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4874,16 +4988,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="33"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>410</v>
+        <v>528</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -4894,7 +5008,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -4903,11 +5017,11 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
@@ -4923,7 +5037,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>271</v>
@@ -4932,11 +5046,11 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="9" t="s">
         <v>393</v>
       </c>
@@ -4947,12 +5061,12 @@
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>395</v>
@@ -4961,16 +5075,16 @@
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="9" t="s">
         <v>404</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
@@ -4981,7 +5095,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>332</v>
@@ -4990,16 +5104,16 @@
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="9" t="s">
         <v>407</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>19</v>
@@ -5011,107 +5125,107 @@
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="H42" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>509</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="24"/>
       <c r="M43" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="9" t="s">
-        <v>520</v>
-      </c>
       <c r="G44" s="19" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>286</v>
@@ -5123,296 +5237,298 @@
       <c r="K44" s="9"/>
       <c r="L44" s="24"/>
       <c r="M44" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N44" s="17"/>
     </row>
     <row r="45" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45" s="34"/>
+        <v>523</v>
+      </c>
+      <c r="E45" s="43"/>
       <c r="F45" s="9" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="N45" s="17"/>
-    </row>
-    <row r="46" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="2"/>
-      <c r="C46" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>289</v>
       </c>
       <c r="N46" s="17"/>
     </row>
     <row r="47" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
-      <c r="C47" s="39"/>
+      <c r="C47" s="45" t="s">
+        <v>436</v>
+      </c>
       <c r="D47" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E47" s="42"/>
+        <v>284</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="F47" s="21" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>286</v>
+        <v>424</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="K47" s="21" t="s">
+        <v>482</v>
+      </c>
       <c r="L47" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>289</v>
       </c>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="2">
+    <row r="48" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="2"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
         <v>33</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="21" t="s">
+      <c r="C49" s="46"/>
+      <c r="D49" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="25">
+        <v>34</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="25"/>
+    </row>
+    <row r="51" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="29">
+        <v>35</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="29"/>
+    </row>
+    <row r="52" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>36</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="25">
-        <v>34</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="21" t="s">
+      <c r="H52" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="50" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="29">
-        <v>35</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="29"/>
-    </row>
-    <row r="51" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="2">
-        <v>36</v>
-      </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="2">
-        <v>37</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
-      <c r="L52" s="27" t="s">
-        <v>460</v>
+      <c r="L52" s="31" t="s">
+        <v>466</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B53" s="25">
-        <v>38</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="25"/>
+    <row r="53" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>37</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="F53" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25">
-        <v>39</v>
-      </c>
-      <c r="C54" s="46"/>
+        <v>38</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>398</v>
+      </c>
       <c r="D54" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
@@ -5431,15 +5547,15 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>40</v>
-      </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="25" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
@@ -5458,22 +5574,22 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25">
-        <v>41</v>
-      </c>
-      <c r="C56" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="C56" s="53"/>
       <c r="D56" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" s="49"/>
+        <v>279</v>
+      </c>
+      <c r="E56" s="56"/>
       <c r="F56" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -5485,15 +5601,15 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="25">
-        <v>42</v>
-      </c>
-      <c r="C57" s="46"/>
+        <v>41</v>
+      </c>
+      <c r="C57" s="53"/>
       <c r="D57" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E57" s="49"/>
+        <v>280</v>
+      </c>
+      <c r="E57" s="56"/>
       <c r="F57" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
@@ -5512,22 +5628,22 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="25">
-        <v>43</v>
-      </c>
-      <c r="C58" s="46"/>
+        <v>42</v>
+      </c>
+      <c r="C58" s="53"/>
       <c r="D58" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="49"/>
+        <v>281</v>
+      </c>
+      <c r="E58" s="56"/>
       <c r="F58" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="25" t="s">
-        <v>20</v>
+      <c r="I58" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
@@ -5539,22 +5655,22 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="25">
-        <v>44</v>
-      </c>
-      <c r="C59" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="C59" s="53"/>
       <c r="D59" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="E59" s="56"/>
       <c r="F59" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -5564,52 +5680,48 @@
       </c>
       <c r="N59" s="25"/>
     </row>
-    <row r="60" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" s="25">
+        <v>44</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="57"/>
+      <c r="F60" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="25"/>
+    </row>
+    <row r="61" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
         <v>45</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C61" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E61" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="2">
-        <v>46</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>118</v>
@@ -5620,37 +5732,41 @@
       <c r="I61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K61" s="12"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>47</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="J62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K62" s="12"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
         <v>21</v>
@@ -5659,15 +5775,15 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>48</v>
-      </c>
-      <c r="C63" s="47"/>
+        <v>47</v>
+      </c>
+      <c r="C63" s="54"/>
       <c r="D63" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="39"/>
+        <v>124</v>
+      </c>
+      <c r="E63" s="46"/>
       <c r="F63" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
@@ -5686,15 +5802,15 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>49</v>
-      </c>
-      <c r="C64" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="C64" s="54"/>
       <c r="D64" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="39"/>
+        <v>126</v>
+      </c>
+      <c r="E64" s="46"/>
       <c r="F64" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14" t="s">
@@ -5713,15 +5829,15 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>50</v>
-      </c>
-      <c r="C65" s="47"/>
+        <v>49</v>
+      </c>
+      <c r="C65" s="54"/>
       <c r="D65" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="E65" s="46"/>
       <c r="F65" s="14" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14" t="s">
@@ -5740,22 +5856,22 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
-        <v>51</v>
-      </c>
-      <c r="C66" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="C66" s="54"/>
       <c r="D66" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="E66" s="46"/>
       <c r="F66" s="14" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -5767,24 +5883,22 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
+        <v>51</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -5794,215 +5908,215 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="2"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>397</v>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="2">
+        <v>52</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="23" t="s">
+      <c r="M68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="2"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="2">
-        <v>53</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N69" s="18">
-        <v>42149</v>
-      </c>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
+        <v>53</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="47"/>
+      <c r="F70" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N70" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="2">
         <v>54</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C71" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D71" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E71" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F71" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G71" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="21" t="s">
+      <c r="H71" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="21" t="s">
+      <c r="J71" s="9"/>
+      <c r="K71" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="L70" s="21" t="s">
+      <c r="L71" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="M70" s="21" t="s">
+      <c r="M71" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="N70" s="18"/>
-    </row>
-    <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="2"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="N71" s="18"/>
     </row>
     <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="45"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E72" s="37"/>
+        <v>290</v>
+      </c>
+      <c r="E72" s="40"/>
       <c r="F72" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="35" t="s">
-        <v>301</v>
-      </c>
+      <c r="C73" s="52"/>
       <c r="D73" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E73" s="41"/>
       <c r="F73" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>305</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G73" s="21"/>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="39" t="s">
+        <v>301</v>
+      </c>
       <c r="D74" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E74" s="36"/>
+        <v>302</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="F74" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G74" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
-      <c r="L74" s="22" t="s">
-        <v>326</v>
+      <c r="L74" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="M74" s="21" t="s">
         <v>283</v>
@@ -6011,27 +6125,27 @@
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="40"/>
       <c r="D75" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E75" s="36"/>
+        <v>312</v>
+      </c>
+      <c r="E75" s="40"/>
       <c r="F75" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>283</v>
@@ -6040,27 +6154,27 @@
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E76" s="36"/>
+        <v>313</v>
+      </c>
+      <c r="E76" s="40"/>
       <c r="F76" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>283</v>
@@ -6069,27 +6183,27 @@
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="40"/>
       <c r="D77" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="36"/>
+        <v>314</v>
+      </c>
+      <c r="E77" s="40"/>
       <c r="F77" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="14" t="s">
-        <v>33</v>
+      <c r="I77" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M77" s="21" t="s">
         <v>283</v>
@@ -6098,16 +6212,16 @@
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="36"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="36"/>
+        <v>315</v>
+      </c>
+      <c r="E78" s="40"/>
       <c r="F78" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
@@ -6118,7 +6232,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M78" s="21" t="s">
         <v>283</v>
@@ -6127,22 +6241,22 @@
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" s="36"/>
+        <v>318</v>
+      </c>
+      <c r="E79" s="40"/>
       <c r="F79" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
@@ -6156,118 +6270,118 @@
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="E80" s="36"/>
+        <v>319</v>
+      </c>
+      <c r="E80" s="40"/>
       <c r="F80" s="21" t="s">
-        <v>501</v>
+        <v>321</v>
       </c>
       <c r="G80" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H80" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H80" s="21" t="s">
-        <v>503</v>
-      </c>
       <c r="I80" s="14" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>505</v>
+        <v>329</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="37"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E81" s="37"/>
+        <v>499</v>
+      </c>
+      <c r="E81" s="40"/>
       <c r="F81" s="21" t="s">
-        <v>323</v>
+        <v>500</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>306</v>
+        <v>501</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>52</v>
+        <v>503</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>283</v>
+        <v>505</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="35" t="s">
-        <v>333</v>
-      </c>
+      <c r="C82" s="41"/>
       <c r="D82" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>336</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E82" s="41"/>
       <c r="F82" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="21" t="s">
-        <v>339</v>
+      <c r="I82" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="N82" s="18"/>
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="36"/>
+      <c r="C83" s="39" t="s">
+        <v>333</v>
+      </c>
       <c r="D83" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E83" s="36"/>
+        <v>335</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>336</v>
+      </c>
       <c r="F83" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M83" s="21" t="s">
         <v>334</v>
@@ -6276,27 +6390,27 @@
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="36"/>
+      <c r="C84" s="40"/>
       <c r="D84" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="36"/>
+        <v>343</v>
+      </c>
+      <c r="E84" s="40"/>
       <c r="F84" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M84" s="21" t="s">
         <v>334</v>
@@ -6305,27 +6419,27 @@
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="36"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E85" s="36"/>
+        <v>347</v>
+      </c>
+      <c r="E85" s="40"/>
       <c r="F85" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M85" s="21" t="s">
         <v>334</v>
@@ -6334,27 +6448,27 @@
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="36"/>
+        <v>351</v>
+      </c>
+      <c r="E86" s="40"/>
       <c r="F86" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G86" s="21" t="s">
-        <v>338</v>
+        <v>422</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>33</v>
+      <c r="I86" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M86" s="21" t="s">
         <v>334</v>
@@ -6363,16 +6477,16 @@
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="36"/>
+        <v>354</v>
+      </c>
+      <c r="E87" s="40"/>
       <c r="F87" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>19</v>
@@ -6392,22 +6506,22 @@
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E88" s="36"/>
+        <v>359</v>
+      </c>
+      <c r="E88" s="40"/>
       <c r="F88" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
@@ -6421,13 +6535,13 @@
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="37"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E89" s="37"/>
+        <v>358</v>
+      </c>
+      <c r="E89" s="40"/>
       <c r="F89" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>344</v>
@@ -6450,60 +6564,60 @@
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="35" t="s">
-        <v>363</v>
-      </c>
+      <c r="C90" s="41"/>
       <c r="D90" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>365</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E90" s="41"/>
       <c r="F90" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="36"/>
+      <c r="C91" s="39" t="s">
+        <v>363</v>
+      </c>
       <c r="D91" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E91" s="36"/>
+        <v>364</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>365</v>
+      </c>
       <c r="F91" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="G91" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>370</v>
@@ -6512,27 +6626,27 @@
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="36"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E92" s="36"/>
+        <v>373</v>
+      </c>
+      <c r="E92" s="40"/>
       <c r="F92" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="G92" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="14" t="s">
         <v>368</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="14" t="s">
-        <v>377</v>
+      <c r="I92" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M92" s="21" t="s">
         <v>370</v>
@@ -6541,13 +6655,13 @@
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="36"/>
+      <c r="C93" s="40"/>
       <c r="D93" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E93" s="36"/>
+        <v>375</v>
+      </c>
+      <c r="E93" s="40"/>
       <c r="F93" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>368</v>
@@ -6555,13 +6669,13 @@
       <c r="H93" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="21" t="s">
-        <v>368</v>
+      <c r="I93" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M93" s="21" t="s">
         <v>370</v>
@@ -6570,27 +6684,27 @@
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="36"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E94" s="36"/>
+        <v>379</v>
+      </c>
+      <c r="E94" s="40"/>
       <c r="F94" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="14" t="s">
-        <v>33</v>
+      <c r="I94" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="M94" s="21" t="s">
         <v>370</v>
@@ -6599,16 +6713,16 @@
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-      <c r="C95" s="36"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E95" s="36"/>
+        <v>382</v>
+      </c>
+      <c r="E95" s="40"/>
       <c r="F95" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H95" s="21" t="s">
         <v>19</v>
@@ -6619,36 +6733,36 @@
       <c r="J95" s="9"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N95" s="18"/>
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="36"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E96" s="36"/>
+        <v>383</v>
+      </c>
+      <c r="E96" s="40"/>
       <c r="F96" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="M96" s="21" t="s">
         <v>388</v>
@@ -6657,13 +6771,13 @@
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="36"/>
+      <c r="C97" s="40"/>
       <c r="D97" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E97" s="36"/>
+        <v>384</v>
+      </c>
+      <c r="E97" s="40"/>
       <c r="F97" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>368</v>
@@ -6677,100 +6791,100 @@
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="M97" s="21" t="s">
         <v>388</v>
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B98" s="2">
+    <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="2"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="40"/>
+      <c r="F98" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="M98" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B99" s="2">
         <v>55</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E99" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F98" s="23" t="s">
+      <c r="F99" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="12" t="s">
+      <c r="G99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="17" t="s">
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="2"/>
-      <c r="C99" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E99" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H99" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="M99" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N99" s="18"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="52"/>
+      <c r="C100" s="33" t="s">
+        <v>441</v>
+      </c>
       <c r="D100" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E100" s="52"/>
+        <v>447</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>510</v>
+      </c>
       <c r="F100" s="21" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M100" s="21" t="s">
         <v>298</v>
@@ -6779,85 +6893,85 @@
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="52"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E101" s="52"/>
-      <c r="F101" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="H101" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="M101" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>298</v>
       </c>
       <c r="N101" s="18"/>
     </row>
     <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="52"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E102" s="52"/>
-      <c r="F102" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H102" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="M102" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="M102" s="29" t="s">
         <v>298</v>
       </c>
       <c r="N102" s="18"/>
     </row>
     <row r="103" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
-      <c r="C103" s="52"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E103" s="52"/>
+        <v>379</v>
+      </c>
+      <c r="E103" s="33"/>
       <c r="F103" s="21" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H103" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="14" t="s">
-        <v>33</v>
+      <c r="I103" s="21" t="s">
+        <v>444</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="M103" s="21" t="s">
         <v>298</v>
@@ -6866,134 +6980,134 @@
     </row>
     <row r="104" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-      <c r="C104" s="52"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E104" s="52"/>
-      <c r="F104" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H104" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="M104" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="M104" s="29" t="s">
         <v>298</v>
       </c>
       <c r="N104" s="18"/>
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-      <c r="C105" s="52"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="E105" s="52"/>
+        <v>458</v>
+      </c>
+      <c r="E105" s="33"/>
       <c r="F105" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="G105" s="21"/>
+        <v>455</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>444</v>
+      </c>
       <c r="H105" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>512</v>
+        <v>52</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="M105" s="21" t="s">
-        <v>523</v>
+        <v>298</v>
       </c>
       <c r="N105" s="18"/>
     </row>
     <row r="106" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
-      <c r="C106" s="52"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E106" s="52"/>
+        <v>509</v>
+      </c>
+      <c r="E106" s="33"/>
       <c r="F106" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>445</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="G106" s="21"/>
       <c r="H106" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>52</v>
+        <v>511</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>298</v>
+        <v>521</v>
       </c>
       <c r="N106" s="18"/>
     </row>
     <row r="107" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
-      <c r="C107" s="52" t="s">
-        <v>486</v>
-      </c>
+      <c r="C107" s="33"/>
       <c r="D107" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="E107" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="F107" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="G107" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G107" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="H107" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="M107" s="21" t="s">
-        <v>283</v>
+      <c r="H107" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="M107" s="29" t="s">
+        <v>298</v>
       </c>
       <c r="N107" s="18"/>
     </row>
     <row r="108" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
-      <c r="C108" s="52"/>
+      <c r="C108" s="33" t="s">
+        <v>485</v>
+      </c>
       <c r="D108" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E108" s="52"/>
+        <v>486</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>442</v>
+      </c>
       <c r="F108" s="21" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H108" s="21" t="s">
         <v>19</v>
@@ -7004,7 +7118,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M108" s="21" t="s">
         <v>283</v>
@@ -7013,27 +7127,27 @@
     </row>
     <row r="109" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
-      <c r="C109" s="52"/>
+      <c r="C109" s="33"/>
       <c r="D109" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="E109" s="52"/>
+        <v>489</v>
+      </c>
+      <c r="E109" s="33"/>
       <c r="F109" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H109" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M109" s="21" t="s">
         <v>283</v>
@@ -7042,27 +7156,27 @@
     </row>
     <row r="110" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
-      <c r="C110" s="52"/>
+      <c r="C110" s="33"/>
       <c r="D110" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="E110" s="52"/>
+        <v>490</v>
+      </c>
+      <c r="E110" s="33"/>
       <c r="F110" s="21" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I110" s="14" t="s">
-        <v>33</v>
+      <c r="I110" s="21" t="s">
+        <v>452</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M110" s="21" t="s">
         <v>283</v>
@@ -7071,27 +7185,27 @@
     </row>
     <row r="111" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="2"/>
-      <c r="C111" s="52"/>
+      <c r="C111" s="33"/>
       <c r="D111" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E111" s="52"/>
+        <v>492</v>
+      </c>
+      <c r="E111" s="33"/>
       <c r="F111" s="21" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H111" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M111" s="21" t="s">
         <v>283</v>
@@ -7100,16 +7214,16 @@
     </row>
     <row r="112" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="2"/>
-      <c r="C112" s="52"/>
+      <c r="C112" s="33"/>
       <c r="D112" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E112" s="52"/>
+        <v>495</v>
+      </c>
+      <c r="E112" s="33"/>
       <c r="F112" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H112" s="21" t="s">
         <v>19</v>
@@ -7120,19 +7234,61 @@
       <c r="J112" s="9"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M112" s="21" t="s">
         <v>283</v>
       </c>
       <c r="N112" s="18"/>
     </row>
+    <row r="113" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="2"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E113" s="33"/>
+      <c r="F113" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="M113" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="N113" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="E99:E106"/>
+    <mergeCell ref="C28:C46"/>
+    <mergeCell ref="E28:E46"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C61:C70"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="E61:E70"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="E100:E107"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -7142,22 +7298,9 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="E90:E97"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="E28:E45"/>
-    <mergeCell ref="E82:E89"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="E73:E81"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="E53:E59"/>
-    <mergeCell ref="E60:E69"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="C83:C90"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7875,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="531">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -2940,10 +2940,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/{exportDate}/{pageNum}/{pageSize}/querySjbs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>cxcfid,wordType,pageNum如果模板不是当前页的时候pageNum传入-1即可</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2953,6 +2949,15 @@
 201506
 pageNum:当前页数
 pageSize:一页多少条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{exportDate}/{pageNum}/{pageSize}/querySjbs.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf  
+searchText:查询条件,车牌或案卷编号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3946,10 +3951,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="topRight" activeCell="G45" sqref="G45"/>
+      <selection pane="topRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -4781,8 +4786,8 @@
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>83</v>
+      <c r="G29" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>19</v>
@@ -4997,7 +5002,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -5249,10 +5254,10 @@
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>286</v>

--- a/docs/对接文档/副本接口说明.xlsx
+++ b/docs/对接文档/副本接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="540">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1018,10 +1018,6 @@
       </rPr>
       <t>xc</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2839,12 +2835,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>exportDate
-格式如下：
-201506</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xxc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2958,6 +2948,65 @@
   <si>
     <t>Cxcf  
 searchText:查询条件,车牌或案卷编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出详细数据报表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{exportDate}/exportDetailExcel.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDate
+格式如下：
+201506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDate
+格式如下：
+201506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库是否存在此用户名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/api/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wks</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkno用户名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在此数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{wkno}/isWkExist.do</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3121,7 +3170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3181,22 +3230,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3206,15 +3246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3257,6 +3288,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3949,12 +4001,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N113"/>
+  <dimension ref="B1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="topRight" activeCell="G29" sqref="G29"/>
+      <selection pane="topRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3976,17 +4028,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -4043,13 +4095,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -4076,11 +4128,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -4105,11 +4157,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -4134,11 +4186,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -4161,11 +4213,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -4188,11 +4240,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -4217,11 +4269,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -4246,11 +4298,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -4277,11 +4329,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -4308,13 +4360,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -4341,11 +4393,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -4370,11 +4422,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -4399,11 +4451,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -4426,11 +4478,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4453,13 +4505,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="55" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="56" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4486,11 +4538,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -4515,16 +4567,16 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>19</v>
@@ -4544,11 +4596,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
@@ -4571,11 +4623,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
@@ -4598,13 +4650,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="56" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -4631,11 +4683,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4660,11 +4712,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
@@ -4689,11 +4741,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="8" t="s">
         <v>77</v>
       </c>
@@ -4716,11 +4768,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="8" t="s">
         <v>79</v>
       </c>
@@ -4743,13 +4795,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="33" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4778,22 +4830,22 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -4809,11 +4861,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
@@ -4829,7 +4881,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>85</v>
@@ -4840,16 +4892,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -4871,16 +4923,16 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -4891,7 +4943,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>85</v>
@@ -4902,16 +4954,16 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="9" t="s">
         <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>19</v>
@@ -4933,16 +4985,16 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
@@ -4964,16 +5016,16 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>19</v>
@@ -4993,16 +5045,16 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
@@ -5013,7 +5065,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>85</v>
@@ -5022,16 +5074,16 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="43"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -5042,7 +5094,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>271</v>
@@ -5051,516 +5103,514 @@
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>394</v>
-      </c>
       <c r="H38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" s="43"/>
+        <v>404</v>
+      </c>
+      <c r="E39" s="34"/>
       <c r="F39" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="20"/>
       <c r="M40" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
-      <c r="C41" s="43"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="H42" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
-      <c r="C43" s="43"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="24"/>
       <c r="M43" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="43"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="G44" s="19" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="24"/>
       <c r="M44" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N44" s="17"/>
     </row>
     <row r="45" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="43"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E45" s="43"/>
+        <v>529</v>
+      </c>
+      <c r="E45" s="34"/>
       <c r="F45" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>525</v>
-      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="17"/>
     </row>
     <row r="46" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
-      <c r="C46" s="44"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="E46" s="44"/>
+        <v>522</v>
+      </c>
+      <c r="E46" s="34"/>
       <c r="F46" s="9" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="20" t="s">
+      <c r="L46" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="N46" s="17"/>
-    </row>
-    <row r="47" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="2"/>
-      <c r="C47" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>289</v>
       </c>
       <c r="N47" s="17"/>
     </row>
     <row r="48" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
-      <c r="C48" s="46"/>
+      <c r="C48" s="39" t="s">
+        <v>435</v>
+      </c>
       <c r="D48" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="L48" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="I48" s="21" t="s">
+      <c r="I49" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="M49" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="M48" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="N48" s="17"/>
-    </row>
-    <row r="49" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="2">
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
         <v>33</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="21" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="25">
+        <v>34</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="25"/>
+    </row>
+    <row r="52" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="29">
+        <v>35</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="E52" s="43"/>
+      <c r="F52" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="29"/>
+    </row>
+    <row r="53" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>36</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="2:14" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="25">
-        <v>34</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="21" t="s">
+      <c r="H53" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="25"/>
-    </row>
-    <row r="51" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29">
-        <v>35</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="29"/>
-    </row>
-    <row r="52" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="2">
-        <v>36</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="2">
-        <v>37</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>462</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="27" t="s">
-        <v>459</v>
+      <c r="L53" s="31" t="s">
+        <v>465</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B54" s="25">
-        <v>38</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="25"/>
+    <row r="54" spans="2:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
+        <v>37</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E54" s="44"/>
+      <c r="F54" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25">
-        <v>39</v>
-      </c>
-      <c r="C55" s="53"/>
+        <v>38</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>397</v>
+      </c>
       <c r="D55" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
@@ -5579,15 +5629,15 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25">
-        <v>40</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="25" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
@@ -5606,22 +5656,22 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="25">
-        <v>41</v>
-      </c>
-      <c r="C57" s="53"/>
+        <v>40</v>
+      </c>
+      <c r="C57" s="47"/>
       <c r="D57" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="56"/>
+        <v>278</v>
+      </c>
+      <c r="E57" s="50"/>
       <c r="F57" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -5633,15 +5683,15 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="25">
-        <v>42</v>
-      </c>
-      <c r="C58" s="53"/>
+        <v>41</v>
+      </c>
+      <c r="C58" s="47"/>
       <c r="D58" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E58" s="56"/>
+        <v>279</v>
+      </c>
+      <c r="E58" s="50"/>
       <c r="F58" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="s">
@@ -5660,22 +5710,22 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="25">
-        <v>43</v>
-      </c>
-      <c r="C59" s="53"/>
+        <v>42</v>
+      </c>
+      <c r="C59" s="47"/>
       <c r="D59" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="56"/>
+        <v>280</v>
+      </c>
+      <c r="E59" s="50"/>
       <c r="F59" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="25" t="s">
-        <v>20</v>
+      <c r="I59" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -5687,22 +5737,22 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="25">
-        <v>44</v>
-      </c>
-      <c r="C60" s="53"/>
+        <v>43</v>
+      </c>
+      <c r="C60" s="47"/>
       <c r="D60" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="57"/>
+        <v>109</v>
+      </c>
+      <c r="E60" s="50"/>
       <c r="F60" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
@@ -5712,52 +5762,48 @@
       </c>
       <c r="N60" s="25"/>
     </row>
-    <row r="61" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="25">
+        <v>44</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="2">
         <v>45</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C62" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E62" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F62" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="2">
-        <v>46</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>118</v>
@@ -5768,37 +5814,41 @@
       <c r="I62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K62" s="13"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>47</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="J63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63" s="12"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
         <v>21</v>
@@ -5807,15 +5857,15 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>48</v>
-      </c>
-      <c r="C64" s="54"/>
+        <v>47</v>
+      </c>
+      <c r="C64" s="48"/>
       <c r="D64" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="46"/>
+        <v>124</v>
+      </c>
+      <c r="E64" s="40"/>
       <c r="F64" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14" t="s">
@@ -5834,15 +5884,15 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>49</v>
-      </c>
-      <c r="C65" s="54"/>
+        <v>48</v>
+      </c>
+      <c r="C65" s="48"/>
       <c r="D65" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="46"/>
+        <v>126</v>
+      </c>
+      <c r="E65" s="40"/>
       <c r="F65" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14" t="s">
@@ -5861,15 +5911,15 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
-        <v>50</v>
-      </c>
-      <c r="C66" s="54"/>
+        <v>49</v>
+      </c>
+      <c r="C66" s="48"/>
       <c r="D66" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="46"/>
+        <v>128</v>
+      </c>
+      <c r="E66" s="40"/>
       <c r="F66" s="14" t="s">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14" t="s">
@@ -5888,22 +5938,22 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
-        <v>51</v>
-      </c>
-      <c r="C67" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="C67" s="48"/>
       <c r="D67" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="46"/>
+        <v>130</v>
+      </c>
+      <c r="E67" s="40"/>
       <c r="F67" s="14" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -5915,24 +5965,22 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
+        <v>51</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="D68" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -5942,320 +5990,320 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="2"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>397</v>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
+        <v>52</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="23" t="s">
+      <c r="M69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="2"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E70" s="40"/>
+      <c r="F70" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="H70" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="2">
-        <v>53</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N70" s="18">
-        <v>42149</v>
-      </c>
+      <c r="I70" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
+        <v>53</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="41"/>
+      <c r="F71" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="N71" s="18">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="2">
         <v>54</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C72" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="E72" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="F72" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="G72" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G71" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="2"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="21"/>
       <c r="L72" s="21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="N72" s="18"/>
     </row>
     <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-      <c r="C73" s="52"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E73" s="41"/>
+        <v>289</v>
+      </c>
+      <c r="E73" s="37"/>
       <c r="F73" s="21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-      <c r="C74" s="39" t="s">
-        <v>301</v>
-      </c>
+      <c r="C74" s="46"/>
       <c r="D74" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>303</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E74" s="38"/>
       <c r="F74" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>305</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G74" s="21"/>
       <c r="H74" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="N74" s="18"/>
     </row>
     <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="36" t="s">
+        <v>300</v>
+      </c>
       <c r="D75" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E75" s="40"/>
+        <v>301</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>302</v>
+      </c>
       <c r="F75" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="21"/>
-      <c r="L75" s="22" t="s">
-        <v>326</v>
+      <c r="L75" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N75" s="18"/>
     </row>
     <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E76" s="40"/>
+        <v>311</v>
+      </c>
+      <c r="E76" s="37"/>
       <c r="F76" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>324</v>
+        <v>306</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E77" s="40"/>
+        <v>312</v>
+      </c>
+      <c r="E77" s="37"/>
       <c r="F77" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N77" s="18"/>
     </row>
     <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-      <c r="C78" s="40"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" s="40"/>
+        <v>313</v>
+      </c>
+      <c r="E78" s="37"/>
       <c r="F78" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="14" t="s">
-        <v>33</v>
+      <c r="I78" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N78" s="18"/>
     </row>
     <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E79" s="40"/>
+        <v>314</v>
+      </c>
+      <c r="E79" s="37"/>
       <c r="F79" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>19</v>
@@ -6266,261 +6314,261 @@
       <c r="J79" s="9"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="40"/>
+        <v>317</v>
+      </c>
+      <c r="E80" s="37"/>
       <c r="F80" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="40"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="E81" s="40"/>
+        <v>318</v>
+      </c>
+      <c r="E81" s="37"/>
       <c r="F81" s="21" t="s">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="G81" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H81" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="H81" s="21" t="s">
-        <v>502</v>
-      </c>
       <c r="I81" s="14" t="s">
-        <v>503</v>
+        <v>52</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22" t="s">
-        <v>504</v>
+        <v>328</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>505</v>
+        <v>282</v>
       </c>
       <c r="N81" s="18"/>
     </row>
     <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="41"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E82" s="41"/>
+        <v>498</v>
+      </c>
+      <c r="E82" s="37"/>
       <c r="F82" s="21" t="s">
-        <v>323</v>
+        <v>499</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>52</v>
+        <v>502</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22" t="s">
-        <v>356</v>
+        <v>503</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>283</v>
+        <v>504</v>
       </c>
       <c r="N82" s="18"/>
     </row>
     <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="39" t="s">
-        <v>333</v>
-      </c>
+      <c r="C83" s="38"/>
       <c r="D83" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>336</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E83" s="38"/>
       <c r="F83" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="21" t="s">
-        <v>339</v>
+      <c r="I83" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="40"/>
+      <c r="C84" s="36" t="s">
+        <v>332</v>
+      </c>
       <c r="D84" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" s="40"/>
+        <v>334</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>335</v>
+      </c>
       <c r="F84" s="21" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N84" s="18"/>
     </row>
     <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="E85" s="40"/>
+        <v>342</v>
+      </c>
+      <c r="E85" s="37"/>
       <c r="F85" s="21" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N85" s="18"/>
     </row>
     <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E86" s="40"/>
+        <v>346</v>
+      </c>
+      <c r="E86" s="37"/>
       <c r="F86" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N86" s="18"/>
     </row>
     <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="40"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E87" s="40"/>
+        <v>350</v>
+      </c>
+      <c r="E87" s="37"/>
       <c r="F87" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G87" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="H87" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N87" s="18"/>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-      <c r="C88" s="40"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E88" s="40"/>
+        <v>353</v>
+      </c>
+      <c r="E88" s="37"/>
       <c r="F88" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>19</v>
@@ -6531,54 +6579,54 @@
       <c r="J88" s="9"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N88" s="18"/>
     </row>
     <row r="89" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-      <c r="C89" s="40"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E89" s="40"/>
+      <c r="E89" s="37"/>
       <c r="F89" s="21" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="C90" s="41"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E90" s="41"/>
+        <v>357</v>
+      </c>
+      <c r="E90" s="37"/>
       <c r="F90" s="21" t="s">
         <v>361</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>19</v>
@@ -6589,142 +6637,142 @@
       <c r="J90" s="9"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-      <c r="C91" s="39" t="s">
-        <v>363</v>
-      </c>
+      <c r="C91" s="38"/>
       <c r="D91" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>365</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E91" s="38"/>
       <c r="F91" s="21" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="D92" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E92" s="40"/>
+        <v>363</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>364</v>
+      </c>
       <c r="F92" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="21" t="s">
-        <v>445</v>
+      <c r="I92" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N92" s="18"/>
     </row>
     <row r="93" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-      <c r="C93" s="40"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E93" s="40"/>
+        <v>372</v>
+      </c>
+      <c r="E93" s="37"/>
       <c r="F93" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="G93" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="14" t="s">
-        <v>377</v>
+      <c r="I93" s="21" t="s">
+        <v>444</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N93" s="18"/>
     </row>
     <row r="94" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="40"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E94" s="40"/>
+        <v>374</v>
+      </c>
+      <c r="E94" s="37"/>
       <c r="F94" s="21" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="21" t="s">
-        <v>368</v>
+      <c r="I94" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N94" s="18"/>
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-      <c r="C95" s="40"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E95" s="40"/>
+        <v>378</v>
+      </c>
+      <c r="E95" s="37"/>
       <c r="F95" s="21" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>367</v>
@@ -6732,31 +6780,31 @@
       <c r="H95" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="14" t="s">
-        <v>33</v>
+      <c r="I95" s="21" t="s">
+        <v>367</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N95" s="18"/>
     </row>
     <row r="96" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="40"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" s="40"/>
+        <v>381</v>
+      </c>
+      <c r="E96" s="37"/>
       <c r="F96" s="21" t="s">
         <v>386</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>19</v>
@@ -6767,54 +6815,54 @@
       <c r="J96" s="9"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22" t="s">
-        <v>498</v>
+        <v>328</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="N96" s="18"/>
     </row>
     <row r="97" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="40"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E97" s="40"/>
+        <v>382</v>
+      </c>
+      <c r="E97" s="37"/>
       <c r="F97" s="21" t="s">
         <v>385</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22" t="s">
-        <v>329</v>
+        <v>497</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N97" s="18"/>
     </row>
     <row r="98" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="40"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E98" s="40"/>
+        <v>383</v>
+      </c>
+      <c r="E98" s="37"/>
       <c r="F98" s="21" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>19</v>
@@ -6825,323 +6873,323 @@
       <c r="J98" s="9"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22" t="s">
-        <v>498</v>
+        <v>328</v>
       </c>
       <c r="M98" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="2"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="N98" s="18"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B99" s="2">
+      <c r="E99" s="37"/>
+      <c r="F99" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M99" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="N99" s="18"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B100" s="2">
         <v>55</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="D100" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F99" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99" s="12" t="s">
+      <c r="F100" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="17" t="s">
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N99" s="2"/>
-    </row>
-    <row r="100" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="2"/>
-      <c r="C100" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="G100" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="H100" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M100" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N100" s="18"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="33"/>
+      <c r="C101" s="53" t="s">
+        <v>440</v>
+      </c>
       <c r="D101" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="M101" s="29" t="s">
-        <v>298</v>
+        <v>446</v>
+      </c>
+      <c r="E101" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="M101" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="N101" s="18"/>
     </row>
     <row r="102" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="33"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E102" s="33"/>
+        <v>448</v>
+      </c>
+      <c r="E102" s="53"/>
       <c r="F102" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H102" s="29" t="s">
         <v>19</v>
       </c>
       <c r="I102" s="29" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
       <c r="L102" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M102" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N102" s="18"/>
     </row>
     <row r="103" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
-      <c r="C103" s="33"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="M103" s="21" t="s">
-        <v>298</v>
+        <v>449</v>
+      </c>
+      <c r="E103" s="53"/>
+      <c r="F103" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="M103" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="N103" s="18"/>
     </row>
     <row r="104" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-      <c r="C104" s="33"/>
+      <c r="C104" s="53"/>
       <c r="D104" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="H104" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="M104" s="29" t="s">
-        <v>298</v>
+        <v>378</v>
+      </c>
+      <c r="E104" s="53"/>
+      <c r="F104" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="M104" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="N104" s="18"/>
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-      <c r="C105" s="33"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="M105" s="21" t="s">
-        <v>298</v>
+        <v>381</v>
+      </c>
+      <c r="E105" s="53"/>
+      <c r="F105" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="N105" s="18"/>
     </row>
     <row r="106" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
-      <c r="C106" s="33"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E106" s="33"/>
+        <v>457</v>
+      </c>
+      <c r="E106" s="53"/>
       <c r="F106" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G106" s="21"/>
+        <v>454</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>443</v>
+      </c>
       <c r="H106" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>521</v>
+        <v>297</v>
       </c>
       <c r="N106" s="18"/>
     </row>
     <row r="107" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
-      <c r="C107" s="33"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="G107" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="H107" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="M107" s="29" t="s">
-        <v>298</v>
+        <v>508</v>
+      </c>
+      <c r="E107" s="53"/>
+      <c r="F107" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="M107" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="N107" s="18"/>
     </row>
     <row r="108" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
-      <c r="C108" s="33" t="s">
-        <v>485</v>
-      </c>
+      <c r="C108" s="53"/>
       <c r="D108" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="F108" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E108" s="53"/>
+      <c r="F108" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="G108" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="G108" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="H108" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I108" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="M108" s="21" t="s">
-        <v>283</v>
+      <c r="H108" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="M108" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="N108" s="18"/>
     </row>
     <row r="109" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
-      <c r="C109" s="33"/>
+      <c r="C109" s="53" t="s">
+        <v>484</v>
+      </c>
       <c r="D109" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E109" s="33"/>
+        <v>485</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>441</v>
+      </c>
       <c r="F109" s="21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H109" s="21" t="s">
         <v>19</v>
@@ -7152,112 +7200,112 @@
       <c r="J109" s="9"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M109" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N109" s="18"/>
     </row>
     <row r="110" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
-      <c r="C110" s="33"/>
+      <c r="C110" s="53"/>
       <c r="D110" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E110" s="33"/>
+        <v>488</v>
+      </c>
+      <c r="E110" s="53"/>
       <c r="F110" s="21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M110" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N110" s="18"/>
     </row>
     <row r="111" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="2"/>
-      <c r="C111" s="33"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E111" s="33"/>
+        <v>489</v>
+      </c>
+      <c r="E111" s="53"/>
       <c r="F111" s="21" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H111" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I111" s="14" t="s">
-        <v>33</v>
+      <c r="I111" s="21" t="s">
+        <v>451</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M111" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N111" s="18"/>
     </row>
     <row r="112" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="2"/>
-      <c r="C112" s="33"/>
+      <c r="C112" s="53"/>
       <c r="D112" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="E112" s="33"/>
+        <v>491</v>
+      </c>
+      <c r="E112" s="53"/>
       <c r="F112" s="21" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H112" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M112" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N112" s="18"/>
     </row>
     <row r="113" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="2"/>
-      <c r="C113" s="33"/>
+      <c r="C113" s="53"/>
       <c r="D113" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E113" s="33"/>
+        <v>494</v>
+      </c>
+      <c r="E113" s="53"/>
       <c r="F113" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H113" s="21" t="s">
         <v>19</v>
@@ -7268,32 +7316,78 @@
       <c r="J113" s="9"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M113" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N113" s="18"/>
+    </row>
+    <row r="114" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="2"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114" s="53"/>
+      <c r="F114" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M114" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="N114" s="18"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C115" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N115" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C28:C46"/>
-    <mergeCell ref="E28:E46"/>
-    <mergeCell ref="E83:E90"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="E74:E82"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C61:C70"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="E61:E70"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="E109:E114"/>
+    <mergeCell ref="C101:C108"/>
+    <mergeCell ref="E101:E108"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -7303,9 +7397,22 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="E91:E98"/>
-    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C28:C47"/>
+    <mergeCell ref="E28:E47"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="E62:E71"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
